--- a/test-exemple/ig/all-profiles.xlsx
+++ b/test-exemple/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T12:38:03+00:00</t>
+    <t>2025-05-21T13:02:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-exemple/ig/all-profiles.xlsx
+++ b/test-exemple/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T13:02:00+00:00</t>
+    <t>2025-05-21T13:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-exemple/ig/all-profiles.xlsx
+++ b/test-exemple/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T13:16:37+00:00</t>
+    <t>2025-05-21T13:53:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-exemple/ig/all-profiles.xlsx
+++ b/test-exemple/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11358" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11229" uniqueCount="945">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T13:53:14+00:00</t>
+    <t>2025-05-21T14:14:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1917,33 +1917,6 @@
   </si>
   <si>
     <t>Cette extension implemente l'élément descriptionSummary de R5. elle permet l'ajout d'un texte bref décrivant l'essai</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension:eclaire-description-summary-r5.id</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension.id</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension:eclaire-description-summary-r5.extension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension.extension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension:eclaire-description-summary-r5.url</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.descriptionSummary</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension:eclaire-description-summary-r5.value[x]</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension.value[x]</t>
   </si>
   <si>
     <t>ResearchStudy.extension:eclaire-outcome-measure-r5</t>
@@ -5452,7 +5425,7 @@
         <v>4</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>947</v>
+        <v>938</v>
       </c>
     </row>
     <row r="309">
@@ -5468,7 +5441,7 @@
         <v>8</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>948</v>
+        <v>939</v>
       </c>
     </row>
     <row r="311">
@@ -5620,7 +5593,7 @@
         <v>4</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>949</v>
+        <v>940</v>
       </c>
     </row>
     <row r="331">
@@ -5636,7 +5609,7 @@
         <v>8</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>950</v>
+        <v>941</v>
       </c>
     </row>
     <row r="333">
@@ -5764,7 +5737,7 @@
         <v>38</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>951</v>
+        <v>942</v>
       </c>
     </row>
     <row r="350">
@@ -5788,7 +5761,7 @@
         <v>4</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>952</v>
+        <v>943</v>
       </c>
     </row>
     <row r="353">
@@ -5804,7 +5777,7 @@
         <v>8</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="355">
@@ -5942,7 +5915,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK325"/>
+  <dimension ref="A1:AK321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5952,7 +5925,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="23.3125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="54.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.9140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="37.0078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="25.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
@@ -28433,9 +28406,11 @@
         <v>614</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="D216" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="D216" t="s" s="2">
+        <v>547</v>
+      </c>
       <c r="E216" t="s" s="2">
         <v>76</v>
       </c>
@@ -28444,10 +28419,10 @@
         <v>77</v>
       </c>
       <c r="H216" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I216" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J216" t="s" s="2">
         <v>76</v>
@@ -28456,13 +28431,13 @@
         <v>76</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>84</v>
+        <v>615</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>85</v>
+        <v>616</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>86</v>
+        <v>617</v>
       </c>
       <c r="O216" s="2"/>
       <c r="P216" s="2"/>
@@ -28513,19 +28488,19 @@
         <v>76</v>
       </c>
       <c r="AG216" t="s" s="2">
-        <v>87</v>
+        <v>246</v>
       </c>
       <c r="AH216" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI216" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ216" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK216" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="217">
@@ -28533,12 +28508,14 @@
         <v>573</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="D217" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="D217" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="E217" t="s" s="2">
         <v>76</v>
       </c>
@@ -28547,10 +28524,10 @@
         <v>77</v>
       </c>
       <c r="H217" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I217" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J217" t="s" s="2">
         <v>76</v>
@@ -28559,13 +28536,13 @@
         <v>76</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>89</v>
+        <v>619</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>31</v>
+        <v>620</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>90</v>
+        <v>621</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" s="2"/>
@@ -28604,19 +28581,19 @@
         <v>76</v>
       </c>
       <c r="AC217" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD217" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE217" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG217" t="s" s="2">
-        <v>94</v>
+        <v>246</v>
       </c>
       <c r="AH217" t="s" s="2">
         <v>77</v>
@@ -28636,24 +28613,26 @@
         <v>573</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="D218" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="D218" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="E218" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F218" s="2"/>
       <c r="G218" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H218" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I218" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J218" t="s" s="2">
         <v>76</v>
@@ -28662,24 +28641,22 @@
         <v>76</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>96</v>
+        <v>623</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>97</v>
+        <v>624</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O218" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="O218" s="2"/>
       <c r="P218" s="2"/>
       <c r="Q218" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R218" s="2"/>
       <c r="S218" t="s" s="2">
-        <v>620</v>
+        <v>76</v>
       </c>
       <c r="T218" t="s" s="2">
         <v>76</v>
@@ -28721,19 +28698,19 @@
         <v>76</v>
       </c>
       <c r="AG218" t="s" s="2">
-        <v>95</v>
+        <v>246</v>
       </c>
       <c r="AH218" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI218" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="219">
@@ -28741,42 +28718,46 @@
         <v>573</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H219" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I219" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K219" t="s" s="2">
         <v>76</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>555</v>
+        <v>89</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O219" s="2"/>
-      <c r="P219" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="O219" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="P219" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="Q219" t="s" s="2">
         <v>76</v>
       </c>
@@ -28812,31 +28793,31 @@
         <v>76</v>
       </c>
       <c r="AC219" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD219" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE219" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>100</v>
+        <v>251</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ219" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="220">
@@ -28844,14 +28825,12 @@
         <v>573</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="D220" t="s" s="2">
-        <v>547</v>
-      </c>
+        <v>627</v>
+      </c>
+      <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
         <v>76</v>
       </c>
@@ -28863,25 +28842,27 @@
         <v>78</v>
       </c>
       <c r="I220" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J220" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K220" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="J220" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K220" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L220" t="s" s="2">
-        <v>624</v>
+        <v>253</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="O220" s="2"/>
-      <c r="P220" s="2"/>
+      <c r="P220" t="s" s="2">
+        <v>630</v>
+      </c>
       <c r="Q220" t="s" s="2">
         <v>76</v>
       </c>
@@ -28917,19 +28898,19 @@
         <v>76</v>
       </c>
       <c r="AC220" t="s" s="2">
-        <v>76</v>
+        <v>631</v>
       </c>
       <c r="AD220" t="s" s="2">
-        <v>76</v>
+        <v>632</v>
       </c>
       <c r="AE220" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG220" t="s" s="2">
-        <v>246</v>
+        <v>627</v>
       </c>
       <c r="AH220" t="s" s="2">
         <v>77</v>
@@ -28941,7 +28922,7 @@
         <v>80</v>
       </c>
       <c r="AK220" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="221">
@@ -28949,13 +28930,13 @@
         <v>573</v>
       </c>
       <c r="B221" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="C221" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="C221" t="s" s="2">
-        <v>589</v>
-      </c>
       <c r="D221" t="s" s="2">
-        <v>133</v>
+        <v>634</v>
       </c>
       <c r="E221" t="s" s="2">
         <v>76</v>
@@ -28965,7 +28946,7 @@
         <v>77</v>
       </c>
       <c r="H221" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I221" t="s" s="2">
         <v>205</v>
@@ -28974,19 +28955,21 @@
         <v>76</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>628</v>
+        <v>253</v>
       </c>
       <c r="M221" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="N221" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="N221" t="s" s="2">
+      <c r="O221" s="2"/>
+      <c r="P221" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="O221" s="2"/>
-      <c r="P221" s="2"/>
       <c r="Q221" t="s" s="2">
         <v>76</v>
       </c>
@@ -29034,7 +29017,7 @@
         <v>76</v>
       </c>
       <c r="AG221" t="s" s="2">
-        <v>246</v>
+        <v>627</v>
       </c>
       <c r="AH221" t="s" s="2">
         <v>77</v>
@@ -29046,7 +29029,7 @@
         <v>80</v>
       </c>
       <c r="AK221" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="222">
@@ -29054,14 +29037,12 @@
         <v>573</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="D222" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
         <v>76</v>
       </c>
@@ -29070,10 +29051,10 @@
         <v>77</v>
       </c>
       <c r="H222" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I222" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J222" t="s" s="2">
         <v>76</v>
@@ -29082,13 +29063,13 @@
         <v>76</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>632</v>
+        <v>84</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>633</v>
+        <v>85</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>634</v>
+        <v>86</v>
       </c>
       <c r="O222" s="2"/>
       <c r="P222" s="2"/>
@@ -29139,19 +29120,19 @@
         <v>76</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>246</v>
+        <v>87</v>
       </c>
       <c r="AH222" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI222" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK222" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="223">
@@ -29159,10 +29140,10 @@
         <v>573</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
@@ -29179,7 +29160,7 @@
         <v>76</v>
       </c>
       <c r="J223" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K223" t="s" s="2">
         <v>76</v>
@@ -29188,17 +29169,15 @@
         <v>89</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>248</v>
+        <v>111</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>249</v>
+        <v>112</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="P223" t="s" s="2">
-        <v>250</v>
-      </c>
+      <c r="P223" s="2"/>
       <c r="Q223" t="s" s="2">
         <v>76</v>
       </c>
@@ -29246,7 +29225,7 @@
         <v>93</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>251</v>
+        <v>94</v>
       </c>
       <c r="AH223" t="s" s="2">
         <v>77</v>
@@ -29266,10 +29245,10 @@
         <v>573</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
@@ -29277,32 +29256,34 @@
       </c>
       <c r="F224" s="2"/>
       <c r="G224" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H224" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I224" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J224" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K224" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="O224" s="2"/>
+        <v>643</v>
+      </c>
+      <c r="O224" t="s" s="2">
+        <v>644</v>
+      </c>
       <c r="P224" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="Q224" t="s" s="2">
         <v>76</v>
@@ -29312,7 +29293,7 @@
         <v>76</v>
       </c>
       <c r="T224" t="s" s="2">
-        <v>76</v>
+        <v>646</v>
       </c>
       <c r="U224" t="s" s="2">
         <v>76</v>
@@ -29327,37 +29308,37 @@
         <v>76</v>
       </c>
       <c r="Y224" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="Z224" t="s" s="2">
-        <v>76</v>
+        <v>647</v>
       </c>
       <c r="AA224" t="s" s="2">
-        <v>76</v>
+        <v>648</v>
       </c>
       <c r="AB224" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC224" t="s" s="2">
-        <v>640</v>
+        <v>76</v>
       </c>
       <c r="AD224" t="s" s="2">
-        <v>641</v>
+        <v>76</v>
       </c>
       <c r="AE224" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG224" t="s" s="2">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI224" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ224" t="s" s="2">
         <v>80</v>
@@ -29371,14 +29352,12 @@
         <v>573</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="D225" t="s" s="2">
-        <v>643</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
         <v>76</v>
       </c>
@@ -29390,7 +29369,7 @@
         <v>83</v>
       </c>
       <c r="I225" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J225" t="s" s="2">
         <v>76</v>
@@ -29399,17 +29378,19 @@
         <v>205</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>253</v>
+        <v>145</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="O225" s="2"/>
+        <v>653</v>
+      </c>
+      <c r="O225" t="s" s="2">
+        <v>654</v>
+      </c>
       <c r="P225" t="s" s="2">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="Q225" t="s" s="2">
         <v>76</v>
@@ -29434,13 +29415,13 @@
         <v>76</v>
       </c>
       <c r="Y225" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="Z225" t="s" s="2">
-        <v>76</v>
+        <v>656</v>
       </c>
       <c r="AA225" t="s" s="2">
-        <v>76</v>
+        <v>657</v>
       </c>
       <c r="AB225" t="s" s="2">
         <v>76</v>
@@ -29458,13 +29439,13 @@
         <v>76</v>
       </c>
       <c r="AG225" t="s" s="2">
-        <v>636</v>
+        <v>658</v>
       </c>
       <c r="AH225" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI225" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ225" t="s" s="2">
         <v>80</v>
@@ -29478,10 +29459,10 @@
         <v>573</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
@@ -29501,19 +29482,23 @@
         <v>76</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>85</v>
+        <v>661</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O226" s="2"/>
-      <c r="P226" s="2"/>
+        <v>662</v>
+      </c>
+      <c r="O226" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="P226" t="s" s="2">
+        <v>664</v>
+      </c>
       <c r="Q226" t="s" s="2">
         <v>76</v>
       </c>
@@ -29525,7 +29510,7 @@
         <v>76</v>
       </c>
       <c r="U226" t="s" s="2">
-        <v>76</v>
+        <v>665</v>
       </c>
       <c r="V226" t="s" s="2">
         <v>76</v>
@@ -29561,7 +29546,7 @@
         <v>76</v>
       </c>
       <c r="AG226" t="s" s="2">
-        <v>87</v>
+        <v>666</v>
       </c>
       <c r="AH226" t="s" s="2">
         <v>77</v>
@@ -29570,10 +29555,10 @@
         <v>83</v>
       </c>
       <c r="AJ226" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK226" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="227">
@@ -29581,21 +29566,21 @@
         <v>573</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>647</v>
+        <v>667</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F227" s="2"/>
       <c r="G227" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H227" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I227" t="s" s="2">
         <v>76</v>
@@ -29604,19 +29589,19 @@
         <v>76</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>111</v>
+        <v>669</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>112</v>
+        <v>670</v>
       </c>
       <c r="O227" t="s" s="2">
-        <v>113</v>
+        <v>671</v>
       </c>
       <c r="P227" s="2"/>
       <c r="Q227" t="s" s="2">
@@ -29630,7 +29615,7 @@
         <v>76</v>
       </c>
       <c r="U227" t="s" s="2">
-        <v>76</v>
+        <v>672</v>
       </c>
       <c r="V227" t="s" s="2">
         <v>76</v>
@@ -29654,31 +29639,31 @@
         <v>76</v>
       </c>
       <c r="AC227" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD227" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE227" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>94</v>
+        <v>673</v>
       </c>
       <c r="AH227" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI227" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ227" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK227" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="228">
@@ -29686,10 +29671,10 @@
         <v>573</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>649</v>
+        <v>674</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" t="s" s="2">
@@ -29697,7 +29682,7 @@
       </c>
       <c r="F228" s="2"/>
       <c r="G228" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H228" t="s" s="2">
         <v>83</v>
@@ -29706,26 +29691,24 @@
         <v>76</v>
       </c>
       <c r="J228" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K228" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>651</v>
+        <v>676</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>652</v>
+        <v>677</v>
       </c>
       <c r="O228" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="P228" t="s" s="2">
-        <v>654</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="P228" s="2"/>
       <c r="Q228" t="s" s="2">
         <v>76</v>
       </c>
@@ -29734,7 +29717,7 @@
         <v>76</v>
       </c>
       <c r="T228" t="s" s="2">
-        <v>655</v>
+        <v>76</v>
       </c>
       <c r="U228" t="s" s="2">
         <v>76</v>
@@ -29749,13 +29732,13 @@
         <v>76</v>
       </c>
       <c r="Y228" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Z228" t="s" s="2">
-        <v>656</v>
+        <v>76</v>
       </c>
       <c r="AA228" t="s" s="2">
-        <v>657</v>
+        <v>76</v>
       </c>
       <c r="AB228" t="s" s="2">
         <v>76</v>
@@ -29773,7 +29756,7 @@
         <v>76</v>
       </c>
       <c r="AG228" t="s" s="2">
-        <v>658</v>
+        <v>678</v>
       </c>
       <c r="AH228" t="s" s="2">
         <v>77</v>
@@ -29785,7 +29768,7 @@
         <v>80</v>
       </c>
       <c r="AK228" t="s" s="2">
-        <v>104</v>
+        <v>337</v>
       </c>
     </row>
     <row r="229">
@@ -29793,10 +29776,10 @@
         <v>573</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>659</v>
+        <v>679</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
@@ -29816,23 +29799,19 @@
         <v>76</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>661</v>
+        <v>85</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="O229" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="P229" t="s" s="2">
-        <v>664</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O229" s="2"/>
+      <c r="P229" s="2"/>
       <c r="Q229" t="s" s="2">
         <v>76</v>
       </c>
@@ -29856,13 +29835,13 @@
         <v>76</v>
       </c>
       <c r="Y229" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="Z229" t="s" s="2">
-        <v>665</v>
+        <v>76</v>
       </c>
       <c r="AA229" t="s" s="2">
-        <v>666</v>
+        <v>76</v>
       </c>
       <c r="AB229" t="s" s="2">
         <v>76</v>
@@ -29880,7 +29859,7 @@
         <v>76</v>
       </c>
       <c r="AG229" t="s" s="2">
-        <v>667</v>
+        <v>87</v>
       </c>
       <c r="AH229" t="s" s="2">
         <v>77</v>
@@ -29889,10 +29868,10 @@
         <v>83</v>
       </c>
       <c r="AJ229" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK229" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="230">
@@ -29900,21 +29879,21 @@
         <v>573</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F230" s="2"/>
       <c r="G230" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H230" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I230" t="s" s="2">
         <v>76</v>
@@ -29923,23 +29902,21 @@
         <v>76</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>670</v>
+        <v>111</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>671</v>
+        <v>112</v>
       </c>
       <c r="O230" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="P230" t="s" s="2">
-        <v>673</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P230" s="2"/>
       <c r="Q230" t="s" s="2">
         <v>76</v>
       </c>
@@ -29951,7 +29928,7 @@
         <v>76</v>
       </c>
       <c r="U230" t="s" s="2">
-        <v>674</v>
+        <v>76</v>
       </c>
       <c r="V230" t="s" s="2">
         <v>76</v>
@@ -29975,31 +29952,31 @@
         <v>76</v>
       </c>
       <c r="AC230" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD230" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE230" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG230" t="s" s="2">
-        <v>675</v>
+        <v>94</v>
       </c>
       <c r="AH230" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI230" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ230" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK230" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="231">
@@ -30007,10 +29984,10 @@
         <v>573</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -30033,16 +30010,16 @@
         <v>205</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>84</v>
+        <v>685</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="O231" t="s" s="2">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="P231" s="2"/>
       <c r="Q231" t="s" s="2">
@@ -30056,7 +30033,7 @@
         <v>76</v>
       </c>
       <c r="U231" t="s" s="2">
-        <v>681</v>
+        <v>76</v>
       </c>
       <c r="V231" t="s" s="2">
         <v>76</v>
@@ -30092,7 +30069,7 @@
         <v>76</v>
       </c>
       <c r="AG231" t="s" s="2">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="AH231" t="s" s="2">
         <v>77</v>
@@ -30101,7 +30078,7 @@
         <v>83</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>80</v>
+        <v>690</v>
       </c>
       <c r="AK231" t="s" s="2">
         <v>104</v>
@@ -30112,10 +30089,10 @@
         <v>573</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
@@ -30138,22 +30115,24 @@
         <v>205</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>155</v>
+        <v>685</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="O232" t="s" s="2">
-        <v>336</v>
+        <v>695</v>
       </c>
       <c r="P232" s="2"/>
       <c r="Q232" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R232" s="2"/>
+      <c r="R232" t="s" s="2">
+        <v>696</v>
+      </c>
       <c r="S232" t="s" s="2">
         <v>76</v>
       </c>
@@ -30197,7 +30176,7 @@
         <v>76</v>
       </c>
       <c r="AG232" t="s" s="2">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="AH232" t="s" s="2">
         <v>77</v>
@@ -30206,10 +30185,10 @@
         <v>83</v>
       </c>
       <c r="AJ232" t="s" s="2">
-        <v>80</v>
+        <v>690</v>
       </c>
       <c r="AK232" t="s" s="2">
-        <v>337</v>
+        <v>104</v>
       </c>
     </row>
     <row r="233">
@@ -30217,10 +30196,10 @@
         <v>573</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" t="s" s="2">
@@ -30240,18 +30219,20 @@
         <v>76</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>84</v>
+        <v>507</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>85</v>
+        <v>700</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O233" s="2"/>
+        <v>701</v>
+      </c>
+      <c r="O233" t="s" s="2">
+        <v>702</v>
+      </c>
       <c r="P233" s="2"/>
       <c r="Q233" t="s" s="2">
         <v>76</v>
@@ -30300,7 +30281,7 @@
         <v>76</v>
       </c>
       <c r="AG233" t="s" s="2">
-        <v>87</v>
+        <v>703</v>
       </c>
       <c r="AH233" t="s" s="2">
         <v>77</v>
@@ -30309,10 +30290,10 @@
         <v>83</v>
       </c>
       <c r="AJ233" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK233" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
     </row>
     <row r="234">
@@ -30320,14 +30301,16 @@
         <v>573</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>690</v>
+        <v>704</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="D234" s="2"/>
+        <v>627</v>
+      </c>
+      <c r="D234" t="s" s="2">
+        <v>705</v>
+      </c>
       <c r="E234" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F234" s="2"/>
       <c r="G234" t="s" s="2">
@@ -30337,27 +30320,27 @@
         <v>78</v>
       </c>
       <c r="I234" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J234" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>89</v>
+        <v>253</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>111</v>
+        <v>706</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O234" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P234" s="2"/>
+        <v>629</v>
+      </c>
+      <c r="O234" s="2"/>
+      <c r="P234" t="s" s="2">
+        <v>630</v>
+      </c>
       <c r="Q234" t="s" s="2">
         <v>76</v>
       </c>
@@ -30393,19 +30376,19 @@
         <v>76</v>
       </c>
       <c r="AC234" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD234" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE234" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG234" t="s" s="2">
-        <v>94</v>
+        <v>627</v>
       </c>
       <c r="AH234" t="s" s="2">
         <v>77</v>
@@ -30417,7 +30400,7 @@
         <v>80</v>
       </c>
       <c r="AK234" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="235">
@@ -30425,10 +30408,10 @@
         <v>573</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>693</v>
+        <v>637</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
@@ -30448,20 +30431,18 @@
         <v>76</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>694</v>
+        <v>84</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>695</v>
+        <v>85</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="O235" t="s" s="2">
-        <v>697</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O235" s="2"/>
       <c r="P235" s="2"/>
       <c r="Q235" t="s" s="2">
         <v>76</v>
@@ -30510,7 +30491,7 @@
         <v>76</v>
       </c>
       <c r="AG235" t="s" s="2">
-        <v>698</v>
+        <v>87</v>
       </c>
       <c r="AH235" t="s" s="2">
         <v>77</v>
@@ -30519,10 +30500,10 @@
         <v>83</v>
       </c>
       <c r="AJ235" t="s" s="2">
-        <v>699</v>
+        <v>76</v>
       </c>
       <c r="AK235" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="236">
@@ -30530,21 +30511,21 @@
         <v>573</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>701</v>
+        <v>639</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F236" s="2"/>
       <c r="G236" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H236" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I236" t="s" s="2">
         <v>76</v>
@@ -30553,27 +30534,25 @@
         <v>76</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>694</v>
+        <v>89</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>702</v>
+        <v>111</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>703</v>
+        <v>112</v>
       </c>
       <c r="O236" t="s" s="2">
-        <v>704</v>
+        <v>113</v>
       </c>
       <c r="P236" s="2"/>
       <c r="Q236" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R236" t="s" s="2">
-        <v>705</v>
-      </c>
+      <c r="R236" s="2"/>
       <c r="S236" t="s" s="2">
         <v>76</v>
       </c>
@@ -30605,31 +30584,31 @@
         <v>76</v>
       </c>
       <c r="AC236" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD236" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE236" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG236" t="s" s="2">
-        <v>706</v>
+        <v>94</v>
       </c>
       <c r="AH236" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI236" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ236" t="s" s="2">
-        <v>699</v>
+        <v>80</v>
       </c>
       <c r="AK236" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="237">
@@ -30637,10 +30616,10 @@
         <v>573</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>708</v>
+        <v>641</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
@@ -30648,7 +30627,7 @@
       </c>
       <c r="F237" s="2"/>
       <c r="G237" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H237" t="s" s="2">
         <v>83</v>
@@ -30657,24 +30636,26 @@
         <v>76</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K237" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>507</v>
+        <v>222</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>709</v>
+        <v>642</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>710</v>
+        <v>643</v>
       </c>
       <c r="O237" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="P237" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="P237" t="s" s="2">
+        <v>645</v>
+      </c>
       <c r="Q237" t="s" s="2">
         <v>76</v>
       </c>
@@ -30683,7 +30664,7 @@
         <v>76</v>
       </c>
       <c r="T237" t="s" s="2">
-        <v>76</v>
+        <v>710</v>
       </c>
       <c r="U237" t="s" s="2">
         <v>76</v>
@@ -30698,13 +30679,13 @@
         <v>76</v>
       </c>
       <c r="Y237" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="Z237" t="s" s="2">
-        <v>76</v>
+        <v>647</v>
       </c>
       <c r="AA237" t="s" s="2">
-        <v>76</v>
+        <v>648</v>
       </c>
       <c r="AB237" t="s" s="2">
         <v>76</v>
@@ -30722,7 +30703,7 @@
         <v>76</v>
       </c>
       <c r="AG237" t="s" s="2">
-        <v>712</v>
+        <v>649</v>
       </c>
       <c r="AH237" t="s" s="2">
         <v>77</v>
@@ -30734,7 +30715,7 @@
         <v>80</v>
       </c>
       <c r="AK237" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="238">
@@ -30742,14 +30723,12 @@
         <v>573</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="D238" t="s" s="2">
-        <v>714</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="D238" s="2"/>
       <c r="E238" t="s" s="2">
         <v>76</v>
       </c>
@@ -30758,10 +30737,10 @@
         <v>77</v>
       </c>
       <c r="H238" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I238" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J238" t="s" s="2">
         <v>76</v>
@@ -30770,17 +30749,19 @@
         <v>205</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>253</v>
+        <v>145</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>715</v>
+        <v>652</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="O238" s="2"/>
+        <v>653</v>
+      </c>
+      <c r="O238" t="s" s="2">
+        <v>654</v>
+      </c>
       <c r="P238" t="s" s="2">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="Q238" t="s" s="2">
         <v>76</v>
@@ -30805,13 +30786,13 @@
         <v>76</v>
       </c>
       <c r="Y238" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="Z238" t="s" s="2">
-        <v>76</v>
+        <v>656</v>
       </c>
       <c r="AA238" t="s" s="2">
-        <v>76</v>
+        <v>657</v>
       </c>
       <c r="AB238" t="s" s="2">
         <v>76</v>
@@ -30829,13 +30810,13 @@
         <v>76</v>
       </c>
       <c r="AG238" t="s" s="2">
-        <v>636</v>
+        <v>658</v>
       </c>
       <c r="AH238" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI238" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ238" t="s" s="2">
         <v>80</v>
@@ -30849,10 +30830,10 @@
         <v>573</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" t="s" s="2">
@@ -30872,19 +30853,23 @@
         <v>76</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>85</v>
+        <v>661</v>
       </c>
       <c r="N239" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O239" s="2"/>
-      <c r="P239" s="2"/>
+        <v>662</v>
+      </c>
+      <c r="O239" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="P239" t="s" s="2">
+        <v>664</v>
+      </c>
       <c r="Q239" t="s" s="2">
         <v>76</v>
       </c>
@@ -30896,7 +30881,7 @@
         <v>76</v>
       </c>
       <c r="U239" t="s" s="2">
-        <v>76</v>
+        <v>665</v>
       </c>
       <c r="V239" t="s" s="2">
         <v>76</v>
@@ -30932,7 +30917,7 @@
         <v>76</v>
       </c>
       <c r="AG239" t="s" s="2">
-        <v>87</v>
+        <v>666</v>
       </c>
       <c r="AH239" t="s" s="2">
         <v>77</v>
@@ -30941,10 +30926,10 @@
         <v>83</v>
       </c>
       <c r="AJ239" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK239" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="240">
@@ -30952,21 +30937,21 @@
         <v>573</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F240" s="2"/>
       <c r="G240" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H240" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I240" t="s" s="2">
         <v>76</v>
@@ -30975,19 +30960,19 @@
         <v>76</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>111</v>
+        <v>669</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>112</v>
+        <v>670</v>
       </c>
       <c r="O240" t="s" s="2">
-        <v>113</v>
+        <v>671</v>
       </c>
       <c r="P240" s="2"/>
       <c r="Q240" t="s" s="2">
@@ -31001,7 +30986,7 @@
         <v>76</v>
       </c>
       <c r="U240" t="s" s="2">
-        <v>76</v>
+        <v>672</v>
       </c>
       <c r="V240" t="s" s="2">
         <v>76</v>
@@ -31025,31 +31010,31 @@
         <v>76</v>
       </c>
       <c r="AC240" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD240" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE240" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG240" t="s" s="2">
-        <v>94</v>
+        <v>673</v>
       </c>
       <c r="AH240" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI240" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ240" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK240" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="241">
@@ -31057,10 +31042,10 @@
         <v>573</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" t="s" s="2">
@@ -31068,7 +31053,7 @@
       </c>
       <c r="F241" s="2"/>
       <c r="G241" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H241" t="s" s="2">
         <v>83</v>
@@ -31077,26 +31062,24 @@
         <v>76</v>
       </c>
       <c r="J241" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K241" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>651</v>
+        <v>676</v>
       </c>
       <c r="N241" t="s" s="2">
-        <v>652</v>
+        <v>677</v>
       </c>
       <c r="O241" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="P241" t="s" s="2">
-        <v>654</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="P241" s="2"/>
       <c r="Q241" t="s" s="2">
         <v>76</v>
       </c>
@@ -31105,7 +31088,7 @@
         <v>76</v>
       </c>
       <c r="T241" t="s" s="2">
-        <v>719</v>
+        <v>76</v>
       </c>
       <c r="U241" t="s" s="2">
         <v>76</v>
@@ -31120,13 +31103,13 @@
         <v>76</v>
       </c>
       <c r="Y241" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Z241" t="s" s="2">
-        <v>656</v>
+        <v>76</v>
       </c>
       <c r="AA241" t="s" s="2">
-        <v>657</v>
+        <v>76</v>
       </c>
       <c r="AB241" t="s" s="2">
         <v>76</v>
@@ -31144,7 +31127,7 @@
         <v>76</v>
       </c>
       <c r="AG241" t="s" s="2">
-        <v>658</v>
+        <v>678</v>
       </c>
       <c r="AH241" t="s" s="2">
         <v>77</v>
@@ -31156,7 +31139,7 @@
         <v>80</v>
       </c>
       <c r="AK241" t="s" s="2">
-        <v>104</v>
+        <v>337</v>
       </c>
     </row>
     <row r="242">
@@ -31164,10 +31147,10 @@
         <v>573</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>660</v>
+        <v>699</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" t="s" s="2">
@@ -31190,20 +31173,18 @@
         <v>205</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>145</v>
+        <v>507</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>661</v>
+        <v>700</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>662</v>
+        <v>701</v>
       </c>
       <c r="O242" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="P242" t="s" s="2">
-        <v>664</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="P242" s="2"/>
       <c r="Q242" t="s" s="2">
         <v>76</v>
       </c>
@@ -31227,13 +31208,13 @@
         <v>76</v>
       </c>
       <c r="Y242" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="Z242" t="s" s="2">
-        <v>665</v>
+        <v>76</v>
       </c>
       <c r="AA242" t="s" s="2">
-        <v>666</v>
+        <v>76</v>
       </c>
       <c r="AB242" t="s" s="2">
         <v>76</v>
@@ -31251,7 +31232,7 @@
         <v>76</v>
       </c>
       <c r="AG242" t="s" s="2">
-        <v>667</v>
+        <v>703</v>
       </c>
       <c r="AH242" t="s" s="2">
         <v>77</v>
@@ -31263,7 +31244,7 @@
         <v>80</v>
       </c>
       <c r="AK242" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
     </row>
     <row r="243">
@@ -31271,10 +31252,10 @@
         <v>573</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>669</v>
+        <v>716</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" t="s" s="2">
@@ -31288,7 +31269,7 @@
         <v>83</v>
       </c>
       <c r="I243" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J243" t="s" s="2">
         <v>76</v>
@@ -31297,20 +31278,18 @@
         <v>205</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>670</v>
+        <v>717</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>671</v>
+        <v>718</v>
       </c>
       <c r="O243" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="P243" t="s" s="2">
-        <v>673</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="P243" s="2"/>
       <c r="Q243" t="s" s="2">
         <v>76</v>
       </c>
@@ -31322,7 +31301,7 @@
         <v>76</v>
       </c>
       <c r="U243" t="s" s="2">
-        <v>674</v>
+        <v>76</v>
       </c>
       <c r="V243" t="s" s="2">
         <v>76</v>
@@ -31358,7 +31337,7 @@
         <v>76</v>
       </c>
       <c r="AG243" t="s" s="2">
-        <v>675</v>
+        <v>716</v>
       </c>
       <c r="AH243" t="s" s="2">
         <v>77</v>
@@ -31378,10 +31357,10 @@
         <v>573</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>677</v>
+        <v>719</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" t="s" s="2">
@@ -31392,7 +31371,7 @@
         <v>77</v>
       </c>
       <c r="H244" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I244" t="s" s="2">
         <v>76</v>
@@ -31404,16 +31383,16 @@
         <v>205</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>84</v>
+        <v>720</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>678</v>
+        <v>721</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>679</v>
+        <v>722</v>
       </c>
       <c r="O244" t="s" s="2">
-        <v>680</v>
+        <v>349</v>
       </c>
       <c r="P244" s="2"/>
       <c r="Q244" t="s" s="2">
@@ -31427,7 +31406,7 @@
         <v>76</v>
       </c>
       <c r="U244" t="s" s="2">
-        <v>681</v>
+        <v>76</v>
       </c>
       <c r="V244" t="s" s="2">
         <v>76</v>
@@ -31463,19 +31442,19 @@
         <v>76</v>
       </c>
       <c r="AG244" t="s" s="2">
-        <v>682</v>
+        <v>719</v>
       </c>
       <c r="AH244" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI244" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ244" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK244" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
     </row>
     <row r="245">
@@ -31486,18 +31465,18 @@
         <v>723</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>684</v>
+        <v>723</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" t="s" s="2">
-        <v>76</v>
+        <v>724</v>
       </c>
       <c r="F245" s="2"/>
       <c r="G245" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H245" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I245" t="s" s="2">
         <v>76</v>
@@ -31509,18 +31488,20 @@
         <v>205</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>155</v>
+        <v>725</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>685</v>
+        <v>726</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>686</v>
+        <v>727</v>
       </c>
       <c r="O245" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="P245" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="P245" t="s" s="2">
+        <v>728</v>
+      </c>
       <c r="Q245" t="s" s="2">
         <v>76</v>
       </c>
@@ -31568,19 +31549,19 @@
         <v>76</v>
       </c>
       <c r="AG245" t="s" s="2">
-        <v>687</v>
+        <v>723</v>
       </c>
       <c r="AH245" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI245" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ245" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK245" t="s" s="2">
-        <v>337</v>
+        <v>297</v>
       </c>
     </row>
     <row r="246">
@@ -31588,10 +31569,10 @@
         <v>573</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>708</v>
+        <v>729</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" t="s" s="2">
@@ -31599,31 +31580,31 @@
       </c>
       <c r="F246" s="2"/>
       <c r="G246" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H246" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I246" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J246" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K246" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>507</v>
+        <v>222</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>709</v>
+        <v>730</v>
       </c>
       <c r="N246" t="s" s="2">
-        <v>710</v>
+        <v>731</v>
       </c>
       <c r="O246" t="s" s="2">
-        <v>711</v>
+        <v>284</v>
       </c>
       <c r="P246" s="2"/>
       <c r="Q246" t="s" s="2">
@@ -31649,13 +31630,13 @@
         <v>76</v>
       </c>
       <c r="Y246" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="Z246" t="s" s="2">
-        <v>76</v>
+        <v>732</v>
       </c>
       <c r="AA246" t="s" s="2">
-        <v>76</v>
+        <v>733</v>
       </c>
       <c r="AB246" t="s" s="2">
         <v>76</v>
@@ -31673,10 +31654,10 @@
         <v>76</v>
       </c>
       <c r="AG246" t="s" s="2">
-        <v>712</v>
+        <v>729</v>
       </c>
       <c r="AH246" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI246" t="s" s="2">
         <v>83</v>
@@ -31685,7 +31666,7 @@
         <v>80</v>
       </c>
       <c r="AK246" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="247">
@@ -31693,10 +31674,10 @@
         <v>573</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
@@ -31719,16 +31700,16 @@
         <v>205</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="O247" t="s" s="2">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="P247" s="2"/>
       <c r="Q247" t="s" s="2">
@@ -31754,13 +31735,13 @@
         <v>76</v>
       </c>
       <c r="Y247" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="Z247" t="s" s="2">
-        <v>76</v>
+        <v>737</v>
       </c>
       <c r="AA247" t="s" s="2">
-        <v>76</v>
+        <v>738</v>
       </c>
       <c r="AB247" t="s" s="2">
         <v>76</v>
@@ -31778,7 +31759,7 @@
         <v>76</v>
       </c>
       <c r="AG247" t="s" s="2">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="AH247" t="s" s="2">
         <v>77</v>
@@ -31798,10 +31779,10 @@
         <v>573</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>728</v>
+        <v>739</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>728</v>
+        <v>739</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
@@ -31812,10 +31793,10 @@
         <v>77</v>
       </c>
       <c r="H248" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I248" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J248" t="s" s="2">
         <v>76</v>
@@ -31824,16 +31805,16 @@
         <v>205</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>729</v>
+        <v>145</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="N248" t="s" s="2">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="O248" t="s" s="2">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="P248" s="2"/>
       <c r="Q248" t="s" s="2">
@@ -31859,13 +31840,11 @@
         <v>76</v>
       </c>
       <c r="Y248" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z248" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="Z248" s="2"/>
       <c r="AA248" t="s" s="2">
-        <v>76</v>
+        <v>742</v>
       </c>
       <c r="AB248" t="s" s="2">
         <v>76</v>
@@ -31883,19 +31862,19 @@
         <v>76</v>
       </c>
       <c r="AG248" t="s" s="2">
-        <v>728</v>
+        <v>739</v>
       </c>
       <c r="AH248" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI248" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ248" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK248" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="249">
@@ -31903,14 +31882,14 @@
         <v>573</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>732</v>
+        <v>743</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>732</v>
+        <v>743</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" t="s" s="2">
-        <v>733</v>
+        <v>76</v>
       </c>
       <c r="F249" s="2"/>
       <c r="G249" t="s" s="2">
@@ -31920,7 +31899,7 @@
         <v>78</v>
       </c>
       <c r="I249" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J249" t="s" s="2">
         <v>76</v>
@@ -31929,20 +31908,18 @@
         <v>205</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>734</v>
+        <v>145</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="N249" t="s" s="2">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="O249" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="P249" t="s" s="2">
-        <v>737</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="P249" s="2"/>
       <c r="Q249" t="s" s="2">
         <v>76</v>
       </c>
@@ -31966,13 +31943,11 @@
         <v>76</v>
       </c>
       <c r="Y249" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z249" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="Z249" s="2"/>
       <c r="AA249" t="s" s="2">
-        <v>76</v>
+        <v>746</v>
       </c>
       <c r="AB249" t="s" s="2">
         <v>76</v>
@@ -31990,7 +31965,7 @@
         <v>76</v>
       </c>
       <c r="AG249" t="s" s="2">
-        <v>732</v>
+        <v>743</v>
       </c>
       <c r="AH249" t="s" s="2">
         <v>77</v>
@@ -32002,7 +31977,7 @@
         <v>80</v>
       </c>
       <c r="AK249" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="250">
@@ -32010,10 +31985,10 @@
         <v>573</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" t="s" s="2">
@@ -32021,31 +31996,31 @@
       </c>
       <c r="F250" s="2"/>
       <c r="G250" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H250" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I250" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K250" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>222</v>
+        <v>145</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="O250" t="s" s="2">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="P250" s="2"/>
       <c r="Q250" t="s" s="2">
@@ -32071,13 +32046,13 @@
         <v>76</v>
       </c>
       <c r="Y250" t="s" s="2">
-        <v>191</v>
+        <v>279</v>
       </c>
       <c r="Z250" t="s" s="2">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="AA250" t="s" s="2">
-        <v>742</v>
+        <v>76</v>
       </c>
       <c r="AB250" t="s" s="2">
         <v>76</v>
@@ -32095,13 +32070,13 @@
         <v>76</v>
       </c>
       <c r="AG250" t="s" s="2">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="AH250" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI250" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ250" t="s" s="2">
         <v>80</v>
@@ -32115,10 +32090,10 @@
         <v>573</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
@@ -32129,7 +32104,7 @@
         <v>77</v>
       </c>
       <c r="H251" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I251" t="s" s="2">
         <v>205</v>
@@ -32144,10 +32119,10 @@
         <v>145</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>314</v>
@@ -32176,13 +32151,13 @@
         <v>76</v>
       </c>
       <c r="Y251" t="s" s="2">
-        <v>146</v>
+        <v>279</v>
       </c>
       <c r="Z251" t="s" s="2">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="AA251" t="s" s="2">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="AB251" t="s" s="2">
         <v>76</v>
@@ -32191,22 +32166,22 @@
         <v>76</v>
       </c>
       <c r="AD251" t="s" s="2">
-        <v>76</v>
+        <v>756</v>
       </c>
       <c r="AE251" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF251" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG251" t="s" s="2">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="AH251" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI251" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ251" t="s" s="2">
         <v>80</v>
@@ -32220,12 +32195,14 @@
         <v>573</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="D252" s="2"/>
+        <v>751</v>
+      </c>
+      <c r="D252" t="s" s="2">
+        <v>758</v>
+      </c>
       <c r="E252" t="s" s="2">
         <v>76</v>
       </c>
@@ -32234,7 +32211,7 @@
         <v>77</v>
       </c>
       <c r="H252" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I252" t="s" s="2">
         <v>205</v>
@@ -32249,10 +32226,10 @@
         <v>145</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>314</v>
@@ -32281,35 +32258,37 @@
         <v>76</v>
       </c>
       <c r="Y252" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Z252" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="Z252" t="s" s="2">
+        <v>754</v>
+      </c>
       <c r="AA252" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="AB252" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC252" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD252" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE252" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF252" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG252" t="s" s="2">
         <v>751</v>
       </c>
-      <c r="AB252" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC252" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD252" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE252" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF252" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG252" t="s" s="2">
-        <v>748</v>
-      </c>
       <c r="AH252" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI252" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ252" t="s" s="2">
         <v>80</v>
@@ -32323,10 +32302,10 @@
         <v>573</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
@@ -32337,29 +32316,27 @@
         <v>77</v>
       </c>
       <c r="H253" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I253" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J253" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>753</v>
+        <v>85</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>754</v>
-      </c>
-      <c r="O253" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O253" s="2"/>
       <c r="P253" s="2"/>
       <c r="Q253" t="s" s="2">
         <v>76</v>
@@ -32369,7 +32346,7 @@
         <v>76</v>
       </c>
       <c r="T253" t="s" s="2">
-        <v>76</v>
+        <v>762</v>
       </c>
       <c r="U253" t="s" s="2">
         <v>76</v>
@@ -32384,11 +32361,13 @@
         <v>76</v>
       </c>
       <c r="Y253" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Z253" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Z253" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AA253" t="s" s="2">
-        <v>755</v>
+        <v>76</v>
       </c>
       <c r="AB253" t="s" s="2">
         <v>76</v>
@@ -32406,19 +32385,19 @@
         <v>76</v>
       </c>
       <c r="AG253" t="s" s="2">
-        <v>752</v>
+        <v>87</v>
       </c>
       <c r="AH253" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI253" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ253" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK253" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="254">
@@ -32426,14 +32405,14 @@
         <v>573</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F254" s="2"/>
       <c r="G254" t="s" s="2">
@@ -32449,19 +32428,19 @@
         <v>76</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>757</v>
+        <v>111</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>758</v>
+        <v>112</v>
       </c>
       <c r="O254" t="s" s="2">
-        <v>314</v>
+        <v>113</v>
       </c>
       <c r="P254" s="2"/>
       <c r="Q254" t="s" s="2">
@@ -32487,10 +32466,10 @@
         <v>76</v>
       </c>
       <c r="Y254" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z254" t="s" s="2">
-        <v>759</v>
+        <v>76</v>
       </c>
       <c r="AA254" t="s" s="2">
         <v>76</v>
@@ -32499,19 +32478,19 @@
         <v>76</v>
       </c>
       <c r="AC254" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD254" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE254" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF254" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG254" t="s" s="2">
-        <v>756</v>
+        <v>94</v>
       </c>
       <c r="AH254" t="s" s="2">
         <v>77</v>
@@ -32523,7 +32502,7 @@
         <v>80</v>
       </c>
       <c r="AK254" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="255">
@@ -32531,10 +32510,10 @@
         <v>573</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" t="s" s="2">
@@ -32548,7 +32527,7 @@
         <v>78</v>
       </c>
       <c r="I255" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J255" t="s" s="2">
         <v>76</v>
@@ -32557,18 +32536,20 @@
         <v>205</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="N255" t="s" s="2">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="O255" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="P255" s="2"/>
+        <v>769</v>
+      </c>
+      <c r="P255" t="s" s="2">
+        <v>770</v>
+      </c>
       <c r="Q255" t="s" s="2">
         <v>76</v>
       </c>
@@ -32592,13 +32573,13 @@
         <v>76</v>
       </c>
       <c r="Y255" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z255" t="s" s="2">
-        <v>763</v>
+        <v>76</v>
       </c>
       <c r="AA255" t="s" s="2">
-        <v>764</v>
+        <v>76</v>
       </c>
       <c r="AB255" t="s" s="2">
         <v>76</v>
@@ -32607,16 +32588,16 @@
         <v>76</v>
       </c>
       <c r="AD255" t="s" s="2">
-        <v>765</v>
+        <v>76</v>
       </c>
       <c r="AE255" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF255" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG255" t="s" s="2">
-        <v>760</v>
+        <v>771</v>
       </c>
       <c r="AH255" t="s" s="2">
         <v>77</v>
@@ -32636,14 +32617,12 @@
         <v>573</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>760</v>
-      </c>
-      <c r="D256" t="s" s="2">
-        <v>767</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="D256" s="2"/>
       <c r="E256" t="s" s="2">
         <v>76</v>
       </c>
@@ -32652,29 +32631,27 @@
         <v>77</v>
       </c>
       <c r="H256" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I256" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J256" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K256" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>768</v>
+        <v>85</v>
       </c>
       <c r="N256" t="s" s="2">
-        <v>762</v>
-      </c>
-      <c r="O256" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O256" s="2"/>
       <c r="P256" s="2"/>
       <c r="Q256" t="s" s="2">
         <v>76</v>
@@ -32699,13 +32676,13 @@
         <v>76</v>
       </c>
       <c r="Y256" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z256" t="s" s="2">
-        <v>763</v>
+        <v>76</v>
       </c>
       <c r="AA256" t="s" s="2">
-        <v>764</v>
+        <v>76</v>
       </c>
       <c r="AB256" t="s" s="2">
         <v>76</v>
@@ -32723,19 +32700,19 @@
         <v>76</v>
       </c>
       <c r="AG256" t="s" s="2">
-        <v>760</v>
+        <v>87</v>
       </c>
       <c r="AH256" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI256" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ256" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK256" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="257">
@@ -32743,21 +32720,21 @@
         <v>573</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F257" s="2"/>
       <c r="G257" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H257" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I257" t="s" s="2">
         <v>76</v>
@@ -32769,15 +32746,17 @@
         <v>76</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="N257" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O257" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="O257" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="P257" s="2"/>
       <c r="Q257" t="s" s="2">
         <v>76</v>
@@ -32787,7 +32766,7 @@
         <v>76</v>
       </c>
       <c r="T257" t="s" s="2">
-        <v>771</v>
+        <v>76</v>
       </c>
       <c r="U257" t="s" s="2">
         <v>76</v>
@@ -32814,31 +32793,31 @@
         <v>76</v>
       </c>
       <c r="AC257" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD257" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE257" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF257" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG257" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH257" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI257" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ257" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK257" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="258">
@@ -32846,21 +32825,21 @@
         <v>573</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F258" s="2"/>
       <c r="G258" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H258" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I258" t="s" s="2">
         <v>76</v>
@@ -32869,21 +32848,23 @@
         <v>76</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>111</v>
+        <v>778</v>
       </c>
       <c r="N258" t="s" s="2">
-        <v>112</v>
+        <v>779</v>
       </c>
       <c r="O258" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P258" s="2"/>
+        <v>780</v>
+      </c>
+      <c r="P258" t="s" s="2">
+        <v>781</v>
+      </c>
       <c r="Q258" t="s" s="2">
         <v>76</v>
       </c>
@@ -32892,7 +32873,7 @@
         <v>76</v>
       </c>
       <c r="T258" t="s" s="2">
-        <v>76</v>
+        <v>782</v>
       </c>
       <c r="U258" t="s" s="2">
         <v>76</v>
@@ -32919,31 +32900,31 @@
         <v>76</v>
       </c>
       <c r="AC258" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD258" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE258" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF258" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG258" t="s" s="2">
-        <v>94</v>
+        <v>783</v>
       </c>
       <c r="AH258" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI258" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ258" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK258" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="259">
@@ -32951,10 +32932,10 @@
         <v>573</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>775</v>
+        <v>785</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" t="s" s="2">
@@ -32965,7 +32946,7 @@
         <v>77</v>
       </c>
       <c r="H259" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I259" t="s" s="2">
         <v>76</v>
@@ -32977,20 +32958,18 @@
         <v>205</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>405</v>
+        <v>84</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="N259" t="s" s="2">
-        <v>777</v>
+        <v>787</v>
       </c>
       <c r="O259" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="P259" t="s" s="2">
-        <v>779</v>
-      </c>
+        <v>788</v>
+      </c>
+      <c r="P259" s="2"/>
       <c r="Q259" t="s" s="2">
         <v>76</v>
       </c>
@@ -33038,13 +33017,13 @@
         <v>76</v>
       </c>
       <c r="AG259" t="s" s="2">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="AH259" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI259" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ259" t="s" s="2">
         <v>80</v>
@@ -33058,10 +33037,10 @@
         <v>573</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" t="s" s="2">
@@ -33081,19 +33060,23 @@
         <v>76</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>84</v>
+        <v>222</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>85</v>
+        <v>792</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O260" s="2"/>
-      <c r="P260" s="2"/>
+        <v>793</v>
+      </c>
+      <c r="O260" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="P260" t="s" s="2">
+        <v>794</v>
+      </c>
       <c r="Q260" t="s" s="2">
         <v>76</v>
       </c>
@@ -33141,7 +33124,7 @@
         <v>76</v>
       </c>
       <c r="AG260" t="s" s="2">
-        <v>87</v>
+        <v>795</v>
       </c>
       <c r="AH260" t="s" s="2">
         <v>77</v>
@@ -33150,10 +33133,10 @@
         <v>83</v>
       </c>
       <c r="AJ260" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK260" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="261">
@@ -33161,21 +33144,21 @@
         <v>573</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>783</v>
+        <v>796</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>784</v>
+        <v>797</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F261" s="2"/>
       <c r="G261" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H261" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I261" t="s" s="2">
         <v>76</v>
@@ -33184,21 +33167,23 @@
         <v>76</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>111</v>
+        <v>798</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>112</v>
+        <v>799</v>
       </c>
       <c r="O261" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P261" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="P261" t="s" s="2">
+        <v>800</v>
+      </c>
       <c r="Q261" t="s" s="2">
         <v>76</v>
       </c>
@@ -33234,31 +33219,31 @@
         <v>76</v>
       </c>
       <c r="AC261" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD261" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE261" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF261" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG261" t="s" s="2">
-        <v>94</v>
+        <v>801</v>
       </c>
       <c r="AH261" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI261" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ261" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK261" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="262">
@@ -33266,10 +33251,10 @@
         <v>573</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>785</v>
+        <v>802</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>786</v>
+        <v>803</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" t="s" s="2">
@@ -33292,19 +33277,19 @@
         <v>205</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>96</v>
+        <v>258</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>787</v>
+        <v>804</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>788</v>
+        <v>805</v>
       </c>
       <c r="O262" t="s" s="2">
-        <v>789</v>
+        <v>806</v>
       </c>
       <c r="P262" t="s" s="2">
-        <v>790</v>
+        <v>807</v>
       </c>
       <c r="Q262" t="s" s="2">
         <v>76</v>
@@ -33314,7 +33299,7 @@
         <v>76</v>
       </c>
       <c r="T262" t="s" s="2">
-        <v>791</v>
+        <v>76</v>
       </c>
       <c r="U262" t="s" s="2">
         <v>76</v>
@@ -33353,7 +33338,7 @@
         <v>76</v>
       </c>
       <c r="AG262" t="s" s="2">
-        <v>792</v>
+        <v>808</v>
       </c>
       <c r="AH262" t="s" s="2">
         <v>77</v>
@@ -33373,10 +33358,10 @@
         <v>573</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>793</v>
+        <v>809</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>794</v>
+        <v>810</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" t="s" s="2">
@@ -33402,15 +33387,17 @@
         <v>84</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>795</v>
+        <v>811</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>796</v>
+        <v>812</v>
       </c>
       <c r="O263" t="s" s="2">
-        <v>797</v>
-      </c>
-      <c r="P263" s="2"/>
+        <v>813</v>
+      </c>
+      <c r="P263" t="s" s="2">
+        <v>814</v>
+      </c>
       <c r="Q263" t="s" s="2">
         <v>76</v>
       </c>
@@ -33458,7 +33445,7 @@
         <v>76</v>
       </c>
       <c r="AG263" t="s" s="2">
-        <v>798</v>
+        <v>815</v>
       </c>
       <c r="AH263" t="s" s="2">
         <v>77</v>
@@ -33478,12 +33465,14 @@
         <v>573</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>799</v>
+        <v>816</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>800</v>
-      </c>
-      <c r="D264" s="2"/>
+        <v>751</v>
+      </c>
+      <c r="D264" t="s" s="2">
+        <v>817</v>
+      </c>
       <c r="E264" t="s" s="2">
         <v>76</v>
       </c>
@@ -33492,10 +33481,10 @@
         <v>77</v>
       </c>
       <c r="H264" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I264" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J264" t="s" s="2">
         <v>76</v>
@@ -33504,20 +33493,18 @@
         <v>205</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>222</v>
+        <v>145</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>801</v>
+        <v>818</v>
       </c>
       <c r="N264" t="s" s="2">
-        <v>802</v>
+        <v>753</v>
       </c>
       <c r="O264" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="P264" t="s" s="2">
-        <v>803</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="P264" s="2"/>
       <c r="Q264" t="s" s="2">
         <v>76</v>
       </c>
@@ -33541,13 +33528,13 @@
         <v>76</v>
       </c>
       <c r="Y264" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="Z264" t="s" s="2">
-        <v>76</v>
+        <v>754</v>
       </c>
       <c r="AA264" t="s" s="2">
-        <v>76</v>
+        <v>755</v>
       </c>
       <c r="AB264" t="s" s="2">
         <v>76</v>
@@ -33565,13 +33552,13 @@
         <v>76</v>
       </c>
       <c r="AG264" t="s" s="2">
-        <v>804</v>
+        <v>751</v>
       </c>
       <c r="AH264" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI264" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ264" t="s" s="2">
         <v>80</v>
@@ -33585,10 +33572,10 @@
         <v>573</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>805</v>
+        <v>819</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>806</v>
+        <v>761</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" t="s" s="2">
@@ -33608,23 +33595,19 @@
         <v>76</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L265" t="s" s="2">
         <v>84</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>807</v>
+        <v>85</v>
       </c>
       <c r="N265" t="s" s="2">
-        <v>808</v>
-      </c>
-      <c r="O265" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="P265" t="s" s="2">
-        <v>809</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O265" s="2"/>
+      <c r="P265" s="2"/>
       <c r="Q265" t="s" s="2">
         <v>76</v>
       </c>
@@ -33633,7 +33616,7 @@
         <v>76</v>
       </c>
       <c r="T265" t="s" s="2">
-        <v>76</v>
+        <v>820</v>
       </c>
       <c r="U265" t="s" s="2">
         <v>76</v>
@@ -33672,7 +33655,7 @@
         <v>76</v>
       </c>
       <c r="AG265" t="s" s="2">
-        <v>810</v>
+        <v>87</v>
       </c>
       <c r="AH265" t="s" s="2">
         <v>77</v>
@@ -33681,10 +33664,10 @@
         <v>83</v>
       </c>
       <c r="AJ265" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK265" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="266">
@@ -33692,21 +33675,21 @@
         <v>573</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>811</v>
+        <v>821</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>812</v>
+        <v>764</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F266" s="2"/>
       <c r="G266" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H266" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I266" t="s" s="2">
         <v>76</v>
@@ -33715,23 +33698,21 @@
         <v>76</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>258</v>
+        <v>89</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>813</v>
+        <v>111</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>814</v>
+        <v>112</v>
       </c>
       <c r="O266" t="s" s="2">
-        <v>815</v>
-      </c>
-      <c r="P266" t="s" s="2">
-        <v>816</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P266" s="2"/>
       <c r="Q266" t="s" s="2">
         <v>76</v>
       </c>
@@ -33767,31 +33748,31 @@
         <v>76</v>
       </c>
       <c r="AC266" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD266" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE266" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF266" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG266" t="s" s="2">
-        <v>817</v>
+        <v>94</v>
       </c>
       <c r="AH266" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI266" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ266" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK266" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="267">
@@ -33799,10 +33780,10 @@
         <v>573</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>819</v>
+        <v>766</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" t="s" s="2">
@@ -33813,7 +33794,7 @@
         <v>77</v>
       </c>
       <c r="H267" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I267" t="s" s="2">
         <v>76</v>
@@ -33825,19 +33806,19 @@
         <v>205</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>84</v>
+        <v>405</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>820</v>
+        <v>767</v>
       </c>
       <c r="N267" t="s" s="2">
-        <v>821</v>
+        <v>768</v>
       </c>
       <c r="O267" t="s" s="2">
-        <v>822</v>
+        <v>769</v>
       </c>
       <c r="P267" t="s" s="2">
-        <v>823</v>
+        <v>770</v>
       </c>
       <c r="Q267" t="s" s="2">
         <v>76</v>
@@ -33886,13 +33867,13 @@
         <v>76</v>
       </c>
       <c r="AG267" t="s" s="2">
-        <v>824</v>
+        <v>771</v>
       </c>
       <c r="AH267" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI267" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ267" t="s" s="2">
         <v>80</v>
@@ -33906,26 +33887,24 @@
         <v>573</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>760</v>
-      </c>
-      <c r="D268" t="s" s="2">
-        <v>826</v>
-      </c>
+        <v>810</v>
+      </c>
+      <c r="D268" s="2"/>
       <c r="E268" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F268" s="2"/>
       <c r="G268" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H268" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I268" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J268" t="s" s="2">
         <v>76</v>
@@ -33934,18 +33913,20 @@
         <v>205</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>827</v>
+        <v>811</v>
       </c>
       <c r="N268" t="s" s="2">
-        <v>762</v>
+        <v>812</v>
       </c>
       <c r="O268" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="P268" s="2"/>
+        <v>813</v>
+      </c>
+      <c r="P268" t="s" s="2">
+        <v>814</v>
+      </c>
       <c r="Q268" t="s" s="2">
         <v>76</v>
       </c>
@@ -33969,13 +33950,13 @@
         <v>76</v>
       </c>
       <c r="Y268" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z268" t="s" s="2">
-        <v>763</v>
+        <v>76</v>
       </c>
       <c r="AA268" t="s" s="2">
-        <v>764</v>
+        <v>76</v>
       </c>
       <c r="AB268" t="s" s="2">
         <v>76</v>
@@ -33993,13 +33974,13 @@
         <v>76</v>
       </c>
       <c r="AG268" t="s" s="2">
-        <v>760</v>
+        <v>815</v>
       </c>
       <c r="AH268" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI268" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ268" t="s" s="2">
         <v>80</v>
@@ -34013,10 +33994,10 @@
         <v>573</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>770</v>
+        <v>824</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" t="s" s="2">
@@ -34027,25 +34008,25 @@
         <v>77</v>
       </c>
       <c r="H269" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I269" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J269" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>84</v>
+        <v>825</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>85</v>
+        <v>826</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>86</v>
+        <v>827</v>
       </c>
       <c r="O269" s="2"/>
       <c r="P269" s="2"/>
@@ -34057,7 +34038,7 @@
         <v>76</v>
       </c>
       <c r="T269" t="s" s="2">
-        <v>829</v>
+        <v>76</v>
       </c>
       <c r="U269" t="s" s="2">
         <v>76</v>
@@ -34096,19 +34077,19 @@
         <v>76</v>
       </c>
       <c r="AG269" t="s" s="2">
-        <v>87</v>
+        <v>824</v>
       </c>
       <c r="AH269" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI269" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ269" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK269" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="270">
@@ -34116,21 +34097,21 @@
         <v>573</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>773</v>
+        <v>828</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F270" s="2"/>
       <c r="G270" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H270" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I270" t="s" s="2">
         <v>76</v>
@@ -34142,17 +34123,15 @@
         <v>76</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O270" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O270" s="2"/>
       <c r="P270" s="2"/>
       <c r="Q270" t="s" s="2">
         <v>76</v>
@@ -34189,31 +34168,31 @@
         <v>76</v>
       </c>
       <c r="AC270" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD270" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE270" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF270" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG270" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH270" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI270" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ270" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK270" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="271">
@@ -34221,14 +34200,14 @@
         <v>573</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>775</v>
+        <v>829</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F271" s="2"/>
       <c r="G271" t="s" s="2">
@@ -34244,23 +34223,21 @@
         <v>76</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>405</v>
+        <v>89</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>776</v>
+        <v>111</v>
       </c>
       <c r="N271" t="s" s="2">
-        <v>777</v>
+        <v>112</v>
       </c>
       <c r="O271" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="P271" t="s" s="2">
-        <v>779</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P271" s="2"/>
       <c r="Q271" t="s" s="2">
         <v>76</v>
       </c>
@@ -34296,19 +34273,19 @@
         <v>76</v>
       </c>
       <c r="AC271" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD271" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE271" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF271" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG271" t="s" s="2">
-        <v>780</v>
+        <v>94</v>
       </c>
       <c r="AH271" t="s" s="2">
         <v>77</v>
@@ -34320,7 +34297,7 @@
         <v>80</v>
       </c>
       <c r="AK271" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="272">
@@ -34328,46 +34305,44 @@
         <v>573</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>819</v>
-      </c>
-      <c r="D272" s="2"/>
+        <v>829</v>
+      </c>
+      <c r="D272" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="E272" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F272" s="2"/>
       <c r="G272" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H272" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I272" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J272" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>84</v>
+        <v>831</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="N272" t="s" s="2">
-        <v>821</v>
-      </c>
-      <c r="O272" t="s" s="2">
-        <v>822</v>
-      </c>
-      <c r="P272" t="s" s="2">
-        <v>823</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="O272" s="2"/>
+      <c r="P272" s="2"/>
       <c r="Q272" t="s" s="2">
         <v>76</v>
       </c>
@@ -34415,19 +34390,19 @@
         <v>76</v>
       </c>
       <c r="AG272" t="s" s="2">
-        <v>824</v>
+        <v>94</v>
       </c>
       <c r="AH272" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI272" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ272" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK272" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="273">
@@ -34438,9 +34413,11 @@
         <v>833</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>833</v>
-      </c>
-      <c r="D273" s="2"/>
+        <v>829</v>
+      </c>
+      <c r="D273" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="E273" t="s" s="2">
         <v>76</v>
       </c>
@@ -34449,7 +34426,7 @@
         <v>77</v>
       </c>
       <c r="H273" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I273" t="s" s="2">
         <v>205</v>
@@ -34458,7 +34435,7 @@
         <v>76</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L273" t="s" s="2">
         <v>834</v>
@@ -34467,7 +34444,7 @@
         <v>835</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>836</v>
+        <v>175</v>
       </c>
       <c r="O273" s="2"/>
       <c r="P273" s="2"/>
@@ -34518,7 +34495,7 @@
         <v>76</v>
       </c>
       <c r="AG273" t="s" s="2">
-        <v>833</v>
+        <v>94</v>
       </c>
       <c r="AH273" t="s" s="2">
         <v>77</v>
@@ -34530,7 +34507,7 @@
         <v>80</v>
       </c>
       <c r="AK273" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="274">
@@ -34538,12 +34515,14 @@
         <v>573</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>837</v>
-      </c>
-      <c r="D274" s="2"/>
+        <v>829</v>
+      </c>
+      <c r="D274" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="E274" t="s" s="2">
         <v>76</v>
       </c>
@@ -34555,7 +34534,7 @@
         <v>83</v>
       </c>
       <c r="I274" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J274" t="s" s="2">
         <v>76</v>
@@ -34564,13 +34543,13 @@
         <v>76</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>84</v>
+        <v>837</v>
       </c>
       <c r="M274" t="s" s="2">
-        <v>85</v>
+        <v>838</v>
       </c>
       <c r="N274" t="s" s="2">
-        <v>86</v>
+        <v>181</v>
       </c>
       <c r="O274" s="2"/>
       <c r="P274" s="2"/>
@@ -34621,19 +34600,19 @@
         <v>76</v>
       </c>
       <c r="AG274" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH274" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI274" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ274" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK274" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="275">
@@ -34641,24 +34620,26 @@
         <v>573</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>838</v>
-      </c>
-      <c r="D275" s="2"/>
+        <v>829</v>
+      </c>
+      <c r="D275" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="E275" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F275" s="2"/>
       <c r="G275" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H275" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I275" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J275" t="s" s="2">
         <v>76</v>
@@ -34667,17 +34648,15 @@
         <v>76</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>89</v>
+        <v>840</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>111</v>
+        <v>841</v>
       </c>
       <c r="N275" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O275" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="O275" s="2"/>
       <c r="P275" s="2"/>
       <c r="Q275" t="s" s="2">
         <v>76</v>
@@ -34714,16 +34693,16 @@
         <v>76</v>
       </c>
       <c r="AC275" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD275" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE275" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF275" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG275" t="s" s="2">
         <v>94</v>
@@ -34746,14 +34725,12 @@
         <v>573</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>838</v>
-      </c>
-      <c r="D276" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>842</v>
+      </c>
+      <c r="D276" s="2"/>
       <c r="E276" t="s" s="2">
         <v>76</v>
       </c>
@@ -34765,24 +34742,26 @@
         <v>83</v>
       </c>
       <c r="I276" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J276" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K276" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="J276" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K276" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L276" t="s" s="2">
-        <v>840</v>
+        <v>84</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="N276" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O276" s="2"/>
+        <v>844</v>
+      </c>
+      <c r="O276" t="s" s="2">
+        <v>845</v>
+      </c>
       <c r="P276" s="2"/>
       <c r="Q276" t="s" s="2">
         <v>76</v>
@@ -34831,19 +34810,19 @@
         <v>76</v>
       </c>
       <c r="AG276" t="s" s="2">
-        <v>94</v>
+        <v>846</v>
       </c>
       <c r="AH276" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI276" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ276" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK276" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="277">
@@ -34851,14 +34830,12 @@
         <v>573</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>838</v>
-      </c>
-      <c r="D277" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>847</v>
+      </c>
+      <c r="D277" s="2"/>
       <c r="E277" t="s" s="2">
         <v>76</v>
       </c>
@@ -34867,25 +34844,25 @@
         <v>77</v>
       </c>
       <c r="H277" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I277" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J277" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K277" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="J277" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K277" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L277" t="s" s="2">
-        <v>843</v>
+        <v>435</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>175</v>
+        <v>849</v>
       </c>
       <c r="O277" s="2"/>
       <c r="P277" s="2"/>
@@ -34936,7 +34913,7 @@
         <v>76</v>
       </c>
       <c r="AG277" t="s" s="2">
-        <v>94</v>
+        <v>850</v>
       </c>
       <c r="AH277" t="s" s="2">
         <v>77</v>
@@ -34948,7 +34925,7 @@
         <v>80</v>
       </c>
       <c r="AK277" t="s" s="2">
-        <v>81</v>
+        <v>438</v>
       </c>
     </row>
     <row r="278">
@@ -34956,14 +34933,12 @@
         <v>573</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>838</v>
-      </c>
-      <c r="D278" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>851</v>
+      </c>
+      <c r="D278" s="2"/>
       <c r="E278" t="s" s="2">
         <v>76</v>
       </c>
@@ -34972,7 +34947,7 @@
         <v>77</v>
       </c>
       <c r="H278" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I278" t="s" s="2">
         <v>205</v>
@@ -34984,15 +34959,17 @@
         <v>76</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O278" s="2"/>
+        <v>854</v>
+      </c>
+      <c r="O278" t="s" s="2">
+        <v>855</v>
+      </c>
       <c r="P278" s="2"/>
       <c r="Q278" t="s" s="2">
         <v>76</v>
@@ -35041,7 +35018,7 @@
         <v>76</v>
       </c>
       <c r="AG278" t="s" s="2">
-        <v>94</v>
+        <v>851</v>
       </c>
       <c r="AH278" t="s" s="2">
         <v>77</v>
@@ -35053,7 +35030,7 @@
         <v>80</v>
       </c>
       <c r="AK278" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="279">
@@ -35061,14 +35038,12 @@
         <v>573</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>848</v>
+        <v>856</v>
       </c>
       <c r="C279" t="s" s="2">
-        <v>838</v>
-      </c>
-      <c r="D279" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>856</v>
+      </c>
+      <c r="D279" s="2"/>
       <c r="E279" t="s" s="2">
         <v>76</v>
       </c>
@@ -35077,27 +35052,29 @@
         <v>77</v>
       </c>
       <c r="H279" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I279" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J279" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K279" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="J279" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K279" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L279" t="s" s="2">
-        <v>849</v>
+        <v>145</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O279" s="2"/>
+        <v>858</v>
+      </c>
+      <c r="O279" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P279" s="2"/>
       <c r="Q279" t="s" s="2">
         <v>76</v>
@@ -35122,10 +35099,10 @@
         <v>76</v>
       </c>
       <c r="Y279" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="Z279" t="s" s="2">
-        <v>76</v>
+        <v>859</v>
       </c>
       <c r="AA279" t="s" s="2">
         <v>76</v>
@@ -35146,7 +35123,7 @@
         <v>76</v>
       </c>
       <c r="AG279" t="s" s="2">
-        <v>94</v>
+        <v>856</v>
       </c>
       <c r="AH279" t="s" s="2">
         <v>77</v>
@@ -35158,7 +35135,7 @@
         <v>80</v>
       </c>
       <c r="AK279" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="280">
@@ -35166,10 +35143,10 @@
         <v>573</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>851</v>
+        <v>860</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>851</v>
+        <v>860</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" t="s" s="2">
@@ -35180,10 +35157,10 @@
         <v>77</v>
       </c>
       <c r="H280" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I280" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J280" t="s" s="2">
         <v>76</v>
@@ -35192,16 +35169,16 @@
         <v>205</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>852</v>
+        <v>861</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="O280" t="s" s="2">
-        <v>854</v>
+        <v>314</v>
       </c>
       <c r="P280" s="2"/>
       <c r="Q280" t="s" s="2">
@@ -35227,13 +35204,13 @@
         <v>76</v>
       </c>
       <c r="Y280" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="Z280" t="s" s="2">
-        <v>76</v>
+        <v>863</v>
       </c>
       <c r="AA280" t="s" s="2">
-        <v>76</v>
+        <v>864</v>
       </c>
       <c r="AB280" t="s" s="2">
         <v>76</v>
@@ -35251,13 +35228,13 @@
         <v>76</v>
       </c>
       <c r="AG280" t="s" s="2">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="AH280" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI280" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ280" t="s" s="2">
         <v>80</v>
@@ -35271,10 +35248,10 @@
         <v>573</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>856</v>
+        <v>865</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>856</v>
+        <v>865</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" t="s" s="2">
@@ -35285,27 +35262,29 @@
         <v>77</v>
       </c>
       <c r="H281" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I281" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J281" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>435</v>
+        <v>555</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>857</v>
+        <v>866</v>
       </c>
       <c r="N281" t="s" s="2">
-        <v>858</v>
-      </c>
-      <c r="O281" s="2"/>
+        <v>867</v>
+      </c>
+      <c r="O281" t="s" s="2">
+        <v>868</v>
+      </c>
       <c r="P281" s="2"/>
       <c r="Q281" t="s" s="2">
         <v>76</v>
@@ -35354,19 +35333,19 @@
         <v>76</v>
       </c>
       <c r="AG281" t="s" s="2">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="AH281" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI281" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ281" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK281" t="s" s="2">
-        <v>438</v>
+        <v>104</v>
       </c>
     </row>
     <row r="282">
@@ -35374,14 +35353,14 @@
         <v>573</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>860</v>
+        <v>869</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>860</v>
+        <v>869</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" t="s" s="2">
-        <v>76</v>
+        <v>870</v>
       </c>
       <c r="F282" s="2"/>
       <c r="G282" t="s" s="2">
@@ -35397,19 +35376,19 @@
         <v>76</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="N282" t="s" s="2">
-        <v>863</v>
+        <v>873</v>
       </c>
       <c r="O282" t="s" s="2">
-        <v>864</v>
+        <v>874</v>
       </c>
       <c r="P282" s="2"/>
       <c r="Q282" t="s" s="2">
@@ -35459,7 +35438,7 @@
         <v>76</v>
       </c>
       <c r="AG282" t="s" s="2">
-        <v>860</v>
+        <v>869</v>
       </c>
       <c r="AH282" t="s" s="2">
         <v>77</v>
@@ -35471,7 +35450,7 @@
         <v>80</v>
       </c>
       <c r="AK282" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
     </row>
     <row r="283">
@@ -35479,21 +35458,21 @@
         <v>573</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" t="s" s="2">
-        <v>76</v>
+        <v>876</v>
       </c>
       <c r="F283" s="2"/>
       <c r="G283" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H283" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I283" t="s" s="2">
         <v>76</v>
@@ -35505,16 +35484,16 @@
         <v>205</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>866</v>
+        <v>877</v>
       </c>
       <c r="N283" t="s" s="2">
-        <v>867</v>
+        <v>878</v>
       </c>
       <c r="O283" t="s" s="2">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="P283" s="2"/>
       <c r="Q283" t="s" s="2">
@@ -35540,10 +35519,10 @@
         <v>76</v>
       </c>
       <c r="Y283" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z283" t="s" s="2">
-        <v>868</v>
+        <v>76</v>
       </c>
       <c r="AA283" t="s" s="2">
         <v>76</v>
@@ -35564,19 +35543,19 @@
         <v>76</v>
       </c>
       <c r="AG283" t="s" s="2">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="AH283" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI283" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ283" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK283" t="s" s="2">
-        <v>104</v>
+        <v>337</v>
       </c>
     </row>
     <row r="284">
@@ -35584,10 +35563,10 @@
         <v>573</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>869</v>
+        <v>879</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>869</v>
+        <v>879</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" t="s" s="2">
@@ -35598,29 +35577,27 @@
         <v>77</v>
       </c>
       <c r="H284" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I284" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J284" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>870</v>
+        <v>85</v>
       </c>
       <c r="N284" t="s" s="2">
-        <v>871</v>
-      </c>
-      <c r="O284" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O284" s="2"/>
       <c r="P284" s="2"/>
       <c r="Q284" t="s" s="2">
         <v>76</v>
@@ -35645,13 +35622,13 @@
         <v>76</v>
       </c>
       <c r="Y284" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="Z284" t="s" s="2">
-        <v>872</v>
+        <v>76</v>
       </c>
       <c r="AA284" t="s" s="2">
-        <v>873</v>
+        <v>76</v>
       </c>
       <c r="AB284" t="s" s="2">
         <v>76</v>
@@ -35669,19 +35646,19 @@
         <v>76</v>
       </c>
       <c r="AG284" t="s" s="2">
-        <v>869</v>
+        <v>87</v>
       </c>
       <c r="AH284" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI284" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ284" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK284" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="285">
@@ -35689,24 +35666,24 @@
         <v>573</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="C285" t="s" s="2">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F285" s="2"/>
       <c r="G285" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H285" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I285" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J285" t="s" s="2">
         <v>76</v>
@@ -35715,16 +35692,16 @@
         <v>76</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>555</v>
+        <v>89</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>875</v>
+        <v>111</v>
       </c>
       <c r="N285" t="s" s="2">
-        <v>876</v>
+        <v>112</v>
       </c>
       <c r="O285" t="s" s="2">
-        <v>877</v>
+        <v>113</v>
       </c>
       <c r="P285" s="2"/>
       <c r="Q285" t="s" s="2">
@@ -35762,31 +35739,31 @@
         <v>76</v>
       </c>
       <c r="AC285" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD285" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE285" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF285" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG285" t="s" s="2">
-        <v>874</v>
+        <v>94</v>
       </c>
       <c r="AH285" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI285" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ285" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK285" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="286">
@@ -35794,24 +35771,24 @@
         <v>573</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" t="s" s="2">
-        <v>879</v>
+        <v>76</v>
       </c>
       <c r="F286" s="2"/>
       <c r="G286" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H286" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I286" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J286" t="s" s="2">
         <v>76</v>
@@ -35820,16 +35797,16 @@
         <v>205</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>880</v>
+        <v>685</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="N286" t="s" s="2">
-        <v>882</v>
+        <v>687</v>
       </c>
       <c r="O286" t="s" s="2">
-        <v>883</v>
+        <v>688</v>
       </c>
       <c r="P286" s="2"/>
       <c r="Q286" t="s" s="2">
@@ -35879,19 +35856,19 @@
         <v>76</v>
       </c>
       <c r="AG286" t="s" s="2">
-        <v>878</v>
+        <v>689</v>
       </c>
       <c r="AH286" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI286" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ286" t="s" s="2">
-        <v>80</v>
+        <v>690</v>
       </c>
       <c r="AK286" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="287">
@@ -35899,14 +35876,14 @@
         <v>573</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C287" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
-        <v>885</v>
+        <v>76</v>
       </c>
       <c r="F287" s="2"/>
       <c r="G287" t="s" s="2">
@@ -35916,7 +35893,7 @@
         <v>83</v>
       </c>
       <c r="I287" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J287" t="s" s="2">
         <v>76</v>
@@ -35925,22 +35902,24 @@
         <v>205</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>155</v>
+        <v>685</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>887</v>
+        <v>694</v>
       </c>
       <c r="O287" t="s" s="2">
-        <v>336</v>
+        <v>695</v>
       </c>
       <c r="P287" s="2"/>
       <c r="Q287" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R287" s="2"/>
+      <c r="R287" t="s" s="2">
+        <v>696</v>
+      </c>
       <c r="S287" t="s" s="2">
         <v>76</v>
       </c>
@@ -35984,7 +35963,7 @@
         <v>76</v>
       </c>
       <c r="AG287" t="s" s="2">
-        <v>884</v>
+        <v>697</v>
       </c>
       <c r="AH287" t="s" s="2">
         <v>77</v>
@@ -35993,10 +35972,10 @@
         <v>83</v>
       </c>
       <c r="AJ287" t="s" s="2">
-        <v>80</v>
+        <v>690</v>
       </c>
       <c r="AK287" t="s" s="2">
-        <v>337</v>
+        <v>104</v>
       </c>
     </row>
     <row r="288">
@@ -36004,10 +35983,10 @@
         <v>573</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" t="s" s="2">
@@ -36018,7 +35997,7 @@
         <v>77</v>
       </c>
       <c r="H288" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I288" t="s" s="2">
         <v>76</v>
@@ -36027,18 +36006,20 @@
         <v>76</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>84</v>
+        <v>507</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>85</v>
+        <v>886</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O288" s="2"/>
+        <v>887</v>
+      </c>
+      <c r="O288" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="P288" s="2"/>
       <c r="Q288" t="s" s="2">
         <v>76</v>
@@ -36087,7 +36068,7 @@
         <v>76</v>
       </c>
       <c r="AG288" t="s" s="2">
-        <v>87</v>
+        <v>885</v>
       </c>
       <c r="AH288" t="s" s="2">
         <v>77</v>
@@ -36096,10 +36077,10 @@
         <v>83</v>
       </c>
       <c r="AJ288" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK288" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
     </row>
     <row r="289">
@@ -36107,21 +36088,21 @@
         <v>573</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F289" s="2"/>
       <c r="G289" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H289" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I289" t="s" s="2">
         <v>76</v>
@@ -36130,19 +36111,19 @@
         <v>76</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>89</v>
+        <v>889</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>111</v>
+        <v>890</v>
       </c>
       <c r="N289" t="s" s="2">
-        <v>112</v>
+        <v>891</v>
       </c>
       <c r="O289" t="s" s="2">
-        <v>113</v>
+        <v>349</v>
       </c>
       <c r="P289" s="2"/>
       <c r="Q289" t="s" s="2">
@@ -36180,31 +36161,31 @@
         <v>76</v>
       </c>
       <c r="AC289" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD289" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE289" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF289" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG289" t="s" s="2">
-        <v>94</v>
+        <v>888</v>
       </c>
       <c r="AH289" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI289" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ289" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK289" t="s" s="2">
-        <v>81</v>
+        <v>297</v>
       </c>
     </row>
     <row r="290">
@@ -36212,10 +36193,10 @@
         <v>573</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" t="s" s="2">
@@ -36226,10 +36207,10 @@
         <v>77</v>
       </c>
       <c r="H290" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I290" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J290" t="s" s="2">
         <v>76</v>
@@ -36238,16 +36219,16 @@
         <v>205</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>694</v>
+        <v>893</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>696</v>
+        <v>895</v>
       </c>
       <c r="O290" t="s" s="2">
-        <v>697</v>
+        <v>349</v>
       </c>
       <c r="P290" s="2"/>
       <c r="Q290" t="s" s="2">
@@ -36297,19 +36278,19 @@
         <v>76</v>
       </c>
       <c r="AG290" t="s" s="2">
-        <v>698</v>
+        <v>892</v>
       </c>
       <c r="AH290" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI290" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ290" t="s" s="2">
-        <v>699</v>
+        <v>80</v>
       </c>
       <c r="AK290" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
     </row>
     <row r="291">
@@ -36317,10 +36298,10 @@
         <v>573</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" t="s" s="2">
@@ -36334,7 +36315,7 @@
         <v>83</v>
       </c>
       <c r="I291" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J291" t="s" s="2">
         <v>76</v>
@@ -36343,24 +36324,22 @@
         <v>205</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>694</v>
+        <v>145</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="N291" t="s" s="2">
-        <v>703</v>
+        <v>898</v>
       </c>
       <c r="O291" t="s" s="2">
-        <v>704</v>
+        <v>314</v>
       </c>
       <c r="P291" s="2"/>
       <c r="Q291" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R291" t="s" s="2">
-        <v>705</v>
-      </c>
+      <c r="R291" s="2"/>
       <c r="S291" t="s" s="2">
         <v>76</v>
       </c>
@@ -36380,13 +36359,13 @@
         <v>76</v>
       </c>
       <c r="Y291" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="Z291" t="s" s="2">
-        <v>76</v>
+        <v>899</v>
       </c>
       <c r="AA291" t="s" s="2">
-        <v>76</v>
+        <v>900</v>
       </c>
       <c r="AB291" t="s" s="2">
         <v>76</v>
@@ -36404,7 +36383,7 @@
         <v>76</v>
       </c>
       <c r="AG291" t="s" s="2">
-        <v>706</v>
+        <v>896</v>
       </c>
       <c r="AH291" t="s" s="2">
         <v>77</v>
@@ -36413,7 +36392,7 @@
         <v>83</v>
       </c>
       <c r="AJ291" t="s" s="2">
-        <v>699</v>
+        <v>80</v>
       </c>
       <c r="AK291" t="s" s="2">
         <v>104</v>
@@ -36424,10 +36403,10 @@
         <v>573</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" t="s" s="2">
@@ -36438,7 +36417,7 @@
         <v>77</v>
       </c>
       <c r="H292" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I292" t="s" s="2">
         <v>76</v>
@@ -36447,19 +36426,19 @@
         <v>76</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>507</v>
+        <v>902</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="N292" t="s" s="2">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="O292" t="s" s="2">
-        <v>349</v>
+        <v>905</v>
       </c>
       <c r="P292" s="2"/>
       <c r="Q292" t="s" s="2">
@@ -36509,19 +36488,19 @@
         <v>76</v>
       </c>
       <c r="AG292" t="s" s="2">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="AH292" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI292" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ292" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK292" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="293">
@@ -36529,10 +36508,10 @@
         <v>573</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" t="s" s="2">
@@ -36543,7 +36522,7 @@
         <v>77</v>
       </c>
       <c r="H293" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I293" t="s" s="2">
         <v>76</v>
@@ -36552,20 +36531,18 @@
         <v>76</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>898</v>
+        <v>299</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="N293" t="s" s="2">
-        <v>900</v>
-      </c>
-      <c r="O293" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>908</v>
+      </c>
+      <c r="O293" s="2"/>
       <c r="P293" s="2"/>
       <c r="Q293" t="s" s="2">
         <v>76</v>
@@ -36614,19 +36591,19 @@
         <v>76</v>
       </c>
       <c r="AG293" t="s" s="2">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="AH293" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI293" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ293" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK293" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="294">
@@ -36634,10 +36611,10 @@
         <v>573</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" t="s" s="2">
@@ -36648,29 +36625,27 @@
         <v>77</v>
       </c>
       <c r="H294" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I294" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J294" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>902</v>
+        <v>84</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>903</v>
+        <v>85</v>
       </c>
       <c r="N294" t="s" s="2">
-        <v>904</v>
-      </c>
-      <c r="O294" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O294" s="2"/>
       <c r="P294" s="2"/>
       <c r="Q294" t="s" s="2">
         <v>76</v>
@@ -36719,19 +36694,19 @@
         <v>76</v>
       </c>
       <c r="AG294" t="s" s="2">
-        <v>901</v>
+        <v>87</v>
       </c>
       <c r="AH294" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI294" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ294" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK294" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
     </row>
     <row r="295">
@@ -36739,21 +36714,21 @@
         <v>573</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F295" s="2"/>
       <c r="G295" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H295" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I295" t="s" s="2">
         <v>76</v>
@@ -36762,19 +36737,19 @@
         <v>76</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>906</v>
+        <v>111</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>907</v>
+        <v>112</v>
       </c>
       <c r="O295" t="s" s="2">
-        <v>314</v>
+        <v>113</v>
       </c>
       <c r="P295" s="2"/>
       <c r="Q295" t="s" s="2">
@@ -36800,43 +36775,43 @@
         <v>76</v>
       </c>
       <c r="Y295" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z295" t="s" s="2">
-        <v>908</v>
+        <v>76</v>
       </c>
       <c r="AA295" t="s" s="2">
-        <v>909</v>
+        <v>76</v>
       </c>
       <c r="AB295" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC295" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD295" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE295" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF295" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG295" t="s" s="2">
-        <v>905</v>
+        <v>94</v>
       </c>
       <c r="AH295" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI295" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ295" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK295" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="296">
@@ -36844,12 +36819,14 @@
         <v>573</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C296" t="s" s="2">
         <v>910</v>
       </c>
-      <c r="D296" s="2"/>
+      <c r="D296" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="E296" t="s" s="2">
         <v>76</v>
       </c>
@@ -36861,7 +36838,7 @@
         <v>78</v>
       </c>
       <c r="I296" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J296" t="s" s="2">
         <v>76</v>
@@ -36870,17 +36847,15 @@
         <v>76</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="N296" t="s" s="2">
-        <v>913</v>
-      </c>
-      <c r="O296" t="s" s="2">
-        <v>914</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O296" s="2"/>
       <c r="P296" s="2"/>
       <c r="Q296" t="s" s="2">
         <v>76</v>
@@ -36929,7 +36904,7 @@
         <v>76</v>
       </c>
       <c r="AG296" t="s" s="2">
-        <v>910</v>
+        <v>94</v>
       </c>
       <c r="AH296" t="s" s="2">
         <v>77</v>
@@ -36941,7 +36916,7 @@
         <v>80</v>
       </c>
       <c r="AK296" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="297">
@@ -36949,14 +36924,14 @@
         <v>573</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="F297" s="2"/>
       <c r="G297" t="s" s="2">
@@ -36969,22 +36944,26 @@
         <v>76</v>
       </c>
       <c r="J297" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>299</v>
+        <v>89</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>916</v>
+        <v>308</v>
       </c>
       <c r="N297" t="s" s="2">
-        <v>917</v>
-      </c>
-      <c r="O297" s="2"/>
-      <c r="P297" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="O297" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="P297" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="Q297" t="s" s="2">
         <v>76</v>
       </c>
@@ -37032,7 +37011,7 @@
         <v>76</v>
       </c>
       <c r="AG297" t="s" s="2">
-        <v>915</v>
+        <v>310</v>
       </c>
       <c r="AH297" t="s" s="2">
         <v>77</v>
@@ -37044,7 +37023,7 @@
         <v>80</v>
       </c>
       <c r="AK297" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="298">
@@ -37052,10 +37031,10 @@
         <v>573</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" t="s" s="2">
@@ -37063,7 +37042,7 @@
       </c>
       <c r="F298" s="2"/>
       <c r="G298" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H298" t="s" s="2">
         <v>83</v>
@@ -37081,12 +37060,14 @@
         <v>84</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>85</v>
+        <v>916</v>
       </c>
       <c r="N298" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O298" s="2"/>
+        <v>917</v>
+      </c>
+      <c r="O298" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="P298" s="2"/>
       <c r="Q298" t="s" s="2">
         <v>76</v>
@@ -37135,19 +37116,19 @@
         <v>76</v>
       </c>
       <c r="AG298" t="s" s="2">
-        <v>87</v>
+        <v>915</v>
       </c>
       <c r="AH298" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI298" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ298" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK298" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="299">
@@ -37155,21 +37136,21 @@
         <v>573</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F299" s="2"/>
       <c r="G299" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H299" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I299" t="s" s="2">
         <v>76</v>
@@ -37181,16 +37162,16 @@
         <v>76</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>111</v>
+        <v>919</v>
       </c>
       <c r="N299" t="s" s="2">
-        <v>112</v>
+        <v>920</v>
       </c>
       <c r="O299" t="s" s="2">
-        <v>113</v>
+        <v>314</v>
       </c>
       <c r="P299" s="2"/>
       <c r="Q299" t="s" s="2">
@@ -37228,31 +37209,31 @@
         <v>76</v>
       </c>
       <c r="AC299" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD299" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE299" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF299" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG299" t="s" s="2">
-        <v>94</v>
+        <v>918</v>
       </c>
       <c r="AH299" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI299" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ299" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK299" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="300">
@@ -37260,14 +37241,12 @@
         <v>573</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>919</v>
-      </c>
-      <c r="D300" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="D300" s="2"/>
       <c r="E300" t="s" s="2">
         <v>76</v>
       </c>
@@ -37276,10 +37255,10 @@
         <v>77</v>
       </c>
       <c r="H300" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I300" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J300" t="s" s="2">
         <v>76</v>
@@ -37288,15 +37267,17 @@
         <v>76</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>921</v>
+        <v>84</v>
       </c>
       <c r="M300" t="s" s="2">
         <v>922</v>
       </c>
       <c r="N300" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O300" s="2"/>
+        <v>923</v>
+      </c>
+      <c r="O300" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="P300" s="2"/>
       <c r="Q300" t="s" s="2">
         <v>76</v>
@@ -37345,19 +37326,19 @@
         <v>76</v>
       </c>
       <c r="AG300" t="s" s="2">
-        <v>94</v>
+        <v>921</v>
       </c>
       <c r="AH300" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI300" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ300" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK300" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="301">
@@ -37365,14 +37346,14 @@
         <v>573</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="F301" s="2"/>
       <c r="G301" t="s" s="2">
@@ -37385,26 +37366,22 @@
         <v>76</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>89</v>
+        <v>299</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>308</v>
+        <v>925</v>
       </c>
       <c r="N301" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O301" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P301" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>926</v>
+      </c>
+      <c r="O301" s="2"/>
+      <c r="P301" s="2"/>
       <c r="Q301" t="s" s="2">
         <v>76</v>
       </c>
@@ -37452,7 +37429,7 @@
         <v>76</v>
       </c>
       <c r="AG301" t="s" s="2">
-        <v>310</v>
+        <v>924</v>
       </c>
       <c r="AH301" t="s" s="2">
         <v>77</v>
@@ -37464,7 +37441,7 @@
         <v>80</v>
       </c>
       <c r="AK301" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="302">
@@ -37472,10 +37449,10 @@
         <v>573</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" t="s" s="2">
@@ -37483,7 +37460,7 @@
       </c>
       <c r="F302" s="2"/>
       <c r="G302" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H302" t="s" s="2">
         <v>83</v>
@@ -37501,14 +37478,12 @@
         <v>84</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>925</v>
+        <v>85</v>
       </c>
       <c r="N302" t="s" s="2">
-        <v>926</v>
-      </c>
-      <c r="O302" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O302" s="2"/>
       <c r="P302" s="2"/>
       <c r="Q302" t="s" s="2">
         <v>76</v>
@@ -37557,19 +37532,19 @@
         <v>76</v>
       </c>
       <c r="AG302" t="s" s="2">
-        <v>924</v>
+        <v>87</v>
       </c>
       <c r="AH302" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI302" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ302" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK302" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="303">
@@ -37577,21 +37552,21 @@
         <v>573</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F303" s="2"/>
       <c r="G303" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H303" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I303" t="s" s="2">
         <v>76</v>
@@ -37603,16 +37578,16 @@
         <v>76</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>928</v>
+        <v>111</v>
       </c>
       <c r="N303" t="s" s="2">
-        <v>929</v>
+        <v>112</v>
       </c>
       <c r="O303" t="s" s="2">
-        <v>314</v>
+        <v>113</v>
       </c>
       <c r="P303" s="2"/>
       <c r="Q303" t="s" s="2">
@@ -37650,31 +37625,31 @@
         <v>76</v>
       </c>
       <c r="AC303" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD303" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE303" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF303" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG303" t="s" s="2">
-        <v>927</v>
+        <v>94</v>
       </c>
       <c r="AH303" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI303" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ303" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK303" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="304">
@@ -37682,44 +37657,46 @@
         <v>573</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C304" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="F304" s="2"/>
       <c r="G304" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H304" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I304" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J304" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>931</v>
+        <v>308</v>
       </c>
       <c r="N304" t="s" s="2">
-        <v>932</v>
+        <v>309</v>
       </c>
       <c r="O304" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="P304" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="P304" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="Q304" t="s" s="2">
         <v>76</v>
       </c>
@@ -37767,19 +37744,19 @@
         <v>76</v>
       </c>
       <c r="AG304" t="s" s="2">
-        <v>930</v>
+        <v>310</v>
       </c>
       <c r="AH304" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI304" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ304" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK304" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="305">
@@ -37787,10 +37764,10 @@
         <v>573</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" t="s" s="2">
@@ -37801,7 +37778,7 @@
         <v>77</v>
       </c>
       <c r="H305" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I305" t="s" s="2">
         <v>76</v>
@@ -37813,15 +37790,17 @@
         <v>76</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>299</v>
+        <v>84</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="N305" t="s" s="2">
-        <v>935</v>
-      </c>
-      <c r="O305" s="2"/>
+        <v>932</v>
+      </c>
+      <c r="O305" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="P305" s="2"/>
       <c r="Q305" t="s" s="2">
         <v>76</v>
@@ -37870,13 +37849,13 @@
         <v>76</v>
       </c>
       <c r="AG305" t="s" s="2">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="AH305" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI305" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ305" t="s" s="2">
         <v>80</v>
@@ -37890,10 +37869,10 @@
         <v>573</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" t="s" s="2">
@@ -37916,15 +37895,17 @@
         <v>76</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="M306" t="s" s="2">
-        <v>85</v>
+        <v>934</v>
       </c>
       <c r="N306" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O306" s="2"/>
+        <v>935</v>
+      </c>
+      <c r="O306" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P306" s="2"/>
       <c r="Q306" t="s" s="2">
         <v>76</v>
@@ -37949,13 +37930,13 @@
         <v>76</v>
       </c>
       <c r="Y306" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="Z306" t="s" s="2">
-        <v>76</v>
+        <v>936</v>
       </c>
       <c r="AA306" t="s" s="2">
-        <v>76</v>
+        <v>937</v>
       </c>
       <c r="AB306" t="s" s="2">
         <v>76</v>
@@ -37973,7 +37954,7 @@
         <v>76</v>
       </c>
       <c r="AG306" t="s" s="2">
-        <v>87</v>
+        <v>933</v>
       </c>
       <c r="AH306" t="s" s="2">
         <v>77</v>
@@ -37982,25 +37963,25 @@
         <v>83</v>
       </c>
       <c r="AJ306" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK306" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>937</v>
+        <v>31</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>937</v>
+        <v>31</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F307" s="2"/>
       <c r="G307" t="s" s="2">
@@ -38019,17 +38000,15 @@
         <v>76</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="M307" t="s" s="2">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="N307" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O307" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="O307" s="2"/>
       <c r="P307" s="2"/>
       <c r="Q307" t="s" s="2">
         <v>76</v>
@@ -38066,19 +38045,19 @@
         <v>76</v>
       </c>
       <c r="AC307" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD307" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE307" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF307" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG307" t="s" s="2">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="AH307" t="s" s="2">
         <v>77</v>
@@ -38095,49 +38074,45 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>938</v>
+        <v>82</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>938</v>
+        <v>82</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="F308" s="2"/>
       <c r="G308" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H308" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I308" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J308" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>308</v>
+        <v>85</v>
       </c>
       <c r="N308" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O308" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P308" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O308" s="2"/>
+      <c r="P308" s="2"/>
       <c r="Q308" t="s" s="2">
         <v>76</v>
       </c>
@@ -38185,30 +38160,30 @@
         <v>76</v>
       </c>
       <c r="AG308" t="s" s="2">
-        <v>310</v>
+        <v>87</v>
       </c>
       <c r="AH308" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI308" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ308" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK308" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>939</v>
+        <v>88</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>939</v>
+        <v>88</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" t="s" s="2">
@@ -38219,7 +38194,7 @@
         <v>77</v>
       </c>
       <c r="H309" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I309" t="s" s="2">
         <v>76</v>
@@ -38231,17 +38206,15 @@
         <v>76</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>940</v>
+        <v>31</v>
       </c>
       <c r="N309" t="s" s="2">
-        <v>941</v>
-      </c>
-      <c r="O309" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O309" s="2"/>
       <c r="P309" s="2"/>
       <c r="Q309" t="s" s="2">
         <v>76</v>
@@ -38278,42 +38251,42 @@
         <v>76</v>
       </c>
       <c r="AC309" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD309" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE309" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF309" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG309" t="s" s="2">
-        <v>939</v>
+        <v>94</v>
       </c>
       <c r="AH309" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI309" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ309" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK309" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>942</v>
+        <v>95</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>942</v>
+        <v>95</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" t="s" s="2">
@@ -38321,7 +38294,7 @@
       </c>
       <c r="F310" s="2"/>
       <c r="G310" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H310" t="s" s="2">
         <v>83</v>
@@ -38336,16 +38309,16 @@
         <v>76</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>943</v>
+        <v>97</v>
       </c>
       <c r="N310" t="s" s="2">
-        <v>944</v>
+        <v>98</v>
       </c>
       <c r="O310" t="s" s="2">
-        <v>314</v>
+        <v>99</v>
       </c>
       <c r="P310" s="2"/>
       <c r="Q310" t="s" s="2">
@@ -38353,7 +38326,7 @@
       </c>
       <c r="R310" s="2"/>
       <c r="S310" t="s" s="2">
-        <v>76</v>
+        <v>938</v>
       </c>
       <c r="T310" t="s" s="2">
         <v>76</v>
@@ -38371,13 +38344,13 @@
         <v>76</v>
       </c>
       <c r="Y310" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="Z310" t="s" s="2">
-        <v>945</v>
+        <v>76</v>
       </c>
       <c r="AA310" t="s" s="2">
-        <v>946</v>
+        <v>76</v>
       </c>
       <c r="AB310" t="s" s="2">
         <v>76</v>
@@ -38395,19 +38368,19 @@
         <v>76</v>
       </c>
       <c r="AG310" t="s" s="2">
-        <v>942</v>
+        <v>95</v>
       </c>
       <c r="AH310" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI310" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ310" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK310" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="311">
@@ -38415,10 +38388,10 @@
         <v>591</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
@@ -38429,7 +38402,7 @@
         <v>77</v>
       </c>
       <c r="H311" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I311" t="s" s="2">
         <v>76</v>
@@ -38441,13 +38414,13 @@
         <v>76</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="N311" t="s" s="2">
-        <v>594</v>
+        <v>103</v>
       </c>
       <c r="O311" s="2"/>
       <c r="P311" s="2"/>
@@ -38498,30 +38471,30 @@
         <v>76</v>
       </c>
       <c r="AG311" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="AH311" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI311" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ311" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK311" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>591</v>
+        <v>442</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="C312" t="s" s="2">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" t="s" s="2">
@@ -38532,7 +38505,7 @@
         <v>77</v>
       </c>
       <c r="H312" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I312" t="s" s="2">
         <v>76</v>
@@ -38544,13 +38517,13 @@
         <v>76</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M312" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N312" t="s" s="2">
-        <v>86</v>
+        <v>445</v>
       </c>
       <c r="O312" s="2"/>
       <c r="P312" s="2"/>
@@ -38601,30 +38574,30 @@
         <v>76</v>
       </c>
       <c r="AG312" t="s" s="2">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="AH312" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI312" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ312" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK312" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>591</v>
+        <v>442</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" t="s" s="2">
@@ -38635,7 +38608,7 @@
         <v>77</v>
       </c>
       <c r="H313" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I313" t="s" s="2">
         <v>76</v>
@@ -38647,13 +38620,13 @@
         <v>76</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N313" t="s" s="2">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O313" s="2"/>
       <c r="P313" s="2"/>
@@ -38692,42 +38665,42 @@
         <v>76</v>
       </c>
       <c r="AC313" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD313" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE313" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF313" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG313" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH313" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI313" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ313" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK313" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>591</v>
+        <v>442</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C314" t="s" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" t="s" s="2">
@@ -38735,10 +38708,10 @@
       </c>
       <c r="F314" s="2"/>
       <c r="G314" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H314" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I314" t="s" s="2">
         <v>76</v>
@@ -38750,24 +38723,22 @@
         <v>76</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="N314" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O314" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O314" s="2"/>
       <c r="P314" s="2"/>
       <c r="Q314" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R314" s="2"/>
       <c r="S314" t="s" s="2">
-        <v>947</v>
+        <v>76</v>
       </c>
       <c r="T314" t="s" s="2">
         <v>76</v>
@@ -38797,42 +38768,42 @@
         <v>76</v>
       </c>
       <c r="AC314" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD314" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE314" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF314" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG314" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH314" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI314" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ314" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK314" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>591</v>
+        <v>442</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C315" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" t="s" s="2">
@@ -38840,7 +38811,7 @@
       </c>
       <c r="F315" s="2"/>
       <c r="G315" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H315" t="s" s="2">
         <v>83</v>
@@ -38855,22 +38826,24 @@
         <v>76</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N315" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O315" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O315" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P315" s="2"/>
       <c r="Q315" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R315" s="2"/>
       <c r="S315" t="s" s="2">
-        <v>76</v>
+        <v>940</v>
       </c>
       <c r="T315" t="s" s="2">
         <v>76</v>
@@ -38912,19 +38885,19 @@
         <v>76</v>
       </c>
       <c r="AG315" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AH315" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI315" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ315" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK315" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="316">
@@ -38932,10 +38905,10 @@
         <v>442</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" t="s" s="2">
@@ -38946,7 +38919,7 @@
         <v>77</v>
       </c>
       <c r="H316" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I316" t="s" s="2">
         <v>76</v>
@@ -38958,13 +38931,13 @@
         <v>76</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="N316" t="s" s="2">
-        <v>445</v>
+        <v>103</v>
       </c>
       <c r="O316" s="2"/>
       <c r="P316" s="2"/>
@@ -39015,30 +38988,30 @@
         <v>76</v>
       </c>
       <c r="AG316" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="AH316" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI316" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ316" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK316" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>442</v>
+        <v>599</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" t="s" s="2">
@@ -39049,7 +39022,7 @@
         <v>77</v>
       </c>
       <c r="H317" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I317" t="s" s="2">
         <v>76</v>
@@ -39061,13 +39034,13 @@
         <v>76</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N317" t="s" s="2">
-        <v>86</v>
+        <v>602</v>
       </c>
       <c r="O317" s="2"/>
       <c r="P317" s="2"/>
@@ -39118,30 +39091,30 @@
         <v>76</v>
       </c>
       <c r="AG317" t="s" s="2">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="AH317" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI317" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ317" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK317" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>442</v>
+        <v>599</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" t="s" s="2">
@@ -39152,7 +39125,7 @@
         <v>77</v>
       </c>
       <c r="H318" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I318" t="s" s="2">
         <v>76</v>
@@ -39164,13 +39137,13 @@
         <v>76</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M318" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N318" t="s" s="2">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O318" s="2"/>
       <c r="P318" s="2"/>
@@ -39209,42 +39182,42 @@
         <v>76</v>
       </c>
       <c r="AC318" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD318" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE318" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF318" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG318" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH318" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI318" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ318" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK318" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>442</v>
+        <v>599</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
@@ -39252,10 +39225,10 @@
       </c>
       <c r="F319" s="2"/>
       <c r="G319" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H319" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I319" t="s" s="2">
         <v>76</v>
@@ -39267,24 +39240,22 @@
         <v>76</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="N319" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O319" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O319" s="2"/>
       <c r="P319" s="2"/>
       <c r="Q319" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R319" s="2"/>
       <c r="S319" t="s" s="2">
-        <v>949</v>
+        <v>76</v>
       </c>
       <c r="T319" t="s" s="2">
         <v>76</v>
@@ -39314,42 +39285,42 @@
         <v>76</v>
       </c>
       <c r="AC319" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD319" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE319" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF319" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG319" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH319" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI319" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ319" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK319" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>442</v>
+        <v>599</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" t="s" s="2">
@@ -39357,7 +39328,7 @@
       </c>
       <c r="F320" s="2"/>
       <c r="G320" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H320" t="s" s="2">
         <v>83</v>
@@ -39372,22 +39343,24 @@
         <v>76</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="M320" t="s" s="2">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N320" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O320" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O320" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P320" s="2"/>
       <c r="Q320" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R320" s="2"/>
       <c r="S320" t="s" s="2">
-        <v>76</v>
+        <v>943</v>
       </c>
       <c r="T320" t="s" s="2">
         <v>76</v>
@@ -39429,19 +39402,19 @@
         <v>76</v>
       </c>
       <c r="AG320" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AH320" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI320" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ320" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK320" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="321">
@@ -39449,10 +39422,10 @@
         <v>599</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" t="s" s="2">
@@ -39463,7 +39436,7 @@
         <v>77</v>
       </c>
       <c r="H321" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I321" t="s" s="2">
         <v>76</v>
@@ -39475,13 +39448,13 @@
         <v>76</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="N321" t="s" s="2">
-        <v>602</v>
+        <v>103</v>
       </c>
       <c r="O321" s="2"/>
       <c r="P321" s="2"/>
@@ -39532,432 +39505,18 @@
         <v>76</v>
       </c>
       <c r="AG321" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="AH321" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI321" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ321" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK321" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="B322" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="C322" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D322" s="2"/>
-      <c r="E322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F322" s="2"/>
-      <c r="G322" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H322" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="L322" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M322" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N322" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O322" s="2"/>
-      <c r="P322" s="2"/>
-      <c r="Q322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R322" s="2"/>
-      <c r="S322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG322" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH322" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI322" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK322" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="B323" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C323" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="D323" s="2"/>
-      <c r="E323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F323" s="2"/>
-      <c r="G323" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H323" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="L323" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M323" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="N323" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O323" s="2"/>
-      <c r="P323" s="2"/>
-      <c r="Q323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R323" s="2"/>
-      <c r="S323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC323" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AD323" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AE323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF323" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AG323" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AH323" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI323" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ323" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK323" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="B324" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="C324" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="D324" s="2"/>
-      <c r="E324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F324" s="2"/>
-      <c r="G324" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H324" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="L324" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M324" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N324" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O324" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="P324" s="2"/>
-      <c r="Q324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R324" s="2"/>
-      <c r="S324" t="s" s="2">
-        <v>952</v>
-      </c>
-      <c r="T324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG324" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AH324" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI324" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK324" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="B325" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="C325" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="D325" s="2"/>
-      <c r="E325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F325" s="2"/>
-      <c r="G325" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H325" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="L325" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M325" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N325" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O325" s="2"/>
-      <c r="P325" s="2"/>
-      <c r="Q325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R325" s="2"/>
-      <c r="S325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG325" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AH325" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI325" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ325" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK325" t="s" s="2">
         <v>104</v>
       </c>
     </row>

--- a/test-exemple/ig/all-profiles.xlsx
+++ b/test-exemple/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11229" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11358" uniqueCount="954">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:14:19+00:00</t>
+    <t>2025-07-23T09:40:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1917,6 +1917,33 @@
   </si>
   <si>
     <t>Cette extension implemente l'élément descriptionSummary de R5. elle permet l'ajout d'un texte bref décrivant l'essai</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5.url</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.descriptionSummary</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-description-summary-r5.value[x]</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension.value[x]</t>
   </si>
   <si>
     <t>ResearchStudy.extension:eclaire-outcome-measure-r5</t>
@@ -5425,7 +5452,7 @@
         <v>4</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>938</v>
+        <v>947</v>
       </c>
     </row>
     <row r="309">
@@ -5441,7 +5468,7 @@
         <v>8</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>939</v>
+        <v>948</v>
       </c>
     </row>
     <row r="311">
@@ -5593,7 +5620,7 @@
         <v>4</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>940</v>
+        <v>949</v>
       </c>
     </row>
     <row r="331">
@@ -5609,7 +5636,7 @@
         <v>8</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>941</v>
+        <v>950</v>
       </c>
     </row>
     <row r="333">
@@ -5737,7 +5764,7 @@
         <v>38</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>942</v>
+        <v>951</v>
       </c>
     </row>
     <row r="350">
@@ -5761,7 +5788,7 @@
         <v>4</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>943</v>
+        <v>952</v>
       </c>
     </row>
     <row r="353">
@@ -5777,7 +5804,7 @@
         <v>8</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>944</v>
+        <v>953</v>
       </c>
     </row>
     <row r="355">
@@ -5915,7 +5942,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK321"/>
+  <dimension ref="A1:AK325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5925,7 +5952,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="23.3125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="51.9140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="54.44140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="37.0078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="25.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
@@ -28406,11 +28433,9 @@
         <v>614</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="D216" t="s" s="2">
-        <v>547</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
         <v>76</v>
       </c>
@@ -28419,10 +28444,10 @@
         <v>77</v>
       </c>
       <c r="H216" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I216" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J216" t="s" s="2">
         <v>76</v>
@@ -28431,13 +28456,13 @@
         <v>76</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>615</v>
+        <v>84</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>616</v>
+        <v>85</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>617</v>
+        <v>86</v>
       </c>
       <c r="O216" s="2"/>
       <c r="P216" s="2"/>
@@ -28488,19 +28513,19 @@
         <v>76</v>
       </c>
       <c r="AG216" t="s" s="2">
-        <v>246</v>
+        <v>87</v>
       </c>
       <c r="AH216" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI216" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ216" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK216" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="217">
@@ -28508,14 +28533,12 @@
         <v>573</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="D217" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
         <v>76</v>
       </c>
@@ -28524,10 +28547,10 @@
         <v>77</v>
       </c>
       <c r="H217" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I217" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J217" t="s" s="2">
         <v>76</v>
@@ -28536,13 +28559,13 @@
         <v>76</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>619</v>
+        <v>89</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>620</v>
+        <v>31</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>621</v>
+        <v>90</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" s="2"/>
@@ -28581,19 +28604,19 @@
         <v>76</v>
       </c>
       <c r="AC217" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD217" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE217" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG217" t="s" s="2">
-        <v>246</v>
+        <v>94</v>
       </c>
       <c r="AH217" t="s" s="2">
         <v>77</v>
@@ -28613,26 +28636,24 @@
         <v>573</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="D218" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F218" s="2"/>
       <c r="G218" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H218" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I218" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J218" t="s" s="2">
         <v>76</v>
@@ -28641,22 +28662,24 @@
         <v>76</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>623</v>
+        <v>96</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>624</v>
+        <v>97</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="O218" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O218" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P218" s="2"/>
       <c r="Q218" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R218" s="2"/>
       <c r="S218" t="s" s="2">
-        <v>76</v>
+        <v>620</v>
       </c>
       <c r="T218" t="s" s="2">
         <v>76</v>
@@ -28698,19 +28721,19 @@
         <v>76</v>
       </c>
       <c r="AG218" t="s" s="2">
-        <v>246</v>
+        <v>95</v>
       </c>
       <c r="AH218" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI218" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="219">
@@ -28718,46 +28741,42 @@
         <v>573</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H219" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I219" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K219" t="s" s="2">
         <v>76</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>89</v>
+        <v>555</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>248</v>
+        <v>102</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O219" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P219" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="O219" s="2"/>
+      <c r="P219" s="2"/>
       <c r="Q219" t="s" s="2">
         <v>76</v>
       </c>
@@ -28793,31 +28812,31 @@
         <v>76</v>
       </c>
       <c r="AC219" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD219" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE219" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>251</v>
+        <v>100</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ219" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="220">
@@ -28825,12 +28844,14 @@
         <v>573</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="D220" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="D220" t="s" s="2">
+        <v>547</v>
+      </c>
       <c r="E220" t="s" s="2">
         <v>76</v>
       </c>
@@ -28842,27 +28863,25 @@
         <v>78</v>
       </c>
       <c r="I220" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J220" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>253</v>
+        <v>624</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="O220" s="2"/>
-      <c r="P220" t="s" s="2">
-        <v>630</v>
-      </c>
+      <c r="P220" s="2"/>
       <c r="Q220" t="s" s="2">
         <v>76</v>
       </c>
@@ -28898,19 +28917,19 @@
         <v>76</v>
       </c>
       <c r="AC220" t="s" s="2">
-        <v>631</v>
+        <v>76</v>
       </c>
       <c r="AD220" t="s" s="2">
-        <v>632</v>
+        <v>76</v>
       </c>
       <c r="AE220" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG220" t="s" s="2">
-        <v>627</v>
+        <v>246</v>
       </c>
       <c r="AH220" t="s" s="2">
         <v>77</v>
@@ -28922,7 +28941,7 @@
         <v>80</v>
       </c>
       <c r="AK220" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="221">
@@ -28930,13 +28949,13 @@
         <v>573</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>627</v>
+        <v>589</v>
       </c>
       <c r="D221" t="s" s="2">
-        <v>634</v>
+        <v>133</v>
       </c>
       <c r="E221" t="s" s="2">
         <v>76</v>
@@ -28946,7 +28965,7 @@
         <v>77</v>
       </c>
       <c r="H221" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I221" t="s" s="2">
         <v>205</v>
@@ -28955,21 +28974,19 @@
         <v>76</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>253</v>
+        <v>628</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="O221" s="2"/>
-      <c r="P221" t="s" s="2">
-        <v>630</v>
-      </c>
+      <c r="P221" s="2"/>
       <c r="Q221" t="s" s="2">
         <v>76</v>
       </c>
@@ -29017,7 +29034,7 @@
         <v>76</v>
       </c>
       <c r="AG221" t="s" s="2">
-        <v>627</v>
+        <v>246</v>
       </c>
       <c r="AH221" t="s" s="2">
         <v>77</v>
@@ -29029,7 +29046,7 @@
         <v>80</v>
       </c>
       <c r="AK221" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="222">
@@ -29037,12 +29054,14 @@
         <v>573</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="D222" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="D222" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="E222" t="s" s="2">
         <v>76</v>
       </c>
@@ -29051,10 +29070,10 @@
         <v>77</v>
       </c>
       <c r="H222" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I222" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J222" t="s" s="2">
         <v>76</v>
@@ -29063,13 +29082,13 @@
         <v>76</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>84</v>
+        <v>632</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>85</v>
+        <v>633</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>86</v>
+        <v>634</v>
       </c>
       <c r="O222" s="2"/>
       <c r="P222" s="2"/>
@@ -29120,19 +29139,19 @@
         <v>76</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>87</v>
+        <v>246</v>
       </c>
       <c r="AH222" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI222" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK222" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="223">
@@ -29140,10 +29159,10 @@
         <v>573</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
@@ -29160,7 +29179,7 @@
         <v>76</v>
       </c>
       <c r="J223" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K223" t="s" s="2">
         <v>76</v>
@@ -29169,15 +29188,17 @@
         <v>89</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>111</v>
+        <v>248</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>112</v>
+        <v>249</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="P223" s="2"/>
+      <c r="P223" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="Q223" t="s" s="2">
         <v>76</v>
       </c>
@@ -29225,7 +29246,7 @@
         <v>93</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>94</v>
+        <v>251</v>
       </c>
       <c r="AH223" t="s" s="2">
         <v>77</v>
@@ -29245,10 +29266,10 @@
         <v>573</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
@@ -29256,34 +29277,32 @@
       </c>
       <c r="F224" s="2"/>
       <c r="G224" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H224" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I224" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J224" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K224" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="O224" t="s" s="2">
-        <v>644</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="O224" s="2"/>
       <c r="P224" t="s" s="2">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="Q224" t="s" s="2">
         <v>76</v>
@@ -29293,7 +29312,7 @@
         <v>76</v>
       </c>
       <c r="T224" t="s" s="2">
-        <v>646</v>
+        <v>76</v>
       </c>
       <c r="U224" t="s" s="2">
         <v>76</v>
@@ -29308,37 +29327,37 @@
         <v>76</v>
       </c>
       <c r="Y224" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Z224" t="s" s="2">
-        <v>647</v>
+        <v>76</v>
       </c>
       <c r="AA224" t="s" s="2">
-        <v>648</v>
+        <v>76</v>
       </c>
       <c r="AB224" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC224" t="s" s="2">
-        <v>76</v>
+        <v>640</v>
       </c>
       <c r="AD224" t="s" s="2">
-        <v>76</v>
+        <v>641</v>
       </c>
       <c r="AE224" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG224" t="s" s="2">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI224" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ224" t="s" s="2">
         <v>80</v>
@@ -29352,12 +29371,14 @@
         <v>573</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="D225" s="2"/>
+        <v>636</v>
+      </c>
+      <c r="D225" t="s" s="2">
+        <v>643</v>
+      </c>
       <c r="E225" t="s" s="2">
         <v>76</v>
       </c>
@@ -29369,7 +29390,7 @@
         <v>83</v>
       </c>
       <c r="I225" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J225" t="s" s="2">
         <v>76</v>
@@ -29378,19 +29399,17 @@
         <v>205</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="O225" t="s" s="2">
-        <v>654</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="O225" s="2"/>
       <c r="P225" t="s" s="2">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="Q225" t="s" s="2">
         <v>76</v>
@@ -29415,13 +29434,13 @@
         <v>76</v>
       </c>
       <c r="Y225" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="Z225" t="s" s="2">
-        <v>656</v>
+        <v>76</v>
       </c>
       <c r="AA225" t="s" s="2">
-        <v>657</v>
+        <v>76</v>
       </c>
       <c r="AB225" t="s" s="2">
         <v>76</v>
@@ -29439,13 +29458,13 @@
         <v>76</v>
       </c>
       <c r="AG225" t="s" s="2">
-        <v>658</v>
+        <v>636</v>
       </c>
       <c r="AH225" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI225" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ225" t="s" s="2">
         <v>80</v>
@@ -29459,10 +29478,10 @@
         <v>573</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
@@ -29482,23 +29501,19 @@
         <v>76</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>661</v>
+        <v>85</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="O226" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="P226" t="s" s="2">
-        <v>664</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O226" s="2"/>
+      <c r="P226" s="2"/>
       <c r="Q226" t="s" s="2">
         <v>76</v>
       </c>
@@ -29510,7 +29525,7 @@
         <v>76</v>
       </c>
       <c r="U226" t="s" s="2">
-        <v>665</v>
+        <v>76</v>
       </c>
       <c r="V226" t="s" s="2">
         <v>76</v>
@@ -29546,7 +29561,7 @@
         <v>76</v>
       </c>
       <c r="AG226" t="s" s="2">
-        <v>666</v>
+        <v>87</v>
       </c>
       <c r="AH226" t="s" s="2">
         <v>77</v>
@@ -29555,10 +29570,10 @@
         <v>83</v>
       </c>
       <c r="AJ226" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK226" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="227">
@@ -29566,21 +29581,21 @@
         <v>573</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>667</v>
+        <v>647</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>668</v>
+        <v>648</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F227" s="2"/>
       <c r="G227" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H227" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I227" t="s" s="2">
         <v>76</v>
@@ -29589,19 +29604,19 @@
         <v>76</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>669</v>
+        <v>111</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>670</v>
+        <v>112</v>
       </c>
       <c r="O227" t="s" s="2">
-        <v>671</v>
+        <v>113</v>
       </c>
       <c r="P227" s="2"/>
       <c r="Q227" t="s" s="2">
@@ -29615,7 +29630,7 @@
         <v>76</v>
       </c>
       <c r="U227" t="s" s="2">
-        <v>672</v>
+        <v>76</v>
       </c>
       <c r="V227" t="s" s="2">
         <v>76</v>
@@ -29639,31 +29654,31 @@
         <v>76</v>
       </c>
       <c r="AC227" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD227" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE227" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>673</v>
+        <v>94</v>
       </c>
       <c r="AH227" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI227" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ227" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK227" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="228">
@@ -29671,10 +29686,10 @@
         <v>573</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>674</v>
+        <v>649</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" t="s" s="2">
@@ -29682,7 +29697,7 @@
       </c>
       <c r="F228" s="2"/>
       <c r="G228" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H228" t="s" s="2">
         <v>83</v>
@@ -29691,24 +29706,26 @@
         <v>76</v>
       </c>
       <c r="J228" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K228" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>676</v>
+        <v>651</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>677</v>
+        <v>652</v>
       </c>
       <c r="O228" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="P228" s="2"/>
+        <v>653</v>
+      </c>
+      <c r="P228" t="s" s="2">
+        <v>654</v>
+      </c>
       <c r="Q228" t="s" s="2">
         <v>76</v>
       </c>
@@ -29717,7 +29734,7 @@
         <v>76</v>
       </c>
       <c r="T228" t="s" s="2">
-        <v>76</v>
+        <v>655</v>
       </c>
       <c r="U228" t="s" s="2">
         <v>76</v>
@@ -29732,13 +29749,13 @@
         <v>76</v>
       </c>
       <c r="Y228" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="Z228" t="s" s="2">
-        <v>76</v>
+        <v>656</v>
       </c>
       <c r="AA228" t="s" s="2">
-        <v>76</v>
+        <v>657</v>
       </c>
       <c r="AB228" t="s" s="2">
         <v>76</v>
@@ -29756,7 +29773,7 @@
         <v>76</v>
       </c>
       <c r="AG228" t="s" s="2">
-        <v>678</v>
+        <v>658</v>
       </c>
       <c r="AH228" t="s" s="2">
         <v>77</v>
@@ -29768,7 +29785,7 @@
         <v>80</v>
       </c>
       <c r="AK228" t="s" s="2">
-        <v>337</v>
+        <v>104</v>
       </c>
     </row>
     <row r="229">
@@ -29776,10 +29793,10 @@
         <v>573</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>679</v>
+        <v>659</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
@@ -29799,19 +29816,23 @@
         <v>76</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>85</v>
+        <v>661</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O229" s="2"/>
-      <c r="P229" s="2"/>
+        <v>662</v>
+      </c>
+      <c r="O229" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="P229" t="s" s="2">
+        <v>664</v>
+      </c>
       <c r="Q229" t="s" s="2">
         <v>76</v>
       </c>
@@ -29835,13 +29856,13 @@
         <v>76</v>
       </c>
       <c r="Y229" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="Z229" t="s" s="2">
-        <v>76</v>
+        <v>665</v>
       </c>
       <c r="AA229" t="s" s="2">
-        <v>76</v>
+        <v>666</v>
       </c>
       <c r="AB229" t="s" s="2">
         <v>76</v>
@@ -29859,7 +29880,7 @@
         <v>76</v>
       </c>
       <c r="AG229" t="s" s="2">
-        <v>87</v>
+        <v>667</v>
       </c>
       <c r="AH229" t="s" s="2">
         <v>77</v>
@@ -29868,10 +29889,10 @@
         <v>83</v>
       </c>
       <c r="AJ229" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK229" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="230">
@@ -29879,21 +29900,21 @@
         <v>573</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F230" s="2"/>
       <c r="G230" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H230" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I230" t="s" s="2">
         <v>76</v>
@@ -29902,21 +29923,23 @@
         <v>76</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>111</v>
+        <v>670</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>112</v>
+        <v>671</v>
       </c>
       <c r="O230" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P230" s="2"/>
+        <v>672</v>
+      </c>
+      <c r="P230" t="s" s="2">
+        <v>673</v>
+      </c>
       <c r="Q230" t="s" s="2">
         <v>76</v>
       </c>
@@ -29928,7 +29951,7 @@
         <v>76</v>
       </c>
       <c r="U230" t="s" s="2">
-        <v>76</v>
+        <v>674</v>
       </c>
       <c r="V230" t="s" s="2">
         <v>76</v>
@@ -29952,31 +29975,31 @@
         <v>76</v>
       </c>
       <c r="AC230" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD230" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE230" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG230" t="s" s="2">
-        <v>94</v>
+        <v>675</v>
       </c>
       <c r="AH230" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI230" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ230" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK230" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="231">
@@ -29984,10 +30007,10 @@
         <v>573</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -30010,16 +30033,16 @@
         <v>205</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>685</v>
+        <v>84</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="O231" t="s" s="2">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="P231" s="2"/>
       <c r="Q231" t="s" s="2">
@@ -30033,7 +30056,7 @@
         <v>76</v>
       </c>
       <c r="U231" t="s" s="2">
-        <v>76</v>
+        <v>681</v>
       </c>
       <c r="V231" t="s" s="2">
         <v>76</v>
@@ -30069,7 +30092,7 @@
         <v>76</v>
       </c>
       <c r="AG231" t="s" s="2">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="AH231" t="s" s="2">
         <v>77</v>
@@ -30078,7 +30101,7 @@
         <v>83</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>690</v>
+        <v>80</v>
       </c>
       <c r="AK231" t="s" s="2">
         <v>104</v>
@@ -30089,10 +30112,10 @@
         <v>573</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
@@ -30115,24 +30138,22 @@
         <v>205</v>
       </c>
       <c r="L232" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M232" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="M232" t="s" s="2">
-        <v>693</v>
-      </c>
       <c r="N232" t="s" s="2">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="O232" t="s" s="2">
-        <v>695</v>
+        <v>336</v>
       </c>
       <c r="P232" s="2"/>
       <c r="Q232" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R232" t="s" s="2">
-        <v>696</v>
-      </c>
+      <c r="R232" s="2"/>
       <c r="S232" t="s" s="2">
         <v>76</v>
       </c>
@@ -30176,7 +30197,7 @@
         <v>76</v>
       </c>
       <c r="AG232" t="s" s="2">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="AH232" t="s" s="2">
         <v>77</v>
@@ -30185,10 +30206,10 @@
         <v>83</v>
       </c>
       <c r="AJ232" t="s" s="2">
-        <v>690</v>
+        <v>80</v>
       </c>
       <c r="AK232" t="s" s="2">
-        <v>104</v>
+        <v>337</v>
       </c>
     </row>
     <row r="233">
@@ -30196,10 +30217,10 @@
         <v>573</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" t="s" s="2">
@@ -30219,20 +30240,18 @@
         <v>76</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>507</v>
+        <v>84</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>700</v>
+        <v>85</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="O233" t="s" s="2">
-        <v>702</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O233" s="2"/>
       <c r="P233" s="2"/>
       <c r="Q233" t="s" s="2">
         <v>76</v>
@@ -30281,7 +30300,7 @@
         <v>76</v>
       </c>
       <c r="AG233" t="s" s="2">
-        <v>703</v>
+        <v>87</v>
       </c>
       <c r="AH233" t="s" s="2">
         <v>77</v>
@@ -30290,10 +30309,10 @@
         <v>83</v>
       </c>
       <c r="AJ233" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK233" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
     </row>
     <row r="234">
@@ -30301,16 +30320,14 @@
         <v>573</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="D234" t="s" s="2">
-        <v>705</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="D234" s="2"/>
       <c r="E234" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F234" s="2"/>
       <c r="G234" t="s" s="2">
@@ -30320,27 +30337,27 @@
         <v>78</v>
       </c>
       <c r="I234" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J234" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>253</v>
+        <v>89</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>706</v>
+        <v>111</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="O234" s="2"/>
-      <c r="P234" t="s" s="2">
-        <v>630</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O234" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="P234" s="2"/>
       <c r="Q234" t="s" s="2">
         <v>76</v>
       </c>
@@ -30376,19 +30393,19 @@
         <v>76</v>
       </c>
       <c r="AC234" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD234" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE234" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG234" t="s" s="2">
-        <v>627</v>
+        <v>94</v>
       </c>
       <c r="AH234" t="s" s="2">
         <v>77</v>
@@ -30400,7 +30417,7 @@
         <v>80</v>
       </c>
       <c r="AK234" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="235">
@@ -30408,10 +30425,10 @@
         <v>573</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>637</v>
+        <v>693</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
@@ -30431,18 +30448,20 @@
         <v>76</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>84</v>
+        <v>694</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>85</v>
+        <v>695</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O235" s="2"/>
+        <v>696</v>
+      </c>
+      <c r="O235" t="s" s="2">
+        <v>697</v>
+      </c>
       <c r="P235" s="2"/>
       <c r="Q235" t="s" s="2">
         <v>76</v>
@@ -30491,7 +30510,7 @@
         <v>76</v>
       </c>
       <c r="AG235" t="s" s="2">
-        <v>87</v>
+        <v>698</v>
       </c>
       <c r="AH235" t="s" s="2">
         <v>77</v>
@@ -30500,10 +30519,10 @@
         <v>83</v>
       </c>
       <c r="AJ235" t="s" s="2">
-        <v>76</v>
+        <v>699</v>
       </c>
       <c r="AK235" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="236">
@@ -30511,21 +30530,21 @@
         <v>573</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>639</v>
+        <v>701</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F236" s="2"/>
       <c r="G236" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H236" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I236" t="s" s="2">
         <v>76</v>
@@ -30534,25 +30553,27 @@
         <v>76</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>89</v>
+        <v>694</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>111</v>
+        <v>702</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>112</v>
+        <v>703</v>
       </c>
       <c r="O236" t="s" s="2">
-        <v>113</v>
+        <v>704</v>
       </c>
       <c r="P236" s="2"/>
       <c r="Q236" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R236" s="2"/>
+      <c r="R236" t="s" s="2">
+        <v>705</v>
+      </c>
       <c r="S236" t="s" s="2">
         <v>76</v>
       </c>
@@ -30584,31 +30605,31 @@
         <v>76</v>
       </c>
       <c r="AC236" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD236" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE236" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG236" t="s" s="2">
-        <v>94</v>
+        <v>706</v>
       </c>
       <c r="AH236" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI236" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ236" t="s" s="2">
-        <v>80</v>
+        <v>699</v>
       </c>
       <c r="AK236" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="237">
@@ -30616,10 +30637,10 @@
         <v>573</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>641</v>
+        <v>708</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
@@ -30627,7 +30648,7 @@
       </c>
       <c r="F237" s="2"/>
       <c r="G237" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H237" t="s" s="2">
         <v>83</v>
@@ -30636,26 +30657,24 @@
         <v>76</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K237" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>222</v>
+        <v>507</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>642</v>
+        <v>709</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>643</v>
+        <v>710</v>
       </c>
       <c r="O237" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="P237" t="s" s="2">
-        <v>645</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="P237" s="2"/>
       <c r="Q237" t="s" s="2">
         <v>76</v>
       </c>
@@ -30664,7 +30683,7 @@
         <v>76</v>
       </c>
       <c r="T237" t="s" s="2">
-        <v>710</v>
+        <v>76</v>
       </c>
       <c r="U237" t="s" s="2">
         <v>76</v>
@@ -30679,13 +30698,13 @@
         <v>76</v>
       </c>
       <c r="Y237" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Z237" t="s" s="2">
-        <v>647</v>
+        <v>76</v>
       </c>
       <c r="AA237" t="s" s="2">
-        <v>648</v>
+        <v>76</v>
       </c>
       <c r="AB237" t="s" s="2">
         <v>76</v>
@@ -30703,7 +30722,7 @@
         <v>76</v>
       </c>
       <c r="AG237" t="s" s="2">
-        <v>649</v>
+        <v>712</v>
       </c>
       <c r="AH237" t="s" s="2">
         <v>77</v>
@@ -30715,7 +30734,7 @@
         <v>80</v>
       </c>
       <c r="AK237" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
     </row>
     <row r="238">
@@ -30723,12 +30742,14 @@
         <v>573</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="D238" s="2"/>
+        <v>636</v>
+      </c>
+      <c r="D238" t="s" s="2">
+        <v>714</v>
+      </c>
       <c r="E238" t="s" s="2">
         <v>76</v>
       </c>
@@ -30737,10 +30758,10 @@
         <v>77</v>
       </c>
       <c r="H238" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I238" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J238" t="s" s="2">
         <v>76</v>
@@ -30749,19 +30770,17 @@
         <v>205</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>652</v>
+        <v>715</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="O238" t="s" s="2">
-        <v>654</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="O238" s="2"/>
       <c r="P238" t="s" s="2">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="Q238" t="s" s="2">
         <v>76</v>
@@ -30786,13 +30805,13 @@
         <v>76</v>
       </c>
       <c r="Y238" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="Z238" t="s" s="2">
-        <v>656</v>
+        <v>76</v>
       </c>
       <c r="AA238" t="s" s="2">
-        <v>657</v>
+        <v>76</v>
       </c>
       <c r="AB238" t="s" s="2">
         <v>76</v>
@@ -30810,13 +30829,13 @@
         <v>76</v>
       </c>
       <c r="AG238" t="s" s="2">
-        <v>658</v>
+        <v>636</v>
       </c>
       <c r="AH238" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI238" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ238" t="s" s="2">
         <v>80</v>
@@ -30830,10 +30849,10 @@
         <v>573</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" t="s" s="2">
@@ -30853,23 +30872,19 @@
         <v>76</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>661</v>
+        <v>85</v>
       </c>
       <c r="N239" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="O239" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="P239" t="s" s="2">
-        <v>664</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O239" s="2"/>
+      <c r="P239" s="2"/>
       <c r="Q239" t="s" s="2">
         <v>76</v>
       </c>
@@ -30881,7 +30896,7 @@
         <v>76</v>
       </c>
       <c r="U239" t="s" s="2">
-        <v>665</v>
+        <v>76</v>
       </c>
       <c r="V239" t="s" s="2">
         <v>76</v>
@@ -30917,7 +30932,7 @@
         <v>76</v>
       </c>
       <c r="AG239" t="s" s="2">
-        <v>666</v>
+        <v>87</v>
       </c>
       <c r="AH239" t="s" s="2">
         <v>77</v>
@@ -30926,10 +30941,10 @@
         <v>83</v>
       </c>
       <c r="AJ239" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK239" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="240">
@@ -30937,21 +30952,21 @@
         <v>573</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>668</v>
+        <v>648</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F240" s="2"/>
       <c r="G240" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H240" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I240" t="s" s="2">
         <v>76</v>
@@ -30960,19 +30975,19 @@
         <v>76</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>669</v>
+        <v>111</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>670</v>
+        <v>112</v>
       </c>
       <c r="O240" t="s" s="2">
-        <v>671</v>
+        <v>113</v>
       </c>
       <c r="P240" s="2"/>
       <c r="Q240" t="s" s="2">
@@ -30986,7 +31001,7 @@
         <v>76</v>
       </c>
       <c r="U240" t="s" s="2">
-        <v>672</v>
+        <v>76</v>
       </c>
       <c r="V240" t="s" s="2">
         <v>76</v>
@@ -31010,31 +31025,31 @@
         <v>76</v>
       </c>
       <c r="AC240" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD240" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE240" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG240" t="s" s="2">
-        <v>673</v>
+        <v>94</v>
       </c>
       <c r="AH240" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI240" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ240" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK240" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="241">
@@ -31042,10 +31057,10 @@
         <v>573</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" t="s" s="2">
@@ -31053,7 +31068,7 @@
       </c>
       <c r="F241" s="2"/>
       <c r="G241" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H241" t="s" s="2">
         <v>83</v>
@@ -31062,24 +31077,26 @@
         <v>76</v>
       </c>
       <c r="J241" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K241" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>676</v>
+        <v>651</v>
       </c>
       <c r="N241" t="s" s="2">
-        <v>677</v>
+        <v>652</v>
       </c>
       <c r="O241" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="P241" s="2"/>
+        <v>653</v>
+      </c>
+      <c r="P241" t="s" s="2">
+        <v>654</v>
+      </c>
       <c r="Q241" t="s" s="2">
         <v>76</v>
       </c>
@@ -31088,7 +31105,7 @@
         <v>76</v>
       </c>
       <c r="T241" t="s" s="2">
-        <v>76</v>
+        <v>719</v>
       </c>
       <c r="U241" t="s" s="2">
         <v>76</v>
@@ -31103,13 +31120,13 @@
         <v>76</v>
       </c>
       <c r="Y241" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="Z241" t="s" s="2">
-        <v>76</v>
+        <v>656</v>
       </c>
       <c r="AA241" t="s" s="2">
-        <v>76</v>
+        <v>657</v>
       </c>
       <c r="AB241" t="s" s="2">
         <v>76</v>
@@ -31127,7 +31144,7 @@
         <v>76</v>
       </c>
       <c r="AG241" t="s" s="2">
-        <v>678</v>
+        <v>658</v>
       </c>
       <c r="AH241" t="s" s="2">
         <v>77</v>
@@ -31139,7 +31156,7 @@
         <v>80</v>
       </c>
       <c r="AK241" t="s" s="2">
-        <v>337</v>
+        <v>104</v>
       </c>
     </row>
     <row r="242">
@@ -31147,10 +31164,10 @@
         <v>573</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>699</v>
+        <v>660</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" t="s" s="2">
@@ -31173,18 +31190,20 @@
         <v>205</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>507</v>
+        <v>145</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>700</v>
+        <v>661</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>701</v>
+        <v>662</v>
       </c>
       <c r="O242" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="P242" s="2"/>
+        <v>663</v>
+      </c>
+      <c r="P242" t="s" s="2">
+        <v>664</v>
+      </c>
       <c r="Q242" t="s" s="2">
         <v>76</v>
       </c>
@@ -31208,13 +31227,13 @@
         <v>76</v>
       </c>
       <c r="Y242" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="Z242" t="s" s="2">
-        <v>76</v>
+        <v>665</v>
       </c>
       <c r="AA242" t="s" s="2">
-        <v>76</v>
+        <v>666</v>
       </c>
       <c r="AB242" t="s" s="2">
         <v>76</v>
@@ -31232,7 +31251,7 @@
         <v>76</v>
       </c>
       <c r="AG242" t="s" s="2">
-        <v>703</v>
+        <v>667</v>
       </c>
       <c r="AH242" t="s" s="2">
         <v>77</v>
@@ -31244,7 +31263,7 @@
         <v>80</v>
       </c>
       <c r="AK242" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="243">
@@ -31252,10 +31271,10 @@
         <v>573</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>716</v>
+        <v>669</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" t="s" s="2">
@@ -31269,7 +31288,7 @@
         <v>83</v>
       </c>
       <c r="I243" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J243" t="s" s="2">
         <v>76</v>
@@ -31278,18 +31297,20 @@
         <v>205</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>717</v>
+        <v>670</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="O243" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="P243" s="2"/>
+        <v>672</v>
+      </c>
+      <c r="P243" t="s" s="2">
+        <v>673</v>
+      </c>
       <c r="Q243" t="s" s="2">
         <v>76</v>
       </c>
@@ -31301,7 +31322,7 @@
         <v>76</v>
       </c>
       <c r="U243" t="s" s="2">
-        <v>76</v>
+        <v>674</v>
       </c>
       <c r="V243" t="s" s="2">
         <v>76</v>
@@ -31337,7 +31358,7 @@
         <v>76</v>
       </c>
       <c r="AG243" t="s" s="2">
-        <v>716</v>
+        <v>675</v>
       </c>
       <c r="AH243" t="s" s="2">
         <v>77</v>
@@ -31357,10 +31378,10 @@
         <v>573</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>719</v>
+        <v>677</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" t="s" s="2">
@@ -31371,7 +31392,7 @@
         <v>77</v>
       </c>
       <c r="H244" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I244" t="s" s="2">
         <v>76</v>
@@ -31383,16 +31404,16 @@
         <v>205</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>720</v>
+        <v>84</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>721</v>
+        <v>678</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>722</v>
+        <v>679</v>
       </c>
       <c r="O244" t="s" s="2">
-        <v>349</v>
+        <v>680</v>
       </c>
       <c r="P244" s="2"/>
       <c r="Q244" t="s" s="2">
@@ -31406,7 +31427,7 @@
         <v>76</v>
       </c>
       <c r="U244" t="s" s="2">
-        <v>76</v>
+        <v>681</v>
       </c>
       <c r="V244" t="s" s="2">
         <v>76</v>
@@ -31442,19 +31463,19 @@
         <v>76</v>
       </c>
       <c r="AG244" t="s" s="2">
-        <v>719</v>
+        <v>682</v>
       </c>
       <c r="AH244" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI244" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ244" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK244" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="245">
@@ -31465,18 +31486,18 @@
         <v>723</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>723</v>
+        <v>684</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" t="s" s="2">
-        <v>724</v>
+        <v>76</v>
       </c>
       <c r="F245" s="2"/>
       <c r="G245" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H245" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I245" t="s" s="2">
         <v>76</v>
@@ -31488,20 +31509,18 @@
         <v>205</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>725</v>
+        <v>155</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>726</v>
+        <v>685</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>727</v>
+        <v>686</v>
       </c>
       <c r="O245" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="P245" t="s" s="2">
-        <v>728</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="P245" s="2"/>
       <c r="Q245" t="s" s="2">
         <v>76</v>
       </c>
@@ -31549,19 +31568,19 @@
         <v>76</v>
       </c>
       <c r="AG245" t="s" s="2">
-        <v>723</v>
+        <v>687</v>
       </c>
       <c r="AH245" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI245" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ245" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK245" t="s" s="2">
-        <v>297</v>
+        <v>337</v>
       </c>
     </row>
     <row r="246">
@@ -31569,10 +31588,10 @@
         <v>573</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>729</v>
+        <v>708</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" t="s" s="2">
@@ -31580,31 +31599,31 @@
       </c>
       <c r="F246" s="2"/>
       <c r="G246" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H246" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I246" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J246" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K246" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>222</v>
+        <v>507</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>730</v>
+        <v>709</v>
       </c>
       <c r="N246" t="s" s="2">
-        <v>731</v>
+        <v>710</v>
       </c>
       <c r="O246" t="s" s="2">
-        <v>284</v>
+        <v>711</v>
       </c>
       <c r="P246" s="2"/>
       <c r="Q246" t="s" s="2">
@@ -31630,13 +31649,13 @@
         <v>76</v>
       </c>
       <c r="Y246" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Z246" t="s" s="2">
-        <v>732</v>
+        <v>76</v>
       </c>
       <c r="AA246" t="s" s="2">
-        <v>733</v>
+        <v>76</v>
       </c>
       <c r="AB246" t="s" s="2">
         <v>76</v>
@@ -31654,10 +31673,10 @@
         <v>76</v>
       </c>
       <c r="AG246" t="s" s="2">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="AH246" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI246" t="s" s="2">
         <v>83</v>
@@ -31666,7 +31685,7 @@
         <v>80</v>
       </c>
       <c r="AK246" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
     </row>
     <row r="247">
@@ -31674,10 +31693,10 @@
         <v>573</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
@@ -31700,16 +31719,16 @@
         <v>205</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="O247" t="s" s="2">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="P247" s="2"/>
       <c r="Q247" t="s" s="2">
@@ -31735,13 +31754,13 @@
         <v>76</v>
       </c>
       <c r="Y247" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="Z247" t="s" s="2">
-        <v>737</v>
+        <v>76</v>
       </c>
       <c r="AA247" t="s" s="2">
-        <v>738</v>
+        <v>76</v>
       </c>
       <c r="AB247" t="s" s="2">
         <v>76</v>
@@ -31759,7 +31778,7 @@
         <v>76</v>
       </c>
       <c r="AG247" t="s" s="2">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="AH247" t="s" s="2">
         <v>77</v>
@@ -31779,10 +31798,10 @@
         <v>573</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
@@ -31793,10 +31812,10 @@
         <v>77</v>
       </c>
       <c r="H248" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I248" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J248" t="s" s="2">
         <v>76</v>
@@ -31805,16 +31824,16 @@
         <v>205</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>145</v>
+        <v>729</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="N248" t="s" s="2">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="O248" t="s" s="2">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="P248" s="2"/>
       <c r="Q248" t="s" s="2">
@@ -31840,11 +31859,13 @@
         <v>76</v>
       </c>
       <c r="Y248" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Z248" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Z248" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AA248" t="s" s="2">
-        <v>742</v>
+        <v>76</v>
       </c>
       <c r="AB248" t="s" s="2">
         <v>76</v>
@@ -31862,19 +31883,19 @@
         <v>76</v>
       </c>
       <c r="AG248" t="s" s="2">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="AH248" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI248" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ248" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK248" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
     </row>
     <row r="249">
@@ -31882,14 +31903,14 @@
         <v>573</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" t="s" s="2">
-        <v>76</v>
+        <v>733</v>
       </c>
       <c r="F249" s="2"/>
       <c r="G249" t="s" s="2">
@@ -31899,7 +31920,7 @@
         <v>78</v>
       </c>
       <c r="I249" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J249" t="s" s="2">
         <v>76</v>
@@ -31908,18 +31929,20 @@
         <v>205</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>145</v>
+        <v>734</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="N249" t="s" s="2">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="O249" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="P249" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="P249" t="s" s="2">
+        <v>737</v>
+      </c>
       <c r="Q249" t="s" s="2">
         <v>76</v>
       </c>
@@ -31943,11 +31966,13 @@
         <v>76</v>
       </c>
       <c r="Y249" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Z249" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Z249" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AA249" t="s" s="2">
-        <v>746</v>
+        <v>76</v>
       </c>
       <c r="AB249" t="s" s="2">
         <v>76</v>
@@ -31965,7 +31990,7 @@
         <v>76</v>
       </c>
       <c r="AG249" t="s" s="2">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="AH249" t="s" s="2">
         <v>77</v>
@@ -31977,7 +32002,7 @@
         <v>80</v>
       </c>
       <c r="AK249" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
     </row>
     <row r="250">
@@ -31985,10 +32010,10 @@
         <v>573</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" t="s" s="2">
@@ -31996,31 +32021,31 @@
       </c>
       <c r="F250" s="2"/>
       <c r="G250" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H250" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I250" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K250" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="O250" t="s" s="2">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="P250" s="2"/>
       <c r="Q250" t="s" s="2">
@@ -32046,13 +32071,13 @@
         <v>76</v>
       </c>
       <c r="Y250" t="s" s="2">
-        <v>279</v>
+        <v>191</v>
       </c>
       <c r="Z250" t="s" s="2">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="AA250" t="s" s="2">
-        <v>76</v>
+        <v>742</v>
       </c>
       <c r="AB250" t="s" s="2">
         <v>76</v>
@@ -32070,13 +32095,13 @@
         <v>76</v>
       </c>
       <c r="AG250" t="s" s="2">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="AH250" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI250" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ250" t="s" s="2">
         <v>80</v>
@@ -32090,10 +32115,10 @@
         <v>573</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
@@ -32104,7 +32129,7 @@
         <v>77</v>
       </c>
       <c r="H251" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I251" t="s" s="2">
         <v>205</v>
@@ -32119,10 +32144,10 @@
         <v>145</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>314</v>
@@ -32151,13 +32176,13 @@
         <v>76</v>
       </c>
       <c r="Y251" t="s" s="2">
-        <v>279</v>
+        <v>146</v>
       </c>
       <c r="Z251" t="s" s="2">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="AA251" t="s" s="2">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="AB251" t="s" s="2">
         <v>76</v>
@@ -32166,22 +32191,22 @@
         <v>76</v>
       </c>
       <c r="AD251" t="s" s="2">
-        <v>756</v>
+        <v>76</v>
       </c>
       <c r="AE251" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF251" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG251" t="s" s="2">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="AH251" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI251" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ251" t="s" s="2">
         <v>80</v>
@@ -32195,14 +32220,12 @@
         <v>573</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>751</v>
-      </c>
-      <c r="D252" t="s" s="2">
-        <v>758</v>
-      </c>
+        <v>748</v>
+      </c>
+      <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
         <v>76</v>
       </c>
@@ -32211,7 +32234,7 @@
         <v>77</v>
       </c>
       <c r="H252" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I252" t="s" s="2">
         <v>205</v>
@@ -32226,10 +32249,10 @@
         <v>145</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>314</v>
@@ -32258,13 +32281,11 @@
         <v>76</v>
       </c>
       <c r="Y252" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="Z252" t="s" s="2">
-        <v>754</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="Z252" s="2"/>
       <c r="AA252" t="s" s="2">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="AB252" t="s" s="2">
         <v>76</v>
@@ -32282,13 +32303,13 @@
         <v>76</v>
       </c>
       <c r="AG252" t="s" s="2">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="AH252" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI252" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ252" t="s" s="2">
         <v>80</v>
@@ -32302,10 +32323,10 @@
         <v>573</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
@@ -32316,27 +32337,29 @@
         <v>77</v>
       </c>
       <c r="H253" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I253" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J253" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>85</v>
+        <v>753</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O253" s="2"/>
+        <v>754</v>
+      </c>
+      <c r="O253" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P253" s="2"/>
       <c r="Q253" t="s" s="2">
         <v>76</v>
@@ -32346,7 +32369,7 @@
         <v>76</v>
       </c>
       <c r="T253" t="s" s="2">
-        <v>762</v>
+        <v>76</v>
       </c>
       <c r="U253" t="s" s="2">
         <v>76</v>
@@ -32361,13 +32384,11 @@
         <v>76</v>
       </c>
       <c r="Y253" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z253" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="Z253" s="2"/>
       <c r="AA253" t="s" s="2">
-        <v>76</v>
+        <v>755</v>
       </c>
       <c r="AB253" t="s" s="2">
         <v>76</v>
@@ -32385,19 +32406,19 @@
         <v>76</v>
       </c>
       <c r="AG253" t="s" s="2">
-        <v>87</v>
+        <v>752</v>
       </c>
       <c r="AH253" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI253" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ253" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK253" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="254">
@@ -32405,14 +32426,14 @@
         <v>573</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F254" s="2"/>
       <c r="G254" t="s" s="2">
@@ -32428,19 +32449,19 @@
         <v>76</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>111</v>
+        <v>757</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>112</v>
+        <v>758</v>
       </c>
       <c r="O254" t="s" s="2">
-        <v>113</v>
+        <v>314</v>
       </c>
       <c r="P254" s="2"/>
       <c r="Q254" t="s" s="2">
@@ -32466,10 +32487,10 @@
         <v>76</v>
       </c>
       <c r="Y254" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="Z254" t="s" s="2">
-        <v>76</v>
+        <v>759</v>
       </c>
       <c r="AA254" t="s" s="2">
         <v>76</v>
@@ -32478,19 +32499,19 @@
         <v>76</v>
       </c>
       <c r="AC254" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD254" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE254" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF254" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG254" t="s" s="2">
-        <v>94</v>
+        <v>756</v>
       </c>
       <c r="AH254" t="s" s="2">
         <v>77</v>
@@ -32502,7 +32523,7 @@
         <v>80</v>
       </c>
       <c r="AK254" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="255">
@@ -32510,10 +32531,10 @@
         <v>573</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" t="s" s="2">
@@ -32527,7 +32548,7 @@
         <v>78</v>
       </c>
       <c r="I255" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J255" t="s" s="2">
         <v>76</v>
@@ -32536,20 +32557,18 @@
         <v>205</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>405</v>
+        <v>145</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="N255" t="s" s="2">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="O255" t="s" s="2">
-        <v>769</v>
-      </c>
-      <c r="P255" t="s" s="2">
-        <v>770</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="P255" s="2"/>
       <c r="Q255" t="s" s="2">
         <v>76</v>
       </c>
@@ -32573,13 +32592,13 @@
         <v>76</v>
       </c>
       <c r="Y255" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="Z255" t="s" s="2">
-        <v>76</v>
+        <v>763</v>
       </c>
       <c r="AA255" t="s" s="2">
-        <v>76</v>
+        <v>764</v>
       </c>
       <c r="AB255" t="s" s="2">
         <v>76</v>
@@ -32588,16 +32607,16 @@
         <v>76</v>
       </c>
       <c r="AD255" t="s" s="2">
-        <v>76</v>
+        <v>765</v>
       </c>
       <c r="AE255" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF255" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG255" t="s" s="2">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="AH255" t="s" s="2">
         <v>77</v>
@@ -32617,12 +32636,14 @@
         <v>573</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>773</v>
-      </c>
-      <c r="D256" s="2"/>
+        <v>760</v>
+      </c>
+      <c r="D256" t="s" s="2">
+        <v>767</v>
+      </c>
       <c r="E256" t="s" s="2">
         <v>76</v>
       </c>
@@ -32631,27 +32652,29 @@
         <v>77</v>
       </c>
       <c r="H256" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I256" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J256" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K256" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>85</v>
+        <v>768</v>
       </c>
       <c r="N256" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O256" s="2"/>
+        <v>762</v>
+      </c>
+      <c r="O256" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P256" s="2"/>
       <c r="Q256" t="s" s="2">
         <v>76</v>
@@ -32676,13 +32699,13 @@
         <v>76</v>
       </c>
       <c r="Y256" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="Z256" t="s" s="2">
-        <v>76</v>
+        <v>763</v>
       </c>
       <c r="AA256" t="s" s="2">
-        <v>76</v>
+        <v>764</v>
       </c>
       <c r="AB256" t="s" s="2">
         <v>76</v>
@@ -32700,19 +32723,19 @@
         <v>76</v>
       </c>
       <c r="AG256" t="s" s="2">
-        <v>87</v>
+        <v>760</v>
       </c>
       <c r="AH256" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI256" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ256" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK256" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="257">
@@ -32720,21 +32743,21 @@
         <v>573</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F257" s="2"/>
       <c r="G257" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H257" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I257" t="s" s="2">
         <v>76</v>
@@ -32746,17 +32769,15 @@
         <v>76</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="N257" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O257" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O257" s="2"/>
       <c r="P257" s="2"/>
       <c r="Q257" t="s" s="2">
         <v>76</v>
@@ -32766,7 +32787,7 @@
         <v>76</v>
       </c>
       <c r="T257" t="s" s="2">
-        <v>76</v>
+        <v>771</v>
       </c>
       <c r="U257" t="s" s="2">
         <v>76</v>
@@ -32793,31 +32814,31 @@
         <v>76</v>
       </c>
       <c r="AC257" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD257" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE257" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF257" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG257" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH257" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI257" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ257" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK257" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="258">
@@ -32825,21 +32846,21 @@
         <v>573</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F258" s="2"/>
       <c r="G258" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H258" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I258" t="s" s="2">
         <v>76</v>
@@ -32848,23 +32869,21 @@
         <v>76</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>778</v>
+        <v>111</v>
       </c>
       <c r="N258" t="s" s="2">
-        <v>779</v>
+        <v>112</v>
       </c>
       <c r="O258" t="s" s="2">
-        <v>780</v>
-      </c>
-      <c r="P258" t="s" s="2">
-        <v>781</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P258" s="2"/>
       <c r="Q258" t="s" s="2">
         <v>76</v>
       </c>
@@ -32873,7 +32892,7 @@
         <v>76</v>
       </c>
       <c r="T258" t="s" s="2">
-        <v>782</v>
+        <v>76</v>
       </c>
       <c r="U258" t="s" s="2">
         <v>76</v>
@@ -32900,31 +32919,31 @@
         <v>76</v>
       </c>
       <c r="AC258" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD258" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE258" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF258" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG258" t="s" s="2">
-        <v>783</v>
+        <v>94</v>
       </c>
       <c r="AH258" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI258" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ258" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK258" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="259">
@@ -32932,10 +32951,10 @@
         <v>573</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" t="s" s="2">
@@ -32946,7 +32965,7 @@
         <v>77</v>
       </c>
       <c r="H259" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I259" t="s" s="2">
         <v>76</v>
@@ -32958,18 +32977,20 @@
         <v>205</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>84</v>
+        <v>405</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="N259" t="s" s="2">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="O259" t="s" s="2">
-        <v>788</v>
-      </c>
-      <c r="P259" s="2"/>
+        <v>778</v>
+      </c>
+      <c r="P259" t="s" s="2">
+        <v>779</v>
+      </c>
       <c r="Q259" t="s" s="2">
         <v>76</v>
       </c>
@@ -33017,13 +33038,13 @@
         <v>76</v>
       </c>
       <c r="AG259" t="s" s="2">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="AH259" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI259" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ259" t="s" s="2">
         <v>80</v>
@@ -33037,10 +33058,10 @@
         <v>573</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" t="s" s="2">
@@ -33060,23 +33081,19 @@
         <v>76</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>222</v>
+        <v>84</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>792</v>
+        <v>85</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>793</v>
-      </c>
-      <c r="O260" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="P260" t="s" s="2">
-        <v>794</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O260" s="2"/>
+      <c r="P260" s="2"/>
       <c r="Q260" t="s" s="2">
         <v>76</v>
       </c>
@@ -33124,7 +33141,7 @@
         <v>76</v>
       </c>
       <c r="AG260" t="s" s="2">
-        <v>795</v>
+        <v>87</v>
       </c>
       <c r="AH260" t="s" s="2">
         <v>77</v>
@@ -33133,10 +33150,10 @@
         <v>83</v>
       </c>
       <c r="AJ260" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK260" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="261">
@@ -33144,21 +33161,21 @@
         <v>573</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F261" s="2"/>
       <c r="G261" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H261" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I261" t="s" s="2">
         <v>76</v>
@@ -33167,23 +33184,21 @@
         <v>76</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>798</v>
+        <v>111</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>799</v>
+        <v>112</v>
       </c>
       <c r="O261" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="P261" t="s" s="2">
-        <v>800</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P261" s="2"/>
       <c r="Q261" t="s" s="2">
         <v>76</v>
       </c>
@@ -33219,31 +33234,31 @@
         <v>76</v>
       </c>
       <c r="AC261" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD261" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE261" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF261" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG261" t="s" s="2">
-        <v>801</v>
+        <v>94</v>
       </c>
       <c r="AH261" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI261" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ261" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK261" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="262">
@@ -33251,10 +33266,10 @@
         <v>573</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>802</v>
+        <v>785</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>803</v>
+        <v>786</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" t="s" s="2">
@@ -33277,19 +33292,19 @@
         <v>205</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>258</v>
+        <v>96</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>804</v>
+        <v>787</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>805</v>
+        <v>788</v>
       </c>
       <c r="O262" t="s" s="2">
-        <v>806</v>
+        <v>789</v>
       </c>
       <c r="P262" t="s" s="2">
-        <v>807</v>
+        <v>790</v>
       </c>
       <c r="Q262" t="s" s="2">
         <v>76</v>
@@ -33299,7 +33314,7 @@
         <v>76</v>
       </c>
       <c r="T262" t="s" s="2">
-        <v>76</v>
+        <v>791</v>
       </c>
       <c r="U262" t="s" s="2">
         <v>76</v>
@@ -33338,7 +33353,7 @@
         <v>76</v>
       </c>
       <c r="AG262" t="s" s="2">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="AH262" t="s" s="2">
         <v>77</v>
@@ -33358,10 +33373,10 @@
         <v>573</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" t="s" s="2">
@@ -33387,17 +33402,15 @@
         <v>84</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="O263" t="s" s="2">
-        <v>813</v>
-      </c>
-      <c r="P263" t="s" s="2">
-        <v>814</v>
-      </c>
+        <v>797</v>
+      </c>
+      <c r="P263" s="2"/>
       <c r="Q263" t="s" s="2">
         <v>76</v>
       </c>
@@ -33445,7 +33458,7 @@
         <v>76</v>
       </c>
       <c r="AG263" t="s" s="2">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="AH263" t="s" s="2">
         <v>77</v>
@@ -33465,14 +33478,12 @@
         <v>573</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>751</v>
-      </c>
-      <c r="D264" t="s" s="2">
-        <v>817</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="D264" s="2"/>
       <c r="E264" t="s" s="2">
         <v>76</v>
       </c>
@@ -33481,10 +33492,10 @@
         <v>77</v>
       </c>
       <c r="H264" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I264" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J264" t="s" s="2">
         <v>76</v>
@@ -33493,18 +33504,20 @@
         <v>205</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>818</v>
+        <v>801</v>
       </c>
       <c r="N264" t="s" s="2">
-        <v>753</v>
+        <v>802</v>
       </c>
       <c r="O264" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="P264" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="P264" t="s" s="2">
+        <v>803</v>
+      </c>
       <c r="Q264" t="s" s="2">
         <v>76</v>
       </c>
@@ -33528,13 +33541,13 @@
         <v>76</v>
       </c>
       <c r="Y264" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z264" t="s" s="2">
-        <v>754</v>
+        <v>76</v>
       </c>
       <c r="AA264" t="s" s="2">
-        <v>755</v>
+        <v>76</v>
       </c>
       <c r="AB264" t="s" s="2">
         <v>76</v>
@@ -33552,13 +33565,13 @@
         <v>76</v>
       </c>
       <c r="AG264" t="s" s="2">
-        <v>751</v>
+        <v>804</v>
       </c>
       <c r="AH264" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI264" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ264" t="s" s="2">
         <v>80</v>
@@ -33572,10 +33585,10 @@
         <v>573</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>761</v>
+        <v>806</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" t="s" s="2">
@@ -33595,19 +33608,23 @@
         <v>76</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L265" t="s" s="2">
         <v>84</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>85</v>
+        <v>807</v>
       </c>
       <c r="N265" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O265" s="2"/>
-      <c r="P265" s="2"/>
+        <v>808</v>
+      </c>
+      <c r="O265" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="P265" t="s" s="2">
+        <v>809</v>
+      </c>
       <c r="Q265" t="s" s="2">
         <v>76</v>
       </c>
@@ -33616,7 +33633,7 @@
         <v>76</v>
       </c>
       <c r="T265" t="s" s="2">
-        <v>820</v>
+        <v>76</v>
       </c>
       <c r="U265" t="s" s="2">
         <v>76</v>
@@ -33655,7 +33672,7 @@
         <v>76</v>
       </c>
       <c r="AG265" t="s" s="2">
-        <v>87</v>
+        <v>810</v>
       </c>
       <c r="AH265" t="s" s="2">
         <v>77</v>
@@ -33664,10 +33681,10 @@
         <v>83</v>
       </c>
       <c r="AJ265" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK265" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="266">
@@ -33675,21 +33692,21 @@
         <v>573</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>764</v>
+        <v>812</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F266" s="2"/>
       <c r="G266" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H266" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I266" t="s" s="2">
         <v>76</v>
@@ -33698,21 +33715,23 @@
         <v>76</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>89</v>
+        <v>258</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>111</v>
+        <v>813</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>112</v>
+        <v>814</v>
       </c>
       <c r="O266" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P266" s="2"/>
+        <v>815</v>
+      </c>
+      <c r="P266" t="s" s="2">
+        <v>816</v>
+      </c>
       <c r="Q266" t="s" s="2">
         <v>76</v>
       </c>
@@ -33748,31 +33767,31 @@
         <v>76</v>
       </c>
       <c r="AC266" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD266" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE266" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF266" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG266" t="s" s="2">
-        <v>94</v>
+        <v>817</v>
       </c>
       <c r="AH266" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI266" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ266" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK266" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="267">
@@ -33780,10 +33799,10 @@
         <v>573</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>766</v>
+        <v>819</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" t="s" s="2">
@@ -33794,7 +33813,7 @@
         <v>77</v>
       </c>
       <c r="H267" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I267" t="s" s="2">
         <v>76</v>
@@ -33806,19 +33825,19 @@
         <v>205</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>405</v>
+        <v>84</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>767</v>
+        <v>820</v>
       </c>
       <c r="N267" t="s" s="2">
-        <v>768</v>
+        <v>821</v>
       </c>
       <c r="O267" t="s" s="2">
-        <v>769</v>
+        <v>822</v>
       </c>
       <c r="P267" t="s" s="2">
-        <v>770</v>
+        <v>823</v>
       </c>
       <c r="Q267" t="s" s="2">
         <v>76</v>
@@ -33867,13 +33886,13 @@
         <v>76</v>
       </c>
       <c r="AG267" t="s" s="2">
-        <v>771</v>
+        <v>824</v>
       </c>
       <c r="AH267" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI267" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ267" t="s" s="2">
         <v>80</v>
@@ -33887,24 +33906,26 @@
         <v>573</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>810</v>
-      </c>
-      <c r="D268" s="2"/>
+        <v>760</v>
+      </c>
+      <c r="D268" t="s" s="2">
+        <v>826</v>
+      </c>
       <c r="E268" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F268" s="2"/>
       <c r="G268" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H268" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I268" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J268" t="s" s="2">
         <v>76</v>
@@ -33913,20 +33934,18 @@
         <v>205</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>811</v>
+        <v>827</v>
       </c>
       <c r="N268" t="s" s="2">
-        <v>812</v>
+        <v>762</v>
       </c>
       <c r="O268" t="s" s="2">
-        <v>813</v>
-      </c>
-      <c r="P268" t="s" s="2">
-        <v>814</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="P268" s="2"/>
       <c r="Q268" t="s" s="2">
         <v>76</v>
       </c>
@@ -33950,13 +33969,13 @@
         <v>76</v>
       </c>
       <c r="Y268" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="Z268" t="s" s="2">
-        <v>76</v>
+        <v>763</v>
       </c>
       <c r="AA268" t="s" s="2">
-        <v>76</v>
+        <v>764</v>
       </c>
       <c r="AB268" t="s" s="2">
         <v>76</v>
@@ -33974,13 +33993,13 @@
         <v>76</v>
       </c>
       <c r="AG268" t="s" s="2">
-        <v>815</v>
+        <v>760</v>
       </c>
       <c r="AH268" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI268" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ268" t="s" s="2">
         <v>80</v>
@@ -33994,10 +34013,10 @@
         <v>573</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>824</v>
+        <v>770</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" t="s" s="2">
@@ -34008,25 +34027,25 @@
         <v>77</v>
       </c>
       <c r="H269" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I269" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J269" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>825</v>
+        <v>84</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>826</v>
+        <v>85</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>827</v>
+        <v>86</v>
       </c>
       <c r="O269" s="2"/>
       <c r="P269" s="2"/>
@@ -34038,7 +34057,7 @@
         <v>76</v>
       </c>
       <c r="T269" t="s" s="2">
-        <v>76</v>
+        <v>829</v>
       </c>
       <c r="U269" t="s" s="2">
         <v>76</v>
@@ -34077,19 +34096,19 @@
         <v>76</v>
       </c>
       <c r="AG269" t="s" s="2">
-        <v>824</v>
+        <v>87</v>
       </c>
       <c r="AH269" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI269" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ269" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK269" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="270">
@@ -34097,21 +34116,21 @@
         <v>573</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>828</v>
+        <v>773</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F270" s="2"/>
       <c r="G270" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H270" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I270" t="s" s="2">
         <v>76</v>
@@ -34123,15 +34142,17 @@
         <v>76</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O270" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="O270" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="P270" s="2"/>
       <c r="Q270" t="s" s="2">
         <v>76</v>
@@ -34168,31 +34189,31 @@
         <v>76</v>
       </c>
       <c r="AC270" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD270" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE270" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF270" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG270" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH270" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI270" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ270" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK270" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="271">
@@ -34200,14 +34221,14 @@
         <v>573</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>829</v>
+        <v>775</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F271" s="2"/>
       <c r="G271" t="s" s="2">
@@ -34223,21 +34244,23 @@
         <v>76</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>89</v>
+        <v>405</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>111</v>
+        <v>776</v>
       </c>
       <c r="N271" t="s" s="2">
-        <v>112</v>
+        <v>777</v>
       </c>
       <c r="O271" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P271" s="2"/>
+        <v>778</v>
+      </c>
+      <c r="P271" t="s" s="2">
+        <v>779</v>
+      </c>
       <c r="Q271" t="s" s="2">
         <v>76</v>
       </c>
@@ -34273,19 +34296,19 @@
         <v>76</v>
       </c>
       <c r="AC271" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD271" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE271" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF271" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG271" t="s" s="2">
-        <v>94</v>
+        <v>780</v>
       </c>
       <c r="AH271" t="s" s="2">
         <v>77</v>
@@ -34297,7 +34320,7 @@
         <v>80</v>
       </c>
       <c r="AK271" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="272">
@@ -34305,44 +34328,46 @@
         <v>573</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>829</v>
-      </c>
-      <c r="D272" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>819</v>
+      </c>
+      <c r="D272" s="2"/>
       <c r="E272" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F272" s="2"/>
       <c r="G272" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H272" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I272" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J272" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K272" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="J272" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K272" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L272" t="s" s="2">
-        <v>831</v>
+        <v>84</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="N272" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O272" s="2"/>
-      <c r="P272" s="2"/>
+        <v>821</v>
+      </c>
+      <c r="O272" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="P272" t="s" s="2">
+        <v>823</v>
+      </c>
       <c r="Q272" t="s" s="2">
         <v>76</v>
       </c>
@@ -34390,19 +34415,19 @@
         <v>76</v>
       </c>
       <c r="AG272" t="s" s="2">
-        <v>94</v>
+        <v>824</v>
       </c>
       <c r="AH272" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI272" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ272" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK272" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="273">
@@ -34413,11 +34438,9 @@
         <v>833</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>829</v>
-      </c>
-      <c r="D273" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>833</v>
+      </c>
+      <c r="D273" s="2"/>
       <c r="E273" t="s" s="2">
         <v>76</v>
       </c>
@@ -34426,7 +34449,7 @@
         <v>77</v>
       </c>
       <c r="H273" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I273" t="s" s="2">
         <v>205</v>
@@ -34435,7 +34458,7 @@
         <v>76</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L273" t="s" s="2">
         <v>834</v>
@@ -34444,7 +34467,7 @@
         <v>835</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>175</v>
+        <v>836</v>
       </c>
       <c r="O273" s="2"/>
       <c r="P273" s="2"/>
@@ -34495,7 +34518,7 @@
         <v>76</v>
       </c>
       <c r="AG273" t="s" s="2">
-        <v>94</v>
+        <v>833</v>
       </c>
       <c r="AH273" t="s" s="2">
         <v>77</v>
@@ -34507,7 +34530,7 @@
         <v>80</v>
       </c>
       <c r="AK273" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="274">
@@ -34515,14 +34538,12 @@
         <v>573</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>829</v>
-      </c>
-      <c r="D274" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>837</v>
+      </c>
+      <c r="D274" s="2"/>
       <c r="E274" t="s" s="2">
         <v>76</v>
       </c>
@@ -34534,7 +34555,7 @@
         <v>83</v>
       </c>
       <c r="I274" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J274" t="s" s="2">
         <v>76</v>
@@ -34543,13 +34564,13 @@
         <v>76</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>837</v>
+        <v>84</v>
       </c>
       <c r="M274" t="s" s="2">
-        <v>838</v>
+        <v>85</v>
       </c>
       <c r="N274" t="s" s="2">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="O274" s="2"/>
       <c r="P274" s="2"/>
@@ -34600,19 +34621,19 @@
         <v>76</v>
       </c>
       <c r="AG274" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH274" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI274" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ274" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK274" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="275">
@@ -34620,26 +34641,24 @@
         <v>573</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>829</v>
-      </c>
-      <c r="D275" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>838</v>
+      </c>
+      <c r="D275" s="2"/>
       <c r="E275" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F275" s="2"/>
       <c r="G275" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H275" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I275" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J275" t="s" s="2">
         <v>76</v>
@@ -34648,15 +34667,17 @@
         <v>76</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>840</v>
+        <v>89</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>841</v>
+        <v>111</v>
       </c>
       <c r="N275" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O275" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="O275" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="P275" s="2"/>
       <c r="Q275" t="s" s="2">
         <v>76</v>
@@ -34693,16 +34714,16 @@
         <v>76</v>
       </c>
       <c r="AC275" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD275" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE275" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF275" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG275" t="s" s="2">
         <v>94</v>
@@ -34725,12 +34746,14 @@
         <v>573</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>842</v>
-      </c>
-      <c r="D276" s="2"/>
+        <v>838</v>
+      </c>
+      <c r="D276" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="E276" t="s" s="2">
         <v>76</v>
       </c>
@@ -34742,26 +34765,24 @@
         <v>83</v>
       </c>
       <c r="I276" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J276" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>84</v>
+        <v>840</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="N276" t="s" s="2">
-        <v>844</v>
-      </c>
-      <c r="O276" t="s" s="2">
-        <v>845</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="O276" s="2"/>
       <c r="P276" s="2"/>
       <c r="Q276" t="s" s="2">
         <v>76</v>
@@ -34810,19 +34831,19 @@
         <v>76</v>
       </c>
       <c r="AG276" t="s" s="2">
-        <v>846</v>
+        <v>94</v>
       </c>
       <c r="AH276" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI276" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ276" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK276" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="277">
@@ -34830,12 +34851,14 @@
         <v>573</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>847</v>
-      </c>
-      <c r="D277" s="2"/>
+        <v>838</v>
+      </c>
+      <c r="D277" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="E277" t="s" s="2">
         <v>76</v>
       </c>
@@ -34844,25 +34867,25 @@
         <v>77</v>
       </c>
       <c r="H277" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I277" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J277" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>435</v>
+        <v>843</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>849</v>
+        <v>175</v>
       </c>
       <c r="O277" s="2"/>
       <c r="P277" s="2"/>
@@ -34913,7 +34936,7 @@
         <v>76</v>
       </c>
       <c r="AG277" t="s" s="2">
-        <v>850</v>
+        <v>94</v>
       </c>
       <c r="AH277" t="s" s="2">
         <v>77</v>
@@ -34925,7 +34948,7 @@
         <v>80</v>
       </c>
       <c r="AK277" t="s" s="2">
-        <v>438</v>
+        <v>81</v>
       </c>
     </row>
     <row r="278">
@@ -34933,12 +34956,14 @@
         <v>573</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>851</v>
-      </c>
-      <c r="D278" s="2"/>
+        <v>838</v>
+      </c>
+      <c r="D278" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="E278" t="s" s="2">
         <v>76</v>
       </c>
@@ -34947,7 +34972,7 @@
         <v>77</v>
       </c>
       <c r="H278" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I278" t="s" s="2">
         <v>205</v>
@@ -34959,17 +34984,15 @@
         <v>76</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>854</v>
-      </c>
-      <c r="O278" t="s" s="2">
-        <v>855</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="O278" s="2"/>
       <c r="P278" s="2"/>
       <c r="Q278" t="s" s="2">
         <v>76</v>
@@ -35018,7 +35041,7 @@
         <v>76</v>
       </c>
       <c r="AG278" t="s" s="2">
-        <v>851</v>
+        <v>94</v>
       </c>
       <c r="AH278" t="s" s="2">
         <v>77</v>
@@ -35030,7 +35053,7 @@
         <v>80</v>
       </c>
       <c r="AK278" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="279">
@@ -35038,12 +35061,14 @@
         <v>573</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="C279" t="s" s="2">
-        <v>856</v>
-      </c>
-      <c r="D279" s="2"/>
+        <v>838</v>
+      </c>
+      <c r="D279" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="E279" t="s" s="2">
         <v>76</v>
       </c>
@@ -35052,29 +35077,27 @@
         <v>77</v>
       </c>
       <c r="H279" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I279" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J279" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>145</v>
+        <v>849</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>858</v>
-      </c>
-      <c r="O279" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="O279" s="2"/>
       <c r="P279" s="2"/>
       <c r="Q279" t="s" s="2">
         <v>76</v>
@@ -35099,10 +35122,10 @@
         <v>76</v>
       </c>
       <c r="Y279" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z279" t="s" s="2">
-        <v>859</v>
+        <v>76</v>
       </c>
       <c r="AA279" t="s" s="2">
         <v>76</v>
@@ -35123,7 +35146,7 @@
         <v>76</v>
       </c>
       <c r="AG279" t="s" s="2">
-        <v>856</v>
+        <v>94</v>
       </c>
       <c r="AH279" t="s" s="2">
         <v>77</v>
@@ -35135,7 +35158,7 @@
         <v>80</v>
       </c>
       <c r="AK279" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="280">
@@ -35143,10 +35166,10 @@
         <v>573</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" t="s" s="2">
@@ -35157,10 +35180,10 @@
         <v>77</v>
       </c>
       <c r="H280" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I280" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J280" t="s" s="2">
         <v>76</v>
@@ -35169,16 +35192,16 @@
         <v>205</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="O280" t="s" s="2">
-        <v>314</v>
+        <v>854</v>
       </c>
       <c r="P280" s="2"/>
       <c r="Q280" t="s" s="2">
@@ -35204,13 +35227,13 @@
         <v>76</v>
       </c>
       <c r="Y280" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="Z280" t="s" s="2">
-        <v>863</v>
+        <v>76</v>
       </c>
       <c r="AA280" t="s" s="2">
-        <v>864</v>
+        <v>76</v>
       </c>
       <c r="AB280" t="s" s="2">
         <v>76</v>
@@ -35228,13 +35251,13 @@
         <v>76</v>
       </c>
       <c r="AG280" t="s" s="2">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="AH280" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI280" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ280" t="s" s="2">
         <v>80</v>
@@ -35248,10 +35271,10 @@
         <v>573</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" t="s" s="2">
@@ -35262,29 +35285,27 @@
         <v>77</v>
       </c>
       <c r="H281" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I281" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J281" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K281" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="J281" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K281" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L281" t="s" s="2">
-        <v>555</v>
+        <v>435</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="N281" t="s" s="2">
-        <v>867</v>
-      </c>
-      <c r="O281" t="s" s="2">
-        <v>868</v>
-      </c>
+        <v>858</v>
+      </c>
+      <c r="O281" s="2"/>
       <c r="P281" s="2"/>
       <c r="Q281" t="s" s="2">
         <v>76</v>
@@ -35333,19 +35354,19 @@
         <v>76</v>
       </c>
       <c r="AG281" t="s" s="2">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="AH281" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI281" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ281" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK281" t="s" s="2">
-        <v>104</v>
+        <v>438</v>
       </c>
     </row>
     <row r="282">
@@ -35353,14 +35374,14 @@
         <v>573</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" t="s" s="2">
-        <v>870</v>
+        <v>76</v>
       </c>
       <c r="F282" s="2"/>
       <c r="G282" t="s" s="2">
@@ -35376,19 +35397,19 @@
         <v>76</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="N282" t="s" s="2">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="O282" t="s" s="2">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="P282" s="2"/>
       <c r="Q282" t="s" s="2">
@@ -35438,7 +35459,7 @@
         <v>76</v>
       </c>
       <c r="AG282" t="s" s="2">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="AH282" t="s" s="2">
         <v>77</v>
@@ -35450,7 +35471,7 @@
         <v>80</v>
       </c>
       <c r="AK282" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="283">
@@ -35458,21 +35479,21 @@
         <v>573</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" t="s" s="2">
-        <v>876</v>
+        <v>76</v>
       </c>
       <c r="F283" s="2"/>
       <c r="G283" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H283" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I283" t="s" s="2">
         <v>76</v>
@@ -35484,16 +35505,16 @@
         <v>205</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="N283" t="s" s="2">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="O283" t="s" s="2">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="P283" s="2"/>
       <c r="Q283" t="s" s="2">
@@ -35519,10 +35540,10 @@
         <v>76</v>
       </c>
       <c r="Y283" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="Z283" t="s" s="2">
-        <v>76</v>
+        <v>868</v>
       </c>
       <c r="AA283" t="s" s="2">
         <v>76</v>
@@ -35543,19 +35564,19 @@
         <v>76</v>
       </c>
       <c r="AG283" t="s" s="2">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="AH283" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI283" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ283" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK283" t="s" s="2">
-        <v>337</v>
+        <v>104</v>
       </c>
     </row>
     <row r="284">
@@ -35563,10 +35584,10 @@
         <v>573</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" t="s" s="2">
@@ -35577,27 +35598,29 @@
         <v>77</v>
       </c>
       <c r="H284" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I284" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J284" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>85</v>
+        <v>870</v>
       </c>
       <c r="N284" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O284" s="2"/>
+        <v>871</v>
+      </c>
+      <c r="O284" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P284" s="2"/>
       <c r="Q284" t="s" s="2">
         <v>76</v>
@@ -35622,13 +35645,13 @@
         <v>76</v>
       </c>
       <c r="Y284" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="Z284" t="s" s="2">
-        <v>76</v>
+        <v>872</v>
       </c>
       <c r="AA284" t="s" s="2">
-        <v>76</v>
+        <v>873</v>
       </c>
       <c r="AB284" t="s" s="2">
         <v>76</v>
@@ -35646,19 +35669,19 @@
         <v>76</v>
       </c>
       <c r="AG284" t="s" s="2">
-        <v>87</v>
+        <v>869</v>
       </c>
       <c r="AH284" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI284" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ284" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK284" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="285">
@@ -35666,24 +35689,24 @@
         <v>573</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="C285" t="s" s="2">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F285" s="2"/>
       <c r="G285" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H285" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I285" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J285" t="s" s="2">
         <v>76</v>
@@ -35692,16 +35715,16 @@
         <v>76</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>89</v>
+        <v>555</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>111</v>
+        <v>875</v>
       </c>
       <c r="N285" t="s" s="2">
-        <v>112</v>
+        <v>876</v>
       </c>
       <c r="O285" t="s" s="2">
-        <v>113</v>
+        <v>877</v>
       </c>
       <c r="P285" s="2"/>
       <c r="Q285" t="s" s="2">
@@ -35739,31 +35762,31 @@
         <v>76</v>
       </c>
       <c r="AC285" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD285" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE285" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF285" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG285" t="s" s="2">
-        <v>94</v>
+        <v>874</v>
       </c>
       <c r="AH285" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI285" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ285" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK285" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="286">
@@ -35771,24 +35794,24 @@
         <v>573</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" t="s" s="2">
-        <v>76</v>
+        <v>879</v>
       </c>
       <c r="F286" s="2"/>
       <c r="G286" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H286" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I286" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J286" t="s" s="2">
         <v>76</v>
@@ -35797,16 +35820,16 @@
         <v>205</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>685</v>
+        <v>880</v>
       </c>
       <c r="M286" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="N286" t="s" s="2">
         <v>882</v>
       </c>
-      <c r="N286" t="s" s="2">
-        <v>687</v>
-      </c>
       <c r="O286" t="s" s="2">
-        <v>688</v>
+        <v>883</v>
       </c>
       <c r="P286" s="2"/>
       <c r="Q286" t="s" s="2">
@@ -35856,19 +35879,19 @@
         <v>76</v>
       </c>
       <c r="AG286" t="s" s="2">
-        <v>689</v>
+        <v>878</v>
       </c>
       <c r="AH286" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI286" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ286" t="s" s="2">
-        <v>690</v>
+        <v>80</v>
       </c>
       <c r="AK286" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
     </row>
     <row r="287">
@@ -35876,14 +35899,14 @@
         <v>573</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C287" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
-        <v>76</v>
+        <v>885</v>
       </c>
       <c r="F287" s="2"/>
       <c r="G287" t="s" s="2">
@@ -35893,7 +35916,7 @@
         <v>83</v>
       </c>
       <c r="I287" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J287" t="s" s="2">
         <v>76</v>
@@ -35902,24 +35925,22 @@
         <v>205</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>685</v>
+        <v>155</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>694</v>
+        <v>887</v>
       </c>
       <c r="O287" t="s" s="2">
-        <v>695</v>
+        <v>336</v>
       </c>
       <c r="P287" s="2"/>
       <c r="Q287" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R287" t="s" s="2">
-        <v>696</v>
-      </c>
+      <c r="R287" s="2"/>
       <c r="S287" t="s" s="2">
         <v>76</v>
       </c>
@@ -35963,7 +35984,7 @@
         <v>76</v>
       </c>
       <c r="AG287" t="s" s="2">
-        <v>697</v>
+        <v>884</v>
       </c>
       <c r="AH287" t="s" s="2">
         <v>77</v>
@@ -35972,10 +35993,10 @@
         <v>83</v>
       </c>
       <c r="AJ287" t="s" s="2">
-        <v>690</v>
+        <v>80</v>
       </c>
       <c r="AK287" t="s" s="2">
-        <v>104</v>
+        <v>337</v>
       </c>
     </row>
     <row r="288">
@@ -35983,10 +36004,10 @@
         <v>573</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" t="s" s="2">
@@ -35997,7 +36018,7 @@
         <v>77</v>
       </c>
       <c r="H288" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I288" t="s" s="2">
         <v>76</v>
@@ -36006,20 +36027,18 @@
         <v>76</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>507</v>
+        <v>84</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>886</v>
+        <v>85</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>887</v>
-      </c>
-      <c r="O288" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O288" s="2"/>
       <c r="P288" s="2"/>
       <c r="Q288" t="s" s="2">
         <v>76</v>
@@ -36068,7 +36087,7 @@
         <v>76</v>
       </c>
       <c r="AG288" t="s" s="2">
-        <v>885</v>
+        <v>87</v>
       </c>
       <c r="AH288" t="s" s="2">
         <v>77</v>
@@ -36077,10 +36096,10 @@
         <v>83</v>
       </c>
       <c r="AJ288" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK288" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
     </row>
     <row r="289">
@@ -36088,21 +36107,21 @@
         <v>573</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F289" s="2"/>
       <c r="G289" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H289" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I289" t="s" s="2">
         <v>76</v>
@@ -36111,19 +36130,19 @@
         <v>76</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>889</v>
+        <v>89</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>890</v>
+        <v>111</v>
       </c>
       <c r="N289" t="s" s="2">
-        <v>891</v>
+        <v>112</v>
       </c>
       <c r="O289" t="s" s="2">
-        <v>349</v>
+        <v>113</v>
       </c>
       <c r="P289" s="2"/>
       <c r="Q289" t="s" s="2">
@@ -36161,31 +36180,31 @@
         <v>76</v>
       </c>
       <c r="AC289" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD289" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE289" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF289" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG289" t="s" s="2">
-        <v>888</v>
+        <v>94</v>
       </c>
       <c r="AH289" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI289" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ289" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK289" t="s" s="2">
-        <v>297</v>
+        <v>81</v>
       </c>
     </row>
     <row r="290">
@@ -36193,10 +36212,10 @@
         <v>573</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" t="s" s="2">
@@ -36207,10 +36226,10 @@
         <v>77</v>
       </c>
       <c r="H290" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I290" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J290" t="s" s="2">
         <v>76</v>
@@ -36219,16 +36238,16 @@
         <v>205</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>893</v>
+        <v>694</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>895</v>
+        <v>696</v>
       </c>
       <c r="O290" t="s" s="2">
-        <v>349</v>
+        <v>697</v>
       </c>
       <c r="P290" s="2"/>
       <c r="Q290" t="s" s="2">
@@ -36278,19 +36297,19 @@
         <v>76</v>
       </c>
       <c r="AG290" t="s" s="2">
-        <v>892</v>
+        <v>698</v>
       </c>
       <c r="AH290" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI290" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ290" t="s" s="2">
-        <v>80</v>
+        <v>699</v>
       </c>
       <c r="AK290" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="291">
@@ -36298,10 +36317,10 @@
         <v>573</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" t="s" s="2">
@@ -36315,7 +36334,7 @@
         <v>83</v>
       </c>
       <c r="I291" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J291" t="s" s="2">
         <v>76</v>
@@ -36324,22 +36343,24 @@
         <v>205</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>145</v>
+        <v>694</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="N291" t="s" s="2">
-        <v>898</v>
+        <v>703</v>
       </c>
       <c r="O291" t="s" s="2">
-        <v>314</v>
+        <v>704</v>
       </c>
       <c r="P291" s="2"/>
       <c r="Q291" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R291" s="2"/>
+      <c r="R291" t="s" s="2">
+        <v>705</v>
+      </c>
       <c r="S291" t="s" s="2">
         <v>76</v>
       </c>
@@ -36359,13 +36380,13 @@
         <v>76</v>
       </c>
       <c r="Y291" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z291" t="s" s="2">
-        <v>899</v>
+        <v>76</v>
       </c>
       <c r="AA291" t="s" s="2">
-        <v>900</v>
+        <v>76</v>
       </c>
       <c r="AB291" t="s" s="2">
         <v>76</v>
@@ -36383,7 +36404,7 @@
         <v>76</v>
       </c>
       <c r="AG291" t="s" s="2">
-        <v>896</v>
+        <v>706</v>
       </c>
       <c r="AH291" t="s" s="2">
         <v>77</v>
@@ -36392,7 +36413,7 @@
         <v>83</v>
       </c>
       <c r="AJ291" t="s" s="2">
-        <v>80</v>
+        <v>699</v>
       </c>
       <c r="AK291" t="s" s="2">
         <v>104</v>
@@ -36403,10 +36424,10 @@
         <v>573</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" t="s" s="2">
@@ -36417,7 +36438,7 @@
         <v>77</v>
       </c>
       <c r="H292" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I292" t="s" s="2">
         <v>76</v>
@@ -36426,19 +36447,19 @@
         <v>76</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>902</v>
+        <v>507</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="N292" t="s" s="2">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="O292" t="s" s="2">
-        <v>905</v>
+        <v>349</v>
       </c>
       <c r="P292" s="2"/>
       <c r="Q292" t="s" s="2">
@@ -36488,19 +36509,19 @@
         <v>76</v>
       </c>
       <c r="AG292" t="s" s="2">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="AH292" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI292" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ292" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK292" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
     </row>
     <row r="293">
@@ -36508,10 +36529,10 @@
         <v>573</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" t="s" s="2">
@@ -36522,7 +36543,7 @@
         <v>77</v>
       </c>
       <c r="H293" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I293" t="s" s="2">
         <v>76</v>
@@ -36531,18 +36552,20 @@
         <v>76</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>299</v>
+        <v>898</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="N293" t="s" s="2">
-        <v>908</v>
-      </c>
-      <c r="O293" s="2"/>
+        <v>900</v>
+      </c>
+      <c r="O293" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="P293" s="2"/>
       <c r="Q293" t="s" s="2">
         <v>76</v>
@@ -36591,19 +36614,19 @@
         <v>76</v>
       </c>
       <c r="AG293" t="s" s="2">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="AH293" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI293" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ293" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK293" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
     </row>
     <row r="294">
@@ -36611,10 +36634,10 @@
         <v>573</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" t="s" s="2">
@@ -36625,27 +36648,29 @@
         <v>77</v>
       </c>
       <c r="H294" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I294" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J294" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>84</v>
+        <v>902</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>85</v>
+        <v>903</v>
       </c>
       <c r="N294" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O294" s="2"/>
+        <v>904</v>
+      </c>
+      <c r="O294" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="P294" s="2"/>
       <c r="Q294" t="s" s="2">
         <v>76</v>
@@ -36694,19 +36719,19 @@
         <v>76</v>
       </c>
       <c r="AG294" t="s" s="2">
-        <v>87</v>
+        <v>901</v>
       </c>
       <c r="AH294" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI294" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ294" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK294" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
     </row>
     <row r="295">
@@ -36714,21 +36739,21 @@
         <v>573</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F295" s="2"/>
       <c r="G295" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H295" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I295" t="s" s="2">
         <v>76</v>
@@ -36737,19 +36762,19 @@
         <v>76</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>111</v>
+        <v>906</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>112</v>
+        <v>907</v>
       </c>
       <c r="O295" t="s" s="2">
-        <v>113</v>
+        <v>314</v>
       </c>
       <c r="P295" s="2"/>
       <c r="Q295" t="s" s="2">
@@ -36775,43 +36800,43 @@
         <v>76</v>
       </c>
       <c r="Y295" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="Z295" t="s" s="2">
-        <v>76</v>
+        <v>908</v>
       </c>
       <c r="AA295" t="s" s="2">
-        <v>76</v>
+        <v>909</v>
       </c>
       <c r="AB295" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC295" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD295" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE295" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF295" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG295" t="s" s="2">
-        <v>94</v>
+        <v>905</v>
       </c>
       <c r="AH295" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI295" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ295" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK295" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="296">
@@ -36819,14 +36844,12 @@
         <v>573</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C296" t="s" s="2">
         <v>910</v>
       </c>
-      <c r="D296" t="s" s="2">
-        <v>105</v>
-      </c>
+      <c r="D296" s="2"/>
       <c r="E296" t="s" s="2">
         <v>76</v>
       </c>
@@ -36838,7 +36861,7 @@
         <v>78</v>
       </c>
       <c r="I296" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J296" t="s" s="2">
         <v>76</v>
@@ -36847,15 +36870,17 @@
         <v>76</v>
       </c>
       <c r="L296" t="s" s="2">
+        <v>911</v>
+      </c>
+      <c r="M296" t="s" s="2">
         <v>912</v>
       </c>
-      <c r="M296" t="s" s="2">
+      <c r="N296" t="s" s="2">
         <v>913</v>
       </c>
-      <c r="N296" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O296" s="2"/>
+      <c r="O296" t="s" s="2">
+        <v>914</v>
+      </c>
       <c r="P296" s="2"/>
       <c r="Q296" t="s" s="2">
         <v>76</v>
@@ -36904,7 +36929,7 @@
         <v>76</v>
       </c>
       <c r="AG296" t="s" s="2">
-        <v>94</v>
+        <v>910</v>
       </c>
       <c r="AH296" t="s" s="2">
         <v>77</v>
@@ -36916,7 +36941,7 @@
         <v>80</v>
       </c>
       <c r="AK296" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="297">
@@ -36924,14 +36949,14 @@
         <v>573</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="F297" s="2"/>
       <c r="G297" t="s" s="2">
@@ -36944,26 +36969,22 @@
         <v>76</v>
       </c>
       <c r="J297" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>89</v>
+        <v>299</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>308</v>
+        <v>916</v>
       </c>
       <c r="N297" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O297" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P297" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>917</v>
+      </c>
+      <c r="O297" s="2"/>
+      <c r="P297" s="2"/>
       <c r="Q297" t="s" s="2">
         <v>76</v>
       </c>
@@ -37011,7 +37032,7 @@
         <v>76</v>
       </c>
       <c r="AG297" t="s" s="2">
-        <v>310</v>
+        <v>915</v>
       </c>
       <c r="AH297" t="s" s="2">
         <v>77</v>
@@ -37023,7 +37044,7 @@
         <v>80</v>
       </c>
       <c r="AK297" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="298">
@@ -37031,10 +37052,10 @@
         <v>573</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" t="s" s="2">
@@ -37042,7 +37063,7 @@
       </c>
       <c r="F298" s="2"/>
       <c r="G298" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H298" t="s" s="2">
         <v>83</v>
@@ -37060,14 +37081,12 @@
         <v>84</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>916</v>
+        <v>85</v>
       </c>
       <c r="N298" t="s" s="2">
-        <v>917</v>
-      </c>
-      <c r="O298" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O298" s="2"/>
       <c r="P298" s="2"/>
       <c r="Q298" t="s" s="2">
         <v>76</v>
@@ -37116,19 +37135,19 @@
         <v>76</v>
       </c>
       <c r="AG298" t="s" s="2">
-        <v>915</v>
+        <v>87</v>
       </c>
       <c r="AH298" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI298" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ298" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK298" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="299">
@@ -37136,21 +37155,21 @@
         <v>573</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F299" s="2"/>
       <c r="G299" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H299" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I299" t="s" s="2">
         <v>76</v>
@@ -37162,16 +37181,16 @@
         <v>76</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>919</v>
+        <v>111</v>
       </c>
       <c r="N299" t="s" s="2">
-        <v>920</v>
+        <v>112</v>
       </c>
       <c r="O299" t="s" s="2">
-        <v>314</v>
+        <v>113</v>
       </c>
       <c r="P299" s="2"/>
       <c r="Q299" t="s" s="2">
@@ -37209,31 +37228,31 @@
         <v>76</v>
       </c>
       <c r="AC299" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD299" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE299" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF299" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG299" t="s" s="2">
-        <v>918</v>
+        <v>94</v>
       </c>
       <c r="AH299" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI299" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ299" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK299" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="300">
@@ -37241,12 +37260,14 @@
         <v>573</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>921</v>
-      </c>
-      <c r="D300" s="2"/>
+        <v>919</v>
+      </c>
+      <c r="D300" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="E300" t="s" s="2">
         <v>76</v>
       </c>
@@ -37255,10 +37276,10 @@
         <v>77</v>
       </c>
       <c r="H300" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I300" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J300" t="s" s="2">
         <v>76</v>
@@ -37267,17 +37288,15 @@
         <v>76</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>84</v>
+        <v>921</v>
       </c>
       <c r="M300" t="s" s="2">
         <v>922</v>
       </c>
       <c r="N300" t="s" s="2">
-        <v>923</v>
-      </c>
-      <c r="O300" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O300" s="2"/>
       <c r="P300" s="2"/>
       <c r="Q300" t="s" s="2">
         <v>76</v>
@@ -37326,19 +37345,19 @@
         <v>76</v>
       </c>
       <c r="AG300" t="s" s="2">
-        <v>921</v>
+        <v>94</v>
       </c>
       <c r="AH300" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI300" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ300" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK300" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="301">
@@ -37346,14 +37365,14 @@
         <v>573</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="F301" s="2"/>
       <c r="G301" t="s" s="2">
@@ -37366,22 +37385,26 @@
         <v>76</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>299</v>
+        <v>89</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>925</v>
+        <v>308</v>
       </c>
       <c r="N301" t="s" s="2">
-        <v>926</v>
-      </c>
-      <c r="O301" s="2"/>
-      <c r="P301" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="O301" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="P301" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="Q301" t="s" s="2">
         <v>76</v>
       </c>
@@ -37429,7 +37452,7 @@
         <v>76</v>
       </c>
       <c r="AG301" t="s" s="2">
-        <v>924</v>
+        <v>310</v>
       </c>
       <c r="AH301" t="s" s="2">
         <v>77</v>
@@ -37441,7 +37464,7 @@
         <v>80</v>
       </c>
       <c r="AK301" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="302">
@@ -37449,10 +37472,10 @@
         <v>573</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" t="s" s="2">
@@ -37460,7 +37483,7 @@
       </c>
       <c r="F302" s="2"/>
       <c r="G302" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H302" t="s" s="2">
         <v>83</v>
@@ -37478,12 +37501,14 @@
         <v>84</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>85</v>
+        <v>925</v>
       </c>
       <c r="N302" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O302" s="2"/>
+        <v>926</v>
+      </c>
+      <c r="O302" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="P302" s="2"/>
       <c r="Q302" t="s" s="2">
         <v>76</v>
@@ -37532,19 +37557,19 @@
         <v>76</v>
       </c>
       <c r="AG302" t="s" s="2">
-        <v>87</v>
+        <v>924</v>
       </c>
       <c r="AH302" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI302" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ302" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK302" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="303">
@@ -37552,21 +37577,21 @@
         <v>573</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F303" s="2"/>
       <c r="G303" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H303" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I303" t="s" s="2">
         <v>76</v>
@@ -37578,16 +37603,16 @@
         <v>76</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>111</v>
+        <v>928</v>
       </c>
       <c r="N303" t="s" s="2">
-        <v>112</v>
+        <v>929</v>
       </c>
       <c r="O303" t="s" s="2">
-        <v>113</v>
+        <v>314</v>
       </c>
       <c r="P303" s="2"/>
       <c r="Q303" t="s" s="2">
@@ -37625,31 +37650,31 @@
         <v>76</v>
       </c>
       <c r="AC303" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD303" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE303" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF303" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG303" t="s" s="2">
-        <v>94</v>
+        <v>927</v>
       </c>
       <c r="AH303" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI303" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ303" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK303" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="304">
@@ -37657,46 +37682,44 @@
         <v>573</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C304" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="F304" s="2"/>
       <c r="G304" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H304" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I304" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J304" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>308</v>
+        <v>931</v>
       </c>
       <c r="N304" t="s" s="2">
-        <v>309</v>
+        <v>932</v>
       </c>
       <c r="O304" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P304" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="P304" s="2"/>
       <c r="Q304" t="s" s="2">
         <v>76</v>
       </c>
@@ -37744,19 +37767,19 @@
         <v>76</v>
       </c>
       <c r="AG304" t="s" s="2">
-        <v>310</v>
+        <v>930</v>
       </c>
       <c r="AH304" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI304" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ304" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK304" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="305">
@@ -37764,10 +37787,10 @@
         <v>573</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" t="s" s="2">
@@ -37778,7 +37801,7 @@
         <v>77</v>
       </c>
       <c r="H305" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I305" t="s" s="2">
         <v>76</v>
@@ -37790,17 +37813,15 @@
         <v>76</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>84</v>
+        <v>299</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="N305" t="s" s="2">
-        <v>932</v>
-      </c>
-      <c r="O305" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>935</v>
+      </c>
+      <c r="O305" s="2"/>
       <c r="P305" s="2"/>
       <c r="Q305" t="s" s="2">
         <v>76</v>
@@ -37849,13 +37870,13 @@
         <v>76</v>
       </c>
       <c r="AG305" t="s" s="2">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="AH305" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI305" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ305" t="s" s="2">
         <v>80</v>
@@ -37869,10 +37890,10 @@
         <v>573</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" t="s" s="2">
@@ -37895,17 +37916,15 @@
         <v>76</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="M306" t="s" s="2">
-        <v>934</v>
+        <v>85</v>
       </c>
       <c r="N306" t="s" s="2">
-        <v>935</v>
-      </c>
-      <c r="O306" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O306" s="2"/>
       <c r="P306" s="2"/>
       <c r="Q306" t="s" s="2">
         <v>76</v>
@@ -37930,13 +37949,13 @@
         <v>76</v>
       </c>
       <c r="Y306" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="Z306" t="s" s="2">
-        <v>936</v>
+        <v>76</v>
       </c>
       <c r="AA306" t="s" s="2">
-        <v>937</v>
+        <v>76</v>
       </c>
       <c r="AB306" t="s" s="2">
         <v>76</v>
@@ -37954,7 +37973,7 @@
         <v>76</v>
       </c>
       <c r="AG306" t="s" s="2">
-        <v>933</v>
+        <v>87</v>
       </c>
       <c r="AH306" t="s" s="2">
         <v>77</v>
@@ -37963,25 +37982,25 @@
         <v>83</v>
       </c>
       <c r="AJ306" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK306" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>31</v>
+        <v>937</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>31</v>
+        <v>937</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F307" s="2"/>
       <c r="G307" t="s" s="2">
@@ -38000,15 +38019,17 @@
         <v>76</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="M307" t="s" s="2">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="N307" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="O307" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="O307" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="P307" s="2"/>
       <c r="Q307" t="s" s="2">
         <v>76</v>
@@ -38045,19 +38066,19 @@
         <v>76</v>
       </c>
       <c r="AC307" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD307" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE307" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF307" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG307" t="s" s="2">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="AH307" t="s" s="2">
         <v>77</v>
@@ -38074,45 +38095,49 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>82</v>
+        <v>938</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>82</v>
+        <v>938</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="F308" s="2"/>
       <c r="G308" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H308" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I308" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J308" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>85</v>
+        <v>308</v>
       </c>
       <c r="N308" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O308" s="2"/>
-      <c r="P308" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="O308" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="P308" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="Q308" t="s" s="2">
         <v>76</v>
       </c>
@@ -38160,30 +38185,30 @@
         <v>76</v>
       </c>
       <c r="AG308" t="s" s="2">
-        <v>87</v>
+        <v>310</v>
       </c>
       <c r="AH308" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI308" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ308" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK308" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>88</v>
+        <v>939</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>88</v>
+        <v>939</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" t="s" s="2">
@@ -38194,7 +38219,7 @@
         <v>77</v>
       </c>
       <c r="H309" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I309" t="s" s="2">
         <v>76</v>
@@ -38206,15 +38231,17 @@
         <v>76</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>31</v>
+        <v>940</v>
       </c>
       <c r="N309" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O309" s="2"/>
+        <v>941</v>
+      </c>
+      <c r="O309" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="P309" s="2"/>
       <c r="Q309" t="s" s="2">
         <v>76</v>
@@ -38251,42 +38278,42 @@
         <v>76</v>
       </c>
       <c r="AC309" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD309" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE309" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF309" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG309" t="s" s="2">
-        <v>94</v>
+        <v>939</v>
       </c>
       <c r="AH309" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI309" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ309" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK309" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>95</v>
+        <v>942</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>95</v>
+        <v>942</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" t="s" s="2">
@@ -38294,7 +38321,7 @@
       </c>
       <c r="F310" s="2"/>
       <c r="G310" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H310" t="s" s="2">
         <v>83</v>
@@ -38309,16 +38336,16 @@
         <v>76</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>97</v>
+        <v>943</v>
       </c>
       <c r="N310" t="s" s="2">
-        <v>98</v>
+        <v>944</v>
       </c>
       <c r="O310" t="s" s="2">
-        <v>99</v>
+        <v>314</v>
       </c>
       <c r="P310" s="2"/>
       <c r="Q310" t="s" s="2">
@@ -38326,7 +38353,7 @@
       </c>
       <c r="R310" s="2"/>
       <c r="S310" t="s" s="2">
-        <v>938</v>
+        <v>76</v>
       </c>
       <c r="T310" t="s" s="2">
         <v>76</v>
@@ -38344,13 +38371,13 @@
         <v>76</v>
       </c>
       <c r="Y310" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="Z310" t="s" s="2">
-        <v>76</v>
+        <v>945</v>
       </c>
       <c r="AA310" t="s" s="2">
-        <v>76</v>
+        <v>946</v>
       </c>
       <c r="AB310" t="s" s="2">
         <v>76</v>
@@ -38368,19 +38395,19 @@
         <v>76</v>
       </c>
       <c r="AG310" t="s" s="2">
-        <v>95</v>
+        <v>942</v>
       </c>
       <c r="AH310" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI310" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ310" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK310" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="311">
@@ -38388,10 +38415,10 @@
         <v>591</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
@@ -38402,7 +38429,7 @@
         <v>77</v>
       </c>
       <c r="H311" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I311" t="s" s="2">
         <v>76</v>
@@ -38414,13 +38441,13 @@
         <v>76</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="N311" t="s" s="2">
-        <v>103</v>
+        <v>594</v>
       </c>
       <c r="O311" s="2"/>
       <c r="P311" s="2"/>
@@ -38471,30 +38498,30 @@
         <v>76</v>
       </c>
       <c r="AG311" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="AH311" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI311" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ311" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK311" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>442</v>
+        <v>591</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C312" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" t="s" s="2">
@@ -38505,7 +38532,7 @@
         <v>77</v>
       </c>
       <c r="H312" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I312" t="s" s="2">
         <v>76</v>
@@ -38517,13 +38544,13 @@
         <v>76</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M312" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N312" t="s" s="2">
-        <v>445</v>
+        <v>86</v>
       </c>
       <c r="O312" s="2"/>
       <c r="P312" s="2"/>
@@ -38574,30 +38601,30 @@
         <v>76</v>
       </c>
       <c r="AG312" t="s" s="2">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="AH312" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI312" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ312" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK312" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>442</v>
+        <v>591</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" t="s" s="2">
@@ -38608,7 +38635,7 @@
         <v>77</v>
       </c>
       <c r="H313" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I313" t="s" s="2">
         <v>76</v>
@@ -38620,13 +38647,13 @@
         <v>76</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N313" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O313" s="2"/>
       <c r="P313" s="2"/>
@@ -38665,42 +38692,42 @@
         <v>76</v>
       </c>
       <c r="AC313" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD313" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE313" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF313" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG313" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH313" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI313" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ313" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK313" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>442</v>
+        <v>591</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C314" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" t="s" s="2">
@@ -38708,10 +38735,10 @@
       </c>
       <c r="F314" s="2"/>
       <c r="G314" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H314" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I314" t="s" s="2">
         <v>76</v>
@@ -38723,22 +38750,24 @@
         <v>76</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N314" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O314" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O314" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P314" s="2"/>
       <c r="Q314" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R314" s="2"/>
       <c r="S314" t="s" s="2">
-        <v>76</v>
+        <v>947</v>
       </c>
       <c r="T314" t="s" s="2">
         <v>76</v>
@@ -38768,42 +38797,42 @@
         <v>76</v>
       </c>
       <c r="AC314" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD314" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE314" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF314" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG314" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH314" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI314" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ314" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK314" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>442</v>
+        <v>591</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C315" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" t="s" s="2">
@@ -38811,7 +38840,7 @@
       </c>
       <c r="F315" s="2"/>
       <c r="G315" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H315" t="s" s="2">
         <v>83</v>
@@ -38826,24 +38855,22 @@
         <v>76</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N315" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O315" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="O315" s="2"/>
       <c r="P315" s="2"/>
       <c r="Q315" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R315" s="2"/>
       <c r="S315" t="s" s="2">
-        <v>940</v>
+        <v>76</v>
       </c>
       <c r="T315" t="s" s="2">
         <v>76</v>
@@ -38885,19 +38912,19 @@
         <v>76</v>
       </c>
       <c r="AG315" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AH315" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI315" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ315" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK315" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="316">
@@ -38905,10 +38932,10 @@
         <v>442</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" t="s" s="2">
@@ -38919,7 +38946,7 @@
         <v>77</v>
       </c>
       <c r="H316" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I316" t="s" s="2">
         <v>76</v>
@@ -38931,13 +38958,13 @@
         <v>76</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="N316" t="s" s="2">
-        <v>103</v>
+        <v>445</v>
       </c>
       <c r="O316" s="2"/>
       <c r="P316" s="2"/>
@@ -38988,30 +39015,30 @@
         <v>76</v>
       </c>
       <c r="AG316" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="AH316" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI316" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ316" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK316" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>599</v>
+        <v>442</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" t="s" s="2">
@@ -39022,7 +39049,7 @@
         <v>77</v>
       </c>
       <c r="H317" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I317" t="s" s="2">
         <v>76</v>
@@ -39034,13 +39061,13 @@
         <v>76</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N317" t="s" s="2">
-        <v>602</v>
+        <v>86</v>
       </c>
       <c r="O317" s="2"/>
       <c r="P317" s="2"/>
@@ -39091,30 +39118,30 @@
         <v>76</v>
       </c>
       <c r="AG317" t="s" s="2">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="AH317" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI317" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ317" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK317" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>599</v>
+        <v>442</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" t="s" s="2">
@@ -39125,7 +39152,7 @@
         <v>77</v>
       </c>
       <c r="H318" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I318" t="s" s="2">
         <v>76</v>
@@ -39137,13 +39164,13 @@
         <v>76</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M318" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N318" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O318" s="2"/>
       <c r="P318" s="2"/>
@@ -39182,42 +39209,42 @@
         <v>76</v>
       </c>
       <c r="AC318" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD318" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE318" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF318" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG318" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH318" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI318" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ318" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK318" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>599</v>
+        <v>442</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
@@ -39225,10 +39252,10 @@
       </c>
       <c r="F319" s="2"/>
       <c r="G319" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H319" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I319" t="s" s="2">
         <v>76</v>
@@ -39240,22 +39267,24 @@
         <v>76</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N319" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O319" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O319" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P319" s="2"/>
       <c r="Q319" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R319" s="2"/>
       <c r="S319" t="s" s="2">
-        <v>76</v>
+        <v>949</v>
       </c>
       <c r="T319" t="s" s="2">
         <v>76</v>
@@ -39285,42 +39314,42 @@
         <v>76</v>
       </c>
       <c r="AC319" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD319" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE319" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF319" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG319" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AH319" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI319" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ319" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK319" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>599</v>
+        <v>442</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" t="s" s="2">
@@ -39328,7 +39357,7 @@
       </c>
       <c r="F320" s="2"/>
       <c r="G320" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H320" t="s" s="2">
         <v>83</v>
@@ -39343,24 +39372,22 @@
         <v>76</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="M320" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="N320" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O320" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="O320" s="2"/>
       <c r="P320" s="2"/>
       <c r="Q320" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R320" s="2"/>
       <c r="S320" t="s" s="2">
-        <v>943</v>
+        <v>76</v>
       </c>
       <c r="T320" t="s" s="2">
         <v>76</v>
@@ -39402,19 +39429,19 @@
         <v>76</v>
       </c>
       <c r="AG320" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AH320" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI320" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ320" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK320" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="321">
@@ -39422,10 +39449,10 @@
         <v>599</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" t="s" s="2">
@@ -39436,7 +39463,7 @@
         <v>77</v>
       </c>
       <c r="H321" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I321" t="s" s="2">
         <v>76</v>
@@ -39448,13 +39475,13 @@
         <v>76</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="N321" t="s" s="2">
-        <v>103</v>
+        <v>602</v>
       </c>
       <c r="O321" s="2"/>
       <c r="P321" s="2"/>
@@ -39505,18 +39532,432 @@
         <v>76</v>
       </c>
       <c r="AG321" t="s" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="AH321" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI321" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ321" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK321" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="B322" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C322" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="D322" s="2"/>
+      <c r="E322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F322" s="2"/>
+      <c r="G322" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H322" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L322" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M322" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N322" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="O322" s="2"/>
+      <c r="P322" s="2"/>
+      <c r="Q322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R322" s="2"/>
+      <c r="S322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG322" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH322" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI322" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ322" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK322" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="B323" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C323" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="D323" s="2"/>
+      <c r="E323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F323" s="2"/>
+      <c r="G323" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H323" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L323" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M323" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="N323" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O323" s="2"/>
+      <c r="P323" s="2"/>
+      <c r="Q323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R323" s="2"/>
+      <c r="S323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC323" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AD323" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AE323" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF323" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AG323" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AH323" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI323" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ323" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK323" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="B324" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C324" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D324" s="2"/>
+      <c r="E324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F324" s="2"/>
+      <c r="G324" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H324" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L324" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M324" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N324" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O324" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="P324" s="2"/>
+      <c r="Q324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R324" s="2"/>
+      <c r="S324" t="s" s="2">
+        <v>952</v>
+      </c>
+      <c r="T324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG324" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH324" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI324" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ324" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK324" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="B325" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C325" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D325" s="2"/>
+      <c r="E325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F325" s="2"/>
+      <c r="G325" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H325" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L325" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M325" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N325" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="O325" s="2"/>
+      <c r="P325" s="2"/>
+      <c r="Q325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R325" s="2"/>
+      <c r="S325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF325" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG325" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH325" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI325" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ325" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK325" t="s" s="2">
         <v>104</v>
       </c>
     </row>

--- a/test-exemple/ig/all-profiles.xlsx
+++ b/test-exemple/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11358" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11229" uniqueCount="945">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T09:40:40+00:00</t>
+    <t>2025-07-23T10:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1917,33 +1917,6 @@
   </si>
   <si>
     <t>Cette extension implemente l'élément descriptionSummary de R5. elle permet l'ajout d'un texte bref décrivant l'essai</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension:eclaire-description-summary-r5.id</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension.id</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension:eclaire-description-summary-r5.extension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension.extension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension:eclaire-description-summary-r5.url</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.descriptionSummary</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension:eclaire-description-summary-r5.value[x]</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension.value[x]</t>
   </si>
   <si>
     <t>ResearchStudy.extension:eclaire-outcome-measure-r5</t>
@@ -5452,7 +5425,7 @@
         <v>4</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>947</v>
+        <v>938</v>
       </c>
     </row>
     <row r="309">
@@ -5468,7 +5441,7 @@
         <v>8</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>948</v>
+        <v>939</v>
       </c>
     </row>
     <row r="311">
@@ -5620,7 +5593,7 @@
         <v>4</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>949</v>
+        <v>940</v>
       </c>
     </row>
     <row r="331">
@@ -5636,7 +5609,7 @@
         <v>8</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>950</v>
+        <v>941</v>
       </c>
     </row>
     <row r="333">
@@ -5764,7 +5737,7 @@
         <v>38</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>951</v>
+        <v>942</v>
       </c>
     </row>
     <row r="350">
@@ -5788,7 +5761,7 @@
         <v>4</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>952</v>
+        <v>943</v>
       </c>
     </row>
     <row r="353">
@@ -5804,7 +5777,7 @@
         <v>8</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="355">
@@ -5942,7 +5915,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK325"/>
+  <dimension ref="A1:AK321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5952,7 +5925,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="23.3125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="54.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.9140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="37.0078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="25.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="34.21875" customWidth="true" bestFit="true"/>
@@ -28433,9 +28406,11 @@
         <v>614</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="D216" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="D216" t="s" s="2">
+        <v>547</v>
+      </c>
       <c r="E216" t="s" s="2">
         <v>76</v>
       </c>
@@ -28444,10 +28419,10 @@
         <v>77</v>
       </c>
       <c r="H216" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I216" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J216" t="s" s="2">
         <v>76</v>
@@ -28456,13 +28431,13 @@
         <v>76</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>84</v>
+        <v>615</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>85</v>
+        <v>616</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>86</v>
+        <v>617</v>
       </c>
       <c r="O216" s="2"/>
       <c r="P216" s="2"/>
@@ -28513,19 +28488,19 @@
         <v>76</v>
       </c>
       <c r="AG216" t="s" s="2">
-        <v>87</v>
+        <v>246</v>
       </c>
       <c r="AH216" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI216" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ216" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK216" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="217">
@@ -28533,12 +28508,14 @@
         <v>573</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="D217" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="D217" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="E217" t="s" s="2">
         <v>76</v>
       </c>
@@ -28547,10 +28524,10 @@
         <v>77</v>
       </c>
       <c r="H217" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I217" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J217" t="s" s="2">
         <v>76</v>
@@ -28559,13 +28536,13 @@
         <v>76</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>89</v>
+        <v>619</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>31</v>
+        <v>620</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>90</v>
+        <v>621</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" s="2"/>
@@ -28604,19 +28581,19 @@
         <v>76</v>
       </c>
       <c r="AC217" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD217" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE217" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG217" t="s" s="2">
-        <v>94</v>
+        <v>246</v>
       </c>
       <c r="AH217" t="s" s="2">
         <v>77</v>
@@ -28636,24 +28613,26 @@
         <v>573</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="D218" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="D218" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="E218" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F218" s="2"/>
       <c r="G218" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H218" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I218" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J218" t="s" s="2">
         <v>76</v>
@@ -28662,24 +28641,22 @@
         <v>76</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>96</v>
+        <v>623</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>97</v>
+        <v>624</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O218" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="O218" s="2"/>
       <c r="P218" s="2"/>
       <c r="Q218" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R218" s="2"/>
       <c r="S218" t="s" s="2">
-        <v>620</v>
+        <v>76</v>
       </c>
       <c r="T218" t="s" s="2">
         <v>76</v>
@@ -28721,19 +28698,19 @@
         <v>76</v>
       </c>
       <c r="AG218" t="s" s="2">
-        <v>95</v>
+        <v>246</v>
       </c>
       <c r="AH218" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI218" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="219">
@@ -28741,42 +28718,46 @@
         <v>573</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H219" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I219" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K219" t="s" s="2">
         <v>76</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>555</v>
+        <v>89</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O219" s="2"/>
-      <c r="P219" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="O219" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="P219" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="Q219" t="s" s="2">
         <v>76</v>
       </c>
@@ -28812,31 +28793,31 @@
         <v>76</v>
       </c>
       <c r="AC219" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD219" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE219" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>100</v>
+        <v>251</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ219" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="220">
@@ -28844,14 +28825,12 @@
         <v>573</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="D220" t="s" s="2">
-        <v>547</v>
-      </c>
+        <v>627</v>
+      </c>
+      <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
         <v>76</v>
       </c>
@@ -28863,25 +28842,27 @@
         <v>78</v>
       </c>
       <c r="I220" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J220" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K220" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="J220" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K220" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L220" t="s" s="2">
-        <v>624</v>
+        <v>253</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="O220" s="2"/>
-      <c r="P220" s="2"/>
+      <c r="P220" t="s" s="2">
+        <v>630</v>
+      </c>
       <c r="Q220" t="s" s="2">
         <v>76</v>
       </c>
@@ -28917,19 +28898,19 @@
         <v>76</v>
       </c>
       <c r="AC220" t="s" s="2">
-        <v>76</v>
+        <v>631</v>
       </c>
       <c r="AD220" t="s" s="2">
-        <v>76</v>
+        <v>632</v>
       </c>
       <c r="AE220" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG220" t="s" s="2">
-        <v>246</v>
+        <v>627</v>
       </c>
       <c r="AH220" t="s" s="2">
         <v>77</v>
@@ -28941,7 +28922,7 @@
         <v>80</v>
       </c>
       <c r="AK220" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="221">
@@ -28949,13 +28930,13 @@
         <v>573</v>
       </c>
       <c r="B221" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="C221" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="C221" t="s" s="2">
-        <v>589</v>
-      </c>
       <c r="D221" t="s" s="2">
-        <v>133</v>
+        <v>634</v>
       </c>
       <c r="E221" t="s" s="2">
         <v>76</v>
@@ -28965,7 +28946,7 @@
         <v>77</v>
       </c>
       <c r="H221" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I221" t="s" s="2">
         <v>205</v>
@@ -28974,19 +28955,21 @@
         <v>76</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>628</v>
+        <v>253</v>
       </c>
       <c r="M221" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="N221" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="N221" t="s" s="2">
+      <c r="O221" s="2"/>
+      <c r="P221" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="O221" s="2"/>
-      <c r="P221" s="2"/>
       <c r="Q221" t="s" s="2">
         <v>76</v>
       </c>
@@ -29034,7 +29017,7 @@
         <v>76</v>
       </c>
       <c r="AG221" t="s" s="2">
-        <v>246</v>
+        <v>627</v>
       </c>
       <c r="AH221" t="s" s="2">
         <v>77</v>
@@ -29046,7 +29029,7 @@
         <v>80</v>
       </c>
       <c r="AK221" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="222">
@@ -29054,14 +29037,12 @@
         <v>573</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="D222" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
         <v>76</v>
       </c>
@@ -29070,10 +29051,10 @@
         <v>77</v>
       </c>
       <c r="H222" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I222" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J222" t="s" s="2">
         <v>76</v>
@@ -29082,13 +29063,13 @@
         <v>76</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>632</v>
+        <v>84</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>633</v>
+        <v>85</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>634</v>
+        <v>86</v>
       </c>
       <c r="O222" s="2"/>
       <c r="P222" s="2"/>
@@ -29139,19 +29120,19 @@
         <v>76</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>246</v>
+        <v>87</v>
       </c>
       <c r="AH222" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI222" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK222" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="223">
@@ -29159,10 +29140,10 @@
         <v>573</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
@@ -29179,7 +29160,7 @@
         <v>76</v>
       </c>
       <c r="J223" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K223" t="s" s="2">
         <v>76</v>
@@ -29188,17 +29169,15 @@
         <v>89</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>248</v>
+        <v>111</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>249</v>
+        <v>112</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="P223" t="s" s="2">
-        <v>250</v>
-      </c>
+      <c r="P223" s="2"/>
       <c r="Q223" t="s" s="2">
         <v>76</v>
       </c>
@@ -29246,7 +29225,7 @@
         <v>93</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>251</v>
+        <v>94</v>
       </c>
       <c r="AH223" t="s" s="2">
         <v>77</v>
@@ -29266,10 +29245,10 @@
         <v>573</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
@@ -29277,32 +29256,34 @@
       </c>
       <c r="F224" s="2"/>
       <c r="G224" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H224" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I224" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J224" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K224" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="O224" s="2"/>
+        <v>643</v>
+      </c>
+      <c r="O224" t="s" s="2">
+        <v>644</v>
+      </c>
       <c r="P224" t="s" s="2">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="Q224" t="s" s="2">
         <v>76</v>
@@ -29312,7 +29293,7 @@
         <v>76</v>
       </c>
       <c r="T224" t="s" s="2">
-        <v>76</v>
+        <v>646</v>
       </c>
       <c r="U224" t="s" s="2">
         <v>76</v>
@@ -29327,37 +29308,37 @@
         <v>76</v>
       </c>
       <c r="Y224" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="Z224" t="s" s="2">
-        <v>76</v>
+        <v>647</v>
       </c>
       <c r="AA224" t="s" s="2">
-        <v>76</v>
+        <v>648</v>
       </c>
       <c r="AB224" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC224" t="s" s="2">
-        <v>640</v>
+        <v>76</v>
       </c>
       <c r="AD224" t="s" s="2">
-        <v>641</v>
+        <v>76</v>
       </c>
       <c r="AE224" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG224" t="s" s="2">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI224" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ224" t="s" s="2">
         <v>80</v>
@@ -29371,14 +29352,12 @@
         <v>573</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="D225" t="s" s="2">
-        <v>643</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="D225" s="2"/>
       <c r="E225" t="s" s="2">
         <v>76</v>
       </c>
@@ -29390,7 +29369,7 @@
         <v>83</v>
       </c>
       <c r="I225" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J225" t="s" s="2">
         <v>76</v>
@@ -29399,17 +29378,19 @@
         <v>205</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>253</v>
+        <v>145</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="O225" s="2"/>
+        <v>653</v>
+      </c>
+      <c r="O225" t="s" s="2">
+        <v>654</v>
+      </c>
       <c r="P225" t="s" s="2">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="Q225" t="s" s="2">
         <v>76</v>
@@ -29434,13 +29415,13 @@
         <v>76</v>
       </c>
       <c r="Y225" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="Z225" t="s" s="2">
-        <v>76</v>
+        <v>656</v>
       </c>
       <c r="AA225" t="s" s="2">
-        <v>76</v>
+        <v>657</v>
       </c>
       <c r="AB225" t="s" s="2">
         <v>76</v>
@@ -29458,13 +29439,13 @@
         <v>76</v>
       </c>
       <c r="AG225" t="s" s="2">
-        <v>636</v>
+        <v>658</v>
       </c>
       <c r="AH225" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI225" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ225" t="s" s="2">
         <v>80</v>
@@ -29478,10 +29459,10 @@
         <v>573</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
@@ -29501,19 +29482,23 @@
         <v>76</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>85</v>
+        <v>661</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O226" s="2"/>
-      <c r="P226" s="2"/>
+        <v>662</v>
+      </c>
+      <c r="O226" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="P226" t="s" s="2">
+        <v>664</v>
+      </c>
       <c r="Q226" t="s" s="2">
         <v>76</v>
       </c>
@@ -29525,7 +29510,7 @@
         <v>76</v>
       </c>
       <c r="U226" t="s" s="2">
-        <v>76</v>
+        <v>665</v>
       </c>
       <c r="V226" t="s" s="2">
         <v>76</v>
@@ -29561,7 +29546,7 @@
         <v>76</v>
       </c>
       <c r="AG226" t="s" s="2">
-        <v>87</v>
+        <v>666</v>
       </c>
       <c r="AH226" t="s" s="2">
         <v>77</v>
@@ -29570,10 +29555,10 @@
         <v>83</v>
       </c>
       <c r="AJ226" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK226" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="227">
@@ -29581,21 +29566,21 @@
         <v>573</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>647</v>
+        <v>667</v>
       </c>
       <c r="C227" t="s" s="2">
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F227" s="2"/>
       <c r="G227" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H227" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I227" t="s" s="2">
         <v>76</v>
@@ -29604,19 +29589,19 @@
         <v>76</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>111</v>
+        <v>669</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>112</v>
+        <v>670</v>
       </c>
       <c r="O227" t="s" s="2">
-        <v>113</v>
+        <v>671</v>
       </c>
       <c r="P227" s="2"/>
       <c r="Q227" t="s" s="2">
@@ -29630,7 +29615,7 @@
         <v>76</v>
       </c>
       <c r="U227" t="s" s="2">
-        <v>76</v>
+        <v>672</v>
       </c>
       <c r="V227" t="s" s="2">
         <v>76</v>
@@ -29654,31 +29639,31 @@
         <v>76</v>
       </c>
       <c r="AC227" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD227" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE227" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>94</v>
+        <v>673</v>
       </c>
       <c r="AH227" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI227" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ227" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK227" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="228">
@@ -29686,10 +29671,10 @@
         <v>573</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>649</v>
+        <v>674</v>
       </c>
       <c r="C228" t="s" s="2">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" t="s" s="2">
@@ -29697,7 +29682,7 @@
       </c>
       <c r="F228" s="2"/>
       <c r="G228" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H228" t="s" s="2">
         <v>83</v>
@@ -29706,26 +29691,24 @@
         <v>76</v>
       </c>
       <c r="J228" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K228" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>651</v>
+        <v>676</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>652</v>
+        <v>677</v>
       </c>
       <c r="O228" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="P228" t="s" s="2">
-        <v>654</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="P228" s="2"/>
       <c r="Q228" t="s" s="2">
         <v>76</v>
       </c>
@@ -29734,7 +29717,7 @@
         <v>76</v>
       </c>
       <c r="T228" t="s" s="2">
-        <v>655</v>
+        <v>76</v>
       </c>
       <c r="U228" t="s" s="2">
         <v>76</v>
@@ -29749,13 +29732,13 @@
         <v>76</v>
       </c>
       <c r="Y228" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Z228" t="s" s="2">
-        <v>656</v>
+        <v>76</v>
       </c>
       <c r="AA228" t="s" s="2">
-        <v>657</v>
+        <v>76</v>
       </c>
       <c r="AB228" t="s" s="2">
         <v>76</v>
@@ -29773,7 +29756,7 @@
         <v>76</v>
       </c>
       <c r="AG228" t="s" s="2">
-        <v>658</v>
+        <v>678</v>
       </c>
       <c r="AH228" t="s" s="2">
         <v>77</v>
@@ -29785,7 +29768,7 @@
         <v>80</v>
       </c>
       <c r="AK228" t="s" s="2">
-        <v>104</v>
+        <v>337</v>
       </c>
     </row>
     <row r="229">
@@ -29793,10 +29776,10 @@
         <v>573</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>659</v>
+        <v>679</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
@@ -29816,23 +29799,19 @@
         <v>76</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>661</v>
+        <v>85</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="O229" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="P229" t="s" s="2">
-        <v>664</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O229" s="2"/>
+      <c r="P229" s="2"/>
       <c r="Q229" t="s" s="2">
         <v>76</v>
       </c>
@@ -29856,13 +29835,13 @@
         <v>76</v>
       </c>
       <c r="Y229" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="Z229" t="s" s="2">
-        <v>665</v>
+        <v>76</v>
       </c>
       <c r="AA229" t="s" s="2">
-        <v>666</v>
+        <v>76</v>
       </c>
       <c r="AB229" t="s" s="2">
         <v>76</v>
@@ -29880,7 +29859,7 @@
         <v>76</v>
       </c>
       <c r="AG229" t="s" s="2">
-        <v>667</v>
+        <v>87</v>
       </c>
       <c r="AH229" t="s" s="2">
         <v>77</v>
@@ -29889,10 +29868,10 @@
         <v>83</v>
       </c>
       <c r="AJ229" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK229" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="230">
@@ -29900,21 +29879,21 @@
         <v>573</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F230" s="2"/>
       <c r="G230" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H230" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I230" t="s" s="2">
         <v>76</v>
@@ -29923,23 +29902,21 @@
         <v>76</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>670</v>
+        <v>111</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>671</v>
+        <v>112</v>
       </c>
       <c r="O230" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="P230" t="s" s="2">
-        <v>673</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P230" s="2"/>
       <c r="Q230" t="s" s="2">
         <v>76</v>
       </c>
@@ -29951,7 +29928,7 @@
         <v>76</v>
       </c>
       <c r="U230" t="s" s="2">
-        <v>674</v>
+        <v>76</v>
       </c>
       <c r="V230" t="s" s="2">
         <v>76</v>
@@ -29975,31 +29952,31 @@
         <v>76</v>
       </c>
       <c r="AC230" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD230" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE230" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG230" t="s" s="2">
-        <v>675</v>
+        <v>94</v>
       </c>
       <c r="AH230" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI230" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ230" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK230" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="231">
@@ -30007,10 +29984,10 @@
         <v>573</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
@@ -30033,16 +30010,16 @@
         <v>205</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>84</v>
+        <v>685</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="O231" t="s" s="2">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="P231" s="2"/>
       <c r="Q231" t="s" s="2">
@@ -30056,7 +30033,7 @@
         <v>76</v>
       </c>
       <c r="U231" t="s" s="2">
-        <v>681</v>
+        <v>76</v>
       </c>
       <c r="V231" t="s" s="2">
         <v>76</v>
@@ -30092,7 +30069,7 @@
         <v>76</v>
       </c>
       <c r="AG231" t="s" s="2">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="AH231" t="s" s="2">
         <v>77</v>
@@ -30101,7 +30078,7 @@
         <v>83</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>80</v>
+        <v>690</v>
       </c>
       <c r="AK231" t="s" s="2">
         <v>104</v>
@@ -30112,10 +30089,10 @@
         <v>573</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="C232" t="s" s="2">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
@@ -30138,22 +30115,24 @@
         <v>205</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>155</v>
+        <v>685</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="O232" t="s" s="2">
-        <v>336</v>
+        <v>695</v>
       </c>
       <c r="P232" s="2"/>
       <c r="Q232" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R232" s="2"/>
+      <c r="R232" t="s" s="2">
+        <v>696</v>
+      </c>
       <c r="S232" t="s" s="2">
         <v>76</v>
       </c>
@@ -30197,7 +30176,7 @@
         <v>76</v>
       </c>
       <c r="AG232" t="s" s="2">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="AH232" t="s" s="2">
         <v>77</v>
@@ -30206,10 +30185,10 @@
         <v>83</v>
       </c>
       <c r="AJ232" t="s" s="2">
-        <v>80</v>
+        <v>690</v>
       </c>
       <c r="AK232" t="s" s="2">
-        <v>337</v>
+        <v>104</v>
       </c>
     </row>
     <row r="233">
@@ -30217,10 +30196,10 @@
         <v>573</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" t="s" s="2">
@@ -30240,18 +30219,20 @@
         <v>76</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>84</v>
+        <v>507</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>85</v>
+        <v>700</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O233" s="2"/>
+        <v>701</v>
+      </c>
+      <c r="O233" t="s" s="2">
+        <v>702</v>
+      </c>
       <c r="P233" s="2"/>
       <c r="Q233" t="s" s="2">
         <v>76</v>
@@ -30300,7 +30281,7 @@
         <v>76</v>
       </c>
       <c r="AG233" t="s" s="2">
-        <v>87</v>
+        <v>703</v>
       </c>
       <c r="AH233" t="s" s="2">
         <v>77</v>
@@ -30309,10 +30290,10 @@
         <v>83</v>
       </c>
       <c r="AJ233" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK233" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
     </row>
     <row r="234">
@@ -30320,14 +30301,16 @@
         <v>573</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>690</v>
+        <v>704</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="D234" s="2"/>
+        <v>627</v>
+      </c>
+      <c r="D234" t="s" s="2">
+        <v>705</v>
+      </c>
       <c r="E234" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F234" s="2"/>
       <c r="G234" t="s" s="2">
@@ -30337,27 +30320,27 @@
         <v>78</v>
       </c>
       <c r="I234" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J234" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>89</v>
+        <v>253</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>111</v>
+        <v>706</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O234" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P234" s="2"/>
+        <v>629</v>
+      </c>
+      <c r="O234" s="2"/>
+      <c r="P234" t="s" s="2">
+        <v>630</v>
+      </c>
       <c r="Q234" t="s" s="2">
         <v>76</v>
       </c>
@@ -30393,19 +30376,19 @@
         <v>76</v>
       </c>
       <c r="AC234" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD234" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE234" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG234" t="s" s="2">
-        <v>94</v>
+        <v>627</v>
       </c>
       <c r="AH234" t="s" s="2">
         <v>77</v>
@@ -30417,7 +30400,7 @@
         <v>80</v>
       </c>
       <c r="AK234" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="235">
@@ -30425,10 +30408,10 @@
         <v>573</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>693</v>
+        <v>637</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
@@ -30448,20 +30431,18 @@
         <v>76</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>694</v>
+        <v>84</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>695</v>
+        <v>85</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="O235" t="s" s="2">
-        <v>697</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O235" s="2"/>
       <c r="P235" s="2"/>
       <c r="Q235" t="s" s="2">
         <v>76</v>
@@ -30510,7 +30491,7 @@
         <v>76</v>
       </c>
       <c r="AG235" t="s" s="2">
-        <v>698</v>
+        <v>87</v>
       </c>
       <c r="AH235" t="s" s="2">
         <v>77</v>
@@ -30519,10 +30500,10 @@
         <v>83</v>
       </c>
       <c r="AJ235" t="s" s="2">
-        <v>699</v>
+        <v>76</v>
       </c>
       <c r="AK235" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="236">
@@ -30530,21 +30511,21 @@
         <v>573</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>701</v>
+        <v>639</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F236" s="2"/>
       <c r="G236" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H236" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I236" t="s" s="2">
         <v>76</v>
@@ -30553,27 +30534,25 @@
         <v>76</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>694</v>
+        <v>89</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>702</v>
+        <v>111</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>703</v>
+        <v>112</v>
       </c>
       <c r="O236" t="s" s="2">
-        <v>704</v>
+        <v>113</v>
       </c>
       <c r="P236" s="2"/>
       <c r="Q236" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R236" t="s" s="2">
-        <v>705</v>
-      </c>
+      <c r="R236" s="2"/>
       <c r="S236" t="s" s="2">
         <v>76</v>
       </c>
@@ -30605,31 +30584,31 @@
         <v>76</v>
       </c>
       <c r="AC236" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD236" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE236" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG236" t="s" s="2">
-        <v>706</v>
+        <v>94</v>
       </c>
       <c r="AH236" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI236" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ236" t="s" s="2">
-        <v>699</v>
+        <v>80</v>
       </c>
       <c r="AK236" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="237">
@@ -30637,10 +30616,10 @@
         <v>573</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>708</v>
+        <v>641</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
@@ -30648,7 +30627,7 @@
       </c>
       <c r="F237" s="2"/>
       <c r="G237" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H237" t="s" s="2">
         <v>83</v>
@@ -30657,24 +30636,26 @@
         <v>76</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K237" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>507</v>
+        <v>222</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>709</v>
+        <v>642</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>710</v>
+        <v>643</v>
       </c>
       <c r="O237" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="P237" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="P237" t="s" s="2">
+        <v>645</v>
+      </c>
       <c r="Q237" t="s" s="2">
         <v>76</v>
       </c>
@@ -30683,7 +30664,7 @@
         <v>76</v>
       </c>
       <c r="T237" t="s" s="2">
-        <v>76</v>
+        <v>710</v>
       </c>
       <c r="U237" t="s" s="2">
         <v>76</v>
@@ -30698,13 +30679,13 @@
         <v>76</v>
       </c>
       <c r="Y237" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="Z237" t="s" s="2">
-        <v>76</v>
+        <v>647</v>
       </c>
       <c r="AA237" t="s" s="2">
-        <v>76</v>
+        <v>648</v>
       </c>
       <c r="AB237" t="s" s="2">
         <v>76</v>
@@ -30722,7 +30703,7 @@
         <v>76</v>
       </c>
       <c r="AG237" t="s" s="2">
-        <v>712</v>
+        <v>649</v>
       </c>
       <c r="AH237" t="s" s="2">
         <v>77</v>
@@ -30734,7 +30715,7 @@
         <v>80</v>
       </c>
       <c r="AK237" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="238">
@@ -30742,14 +30723,12 @@
         <v>573</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="D238" t="s" s="2">
-        <v>714</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="D238" s="2"/>
       <c r="E238" t="s" s="2">
         <v>76</v>
       </c>
@@ -30758,10 +30737,10 @@
         <v>77</v>
       </c>
       <c r="H238" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I238" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J238" t="s" s="2">
         <v>76</v>
@@ -30770,17 +30749,19 @@
         <v>205</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>253</v>
+        <v>145</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>715</v>
+        <v>652</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="O238" s="2"/>
+        <v>653</v>
+      </c>
+      <c r="O238" t="s" s="2">
+        <v>654</v>
+      </c>
       <c r="P238" t="s" s="2">
-        <v>639</v>
+        <v>655</v>
       </c>
       <c r="Q238" t="s" s="2">
         <v>76</v>
@@ -30805,13 +30786,13 @@
         <v>76</v>
       </c>
       <c r="Y238" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="Z238" t="s" s="2">
-        <v>76</v>
+        <v>656</v>
       </c>
       <c r="AA238" t="s" s="2">
-        <v>76</v>
+        <v>657</v>
       </c>
       <c r="AB238" t="s" s="2">
         <v>76</v>
@@ -30829,13 +30810,13 @@
         <v>76</v>
       </c>
       <c r="AG238" t="s" s="2">
-        <v>636</v>
+        <v>658</v>
       </c>
       <c r="AH238" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI238" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ238" t="s" s="2">
         <v>80</v>
@@ -30849,10 +30830,10 @@
         <v>573</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" t="s" s="2">
@@ -30872,19 +30853,23 @@
         <v>76</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>85</v>
+        <v>661</v>
       </c>
       <c r="N239" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O239" s="2"/>
-      <c r="P239" s="2"/>
+        <v>662</v>
+      </c>
+      <c r="O239" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="P239" t="s" s="2">
+        <v>664</v>
+      </c>
       <c r="Q239" t="s" s="2">
         <v>76</v>
       </c>
@@ -30896,7 +30881,7 @@
         <v>76</v>
       </c>
       <c r="U239" t="s" s="2">
-        <v>76</v>
+        <v>665</v>
       </c>
       <c r="V239" t="s" s="2">
         <v>76</v>
@@ -30932,7 +30917,7 @@
         <v>76</v>
       </c>
       <c r="AG239" t="s" s="2">
-        <v>87</v>
+        <v>666</v>
       </c>
       <c r="AH239" t="s" s="2">
         <v>77</v>
@@ -30941,10 +30926,10 @@
         <v>83</v>
       </c>
       <c r="AJ239" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK239" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="240">
@@ -30952,21 +30937,21 @@
         <v>573</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F240" s="2"/>
       <c r="G240" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H240" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I240" t="s" s="2">
         <v>76</v>
@@ -30975,19 +30960,19 @@
         <v>76</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>111</v>
+        <v>669</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>112</v>
+        <v>670</v>
       </c>
       <c r="O240" t="s" s="2">
-        <v>113</v>
+        <v>671</v>
       </c>
       <c r="P240" s="2"/>
       <c r="Q240" t="s" s="2">
@@ -31001,7 +30986,7 @@
         <v>76</v>
       </c>
       <c r="U240" t="s" s="2">
-        <v>76</v>
+        <v>672</v>
       </c>
       <c r="V240" t="s" s="2">
         <v>76</v>
@@ -31025,31 +31010,31 @@
         <v>76</v>
       </c>
       <c r="AC240" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD240" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE240" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG240" t="s" s="2">
-        <v>94</v>
+        <v>673</v>
       </c>
       <c r="AH240" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI240" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ240" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK240" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="241">
@@ -31057,10 +31042,10 @@
         <v>573</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" t="s" s="2">
@@ -31068,7 +31053,7 @@
       </c>
       <c r="F241" s="2"/>
       <c r="G241" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H241" t="s" s="2">
         <v>83</v>
@@ -31077,26 +31062,24 @@
         <v>76</v>
       </c>
       <c r="J241" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K241" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>651</v>
+        <v>676</v>
       </c>
       <c r="N241" t="s" s="2">
-        <v>652</v>
+        <v>677</v>
       </c>
       <c r="O241" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="P241" t="s" s="2">
-        <v>654</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="P241" s="2"/>
       <c r="Q241" t="s" s="2">
         <v>76</v>
       </c>
@@ -31105,7 +31088,7 @@
         <v>76</v>
       </c>
       <c r="T241" t="s" s="2">
-        <v>719</v>
+        <v>76</v>
       </c>
       <c r="U241" t="s" s="2">
         <v>76</v>
@@ -31120,13 +31103,13 @@
         <v>76</v>
       </c>
       <c r="Y241" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="Z241" t="s" s="2">
-        <v>656</v>
+        <v>76</v>
       </c>
       <c r="AA241" t="s" s="2">
-        <v>657</v>
+        <v>76</v>
       </c>
       <c r="AB241" t="s" s="2">
         <v>76</v>
@@ -31144,7 +31127,7 @@
         <v>76</v>
       </c>
       <c r="AG241" t="s" s="2">
-        <v>658</v>
+        <v>678</v>
       </c>
       <c r="AH241" t="s" s="2">
         <v>77</v>
@@ -31156,7 +31139,7 @@
         <v>80</v>
       </c>
       <c r="AK241" t="s" s="2">
-        <v>104</v>
+        <v>337</v>
       </c>
     </row>
     <row r="242">
@@ -31164,10 +31147,10 @@
         <v>573</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>660</v>
+        <v>699</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" t="s" s="2">
@@ -31190,20 +31173,18 @@
         <v>205</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>145</v>
+        <v>507</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>661</v>
+        <v>700</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>662</v>
+        <v>701</v>
       </c>
       <c r="O242" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="P242" t="s" s="2">
-        <v>664</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="P242" s="2"/>
       <c r="Q242" t="s" s="2">
         <v>76</v>
       </c>
@@ -31227,13 +31208,13 @@
         <v>76</v>
       </c>
       <c r="Y242" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="Z242" t="s" s="2">
-        <v>665</v>
+        <v>76</v>
       </c>
       <c r="AA242" t="s" s="2">
-        <v>666</v>
+        <v>76</v>
       </c>
       <c r="AB242" t="s" s="2">
         <v>76</v>
@@ -31251,7 +31232,7 @@
         <v>76</v>
       </c>
       <c r="AG242" t="s" s="2">
-        <v>667</v>
+        <v>703</v>
       </c>
       <c r="AH242" t="s" s="2">
         <v>77</v>
@@ -31263,7 +31244,7 @@
         <v>80</v>
       </c>
       <c r="AK242" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
     </row>
     <row r="243">
@@ -31271,10 +31252,10 @@
         <v>573</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>669</v>
+        <v>716</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" t="s" s="2">
@@ -31288,7 +31269,7 @@
         <v>83</v>
       </c>
       <c r="I243" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J243" t="s" s="2">
         <v>76</v>
@@ -31297,20 +31278,18 @@
         <v>205</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>670</v>
+        <v>717</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>671</v>
+        <v>718</v>
       </c>
       <c r="O243" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="P243" t="s" s="2">
-        <v>673</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="P243" s="2"/>
       <c r="Q243" t="s" s="2">
         <v>76</v>
       </c>
@@ -31322,7 +31301,7 @@
         <v>76</v>
       </c>
       <c r="U243" t="s" s="2">
-        <v>674</v>
+        <v>76</v>
       </c>
       <c r="V243" t="s" s="2">
         <v>76</v>
@@ -31358,7 +31337,7 @@
         <v>76</v>
       </c>
       <c r="AG243" t="s" s="2">
-        <v>675</v>
+        <v>716</v>
       </c>
       <c r="AH243" t="s" s="2">
         <v>77</v>
@@ -31378,10 +31357,10 @@
         <v>573</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>677</v>
+        <v>719</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" t="s" s="2">
@@ -31392,7 +31371,7 @@
         <v>77</v>
       </c>
       <c r="H244" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I244" t="s" s="2">
         <v>76</v>
@@ -31404,16 +31383,16 @@
         <v>205</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>84</v>
+        <v>720</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>678</v>
+        <v>721</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>679</v>
+        <v>722</v>
       </c>
       <c r="O244" t="s" s="2">
-        <v>680</v>
+        <v>349</v>
       </c>
       <c r="P244" s="2"/>
       <c r="Q244" t="s" s="2">
@@ -31427,7 +31406,7 @@
         <v>76</v>
       </c>
       <c r="U244" t="s" s="2">
-        <v>681</v>
+        <v>76</v>
       </c>
       <c r="V244" t="s" s="2">
         <v>76</v>
@@ -31463,19 +31442,19 @@
         <v>76</v>
       </c>
       <c r="AG244" t="s" s="2">
-        <v>682</v>
+        <v>719</v>
       </c>
       <c r="AH244" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI244" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ244" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK244" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
     </row>
     <row r="245">
@@ -31486,18 +31465,18 @@
         <v>723</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>684</v>
+        <v>723</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" t="s" s="2">
-        <v>76</v>
+        <v>724</v>
       </c>
       <c r="F245" s="2"/>
       <c r="G245" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H245" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I245" t="s" s="2">
         <v>76</v>
@@ -31509,18 +31488,20 @@
         <v>205</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>155</v>
+        <v>725</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>685</v>
+        <v>726</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>686</v>
+        <v>727</v>
       </c>
       <c r="O245" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="P245" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="P245" t="s" s="2">
+        <v>728</v>
+      </c>
       <c r="Q245" t="s" s="2">
         <v>76</v>
       </c>
@@ -31568,19 +31549,19 @@
         <v>76</v>
       </c>
       <c r="AG245" t="s" s="2">
-        <v>687</v>
+        <v>723</v>
       </c>
       <c r="AH245" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI245" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ245" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK245" t="s" s="2">
-        <v>337</v>
+        <v>297</v>
       </c>
     </row>
     <row r="246">
@@ -31588,10 +31569,10 @@
         <v>573</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>708</v>
+        <v>729</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" t="s" s="2">
@@ -31599,31 +31580,31 @@
       </c>
       <c r="F246" s="2"/>
       <c r="G246" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H246" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I246" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J246" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K246" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>507</v>
+        <v>222</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>709</v>
+        <v>730</v>
       </c>
       <c r="N246" t="s" s="2">
-        <v>710</v>
+        <v>731</v>
       </c>
       <c r="O246" t="s" s="2">
-        <v>711</v>
+        <v>284</v>
       </c>
       <c r="P246" s="2"/>
       <c r="Q246" t="s" s="2">
@@ -31649,13 +31630,13 @@
         <v>76</v>
       </c>
       <c r="Y246" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="Z246" t="s" s="2">
-        <v>76</v>
+        <v>732</v>
       </c>
       <c r="AA246" t="s" s="2">
-        <v>76</v>
+        <v>733</v>
       </c>
       <c r="AB246" t="s" s="2">
         <v>76</v>
@@ -31673,10 +31654,10 @@
         <v>76</v>
       </c>
       <c r="AG246" t="s" s="2">
-        <v>712</v>
+        <v>729</v>
       </c>
       <c r="AH246" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI246" t="s" s="2">
         <v>83</v>
@@ -31685,7 +31666,7 @@
         <v>80</v>
       </c>
       <c r="AK246" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="247">
@@ -31693,10 +31674,10 @@
         <v>573</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="C247" t="s" s="2">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
@@ -31719,16 +31700,16 @@
         <v>205</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="O247" t="s" s="2">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="P247" s="2"/>
       <c r="Q247" t="s" s="2">
@@ -31754,13 +31735,13 @@
         <v>76</v>
       </c>
       <c r="Y247" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="Z247" t="s" s="2">
-        <v>76</v>
+        <v>737</v>
       </c>
       <c r="AA247" t="s" s="2">
-        <v>76</v>
+        <v>738</v>
       </c>
       <c r="AB247" t="s" s="2">
         <v>76</v>
@@ -31778,7 +31759,7 @@
         <v>76</v>
       </c>
       <c r="AG247" t="s" s="2">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="AH247" t="s" s="2">
         <v>77</v>
@@ -31798,10 +31779,10 @@
         <v>573</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>728</v>
+        <v>739</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>728</v>
+        <v>739</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
@@ -31812,10 +31793,10 @@
         <v>77</v>
       </c>
       <c r="H248" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I248" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J248" t="s" s="2">
         <v>76</v>
@@ -31824,16 +31805,16 @@
         <v>205</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>729</v>
+        <v>145</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="N248" t="s" s="2">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="O248" t="s" s="2">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="P248" s="2"/>
       <c r="Q248" t="s" s="2">
@@ -31859,13 +31840,11 @@
         <v>76</v>
       </c>
       <c r="Y248" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z248" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="Z248" s="2"/>
       <c r="AA248" t="s" s="2">
-        <v>76</v>
+        <v>742</v>
       </c>
       <c r="AB248" t="s" s="2">
         <v>76</v>
@@ -31883,19 +31862,19 @@
         <v>76</v>
       </c>
       <c r="AG248" t="s" s="2">
-        <v>728</v>
+        <v>739</v>
       </c>
       <c r="AH248" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI248" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ248" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK248" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="249">
@@ -31903,14 +31882,14 @@
         <v>573</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>732</v>
+        <v>743</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>732</v>
+        <v>743</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" t="s" s="2">
-        <v>733</v>
+        <v>76</v>
       </c>
       <c r="F249" s="2"/>
       <c r="G249" t="s" s="2">
@@ -31920,7 +31899,7 @@
         <v>78</v>
       </c>
       <c r="I249" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J249" t="s" s="2">
         <v>76</v>
@@ -31929,20 +31908,18 @@
         <v>205</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>734</v>
+        <v>145</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="N249" t="s" s="2">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="O249" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="P249" t="s" s="2">
-        <v>737</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="P249" s="2"/>
       <c r="Q249" t="s" s="2">
         <v>76</v>
       </c>
@@ -31966,13 +31943,11 @@
         <v>76</v>
       </c>
       <c r="Y249" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z249" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="Z249" s="2"/>
       <c r="AA249" t="s" s="2">
-        <v>76</v>
+        <v>746</v>
       </c>
       <c r="AB249" t="s" s="2">
         <v>76</v>
@@ -31990,7 +31965,7 @@
         <v>76</v>
       </c>
       <c r="AG249" t="s" s="2">
-        <v>732</v>
+        <v>743</v>
       </c>
       <c r="AH249" t="s" s="2">
         <v>77</v>
@@ -32002,7 +31977,7 @@
         <v>80</v>
       </c>
       <c r="AK249" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="250">
@@ -32010,10 +31985,10 @@
         <v>573</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" t="s" s="2">
@@ -32021,31 +31996,31 @@
       </c>
       <c r="F250" s="2"/>
       <c r="G250" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H250" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I250" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K250" t="s" s="2">
         <v>205</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>222</v>
+        <v>145</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="O250" t="s" s="2">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="P250" s="2"/>
       <c r="Q250" t="s" s="2">
@@ -32071,13 +32046,13 @@
         <v>76</v>
       </c>
       <c r="Y250" t="s" s="2">
-        <v>191</v>
+        <v>279</v>
       </c>
       <c r="Z250" t="s" s="2">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="AA250" t="s" s="2">
-        <v>742</v>
+        <v>76</v>
       </c>
       <c r="AB250" t="s" s="2">
         <v>76</v>
@@ -32095,13 +32070,13 @@
         <v>76</v>
       </c>
       <c r="AG250" t="s" s="2">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="AH250" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI250" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ250" t="s" s="2">
         <v>80</v>
@@ -32115,10 +32090,10 @@
         <v>573</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
@@ -32129,7 +32104,7 @@
         <v>77</v>
       </c>
       <c r="H251" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I251" t="s" s="2">
         <v>205</v>
@@ -32144,10 +32119,10 @@
         <v>145</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>314</v>
@@ -32176,13 +32151,13 @@
         <v>76</v>
       </c>
       <c r="Y251" t="s" s="2">
-        <v>146</v>
+        <v>279</v>
       </c>
       <c r="Z251" t="s" s="2">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="AA251" t="s" s="2">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="AB251" t="s" s="2">
         <v>76</v>
@@ -32191,22 +32166,22 @@
         <v>76</v>
       </c>
       <c r="AD251" t="s" s="2">
-        <v>76</v>
+        <v>756</v>
       </c>
       <c r="AE251" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF251" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG251" t="s" s="2">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="AH251" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI251" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ251" t="s" s="2">
         <v>80</v>
@@ -32220,12 +32195,14 @@
         <v>573</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="D252" s="2"/>
+        <v>751</v>
+      </c>
+      <c r="D252" t="s" s="2">
+        <v>758</v>
+      </c>
       <c r="E252" t="s" s="2">
         <v>76</v>
       </c>
@@ -32234,7 +32211,7 @@
         <v>77</v>
       </c>
       <c r="H252" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I252" t="s" s="2">
         <v>205</v>
@@ -32249,10 +32226,10 @@
         <v>145</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>314</v>
@@ -32281,35 +32258,37 @@
         <v>76</v>
       </c>
       <c r="Y252" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Z252" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="Z252" t="s" s="2">
+        <v>754</v>
+      </c>
       <c r="AA252" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="AB252" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC252" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD252" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE252" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF252" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG252" t="s" s="2">
         <v>751</v>
       </c>
-      <c r="AB252" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC252" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD252" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE252" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF252" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG252" t="s" s="2">
-        <v>748</v>
-      </c>
       <c r="AH252" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI252" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ252" t="s" s="2">
         <v>80</v>
@@ -32323,10 +32302,10 @@
         <v>573</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
@@ -32337,29 +32316,27 @@
         <v>77</v>
       </c>
       <c r="H253" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I253" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J253" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>753</v>
+        <v>85</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>754</v>
-      </c>
-      <c r="O253" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O253" s="2"/>
       <c r="P253" s="2"/>
       <c r="Q253" t="s" s="2">
         <v>76</v>
@@ -32369,7 +32346,7 @@
         <v>76</v>
       </c>
       <c r="T253" t="s" s="2">
-        <v>76</v>
+        <v>762</v>
       </c>
       <c r="U253" t="s" s="2">
         <v>76</v>
@@ -32384,11 +32361,13 @@
         <v>76</v>
       </c>
       <c r="Y253" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Z253" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Z253" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AA253" t="s" s="2">
-        <v>755</v>
+        <v>76</v>
       </c>
       <c r="AB253" t="s" s="2">
         <v>76</v>
@@ -32406,19 +32385,19 @@
         <v>76</v>
       </c>
       <c r="AG253" t="s" s="2">
-        <v>752</v>
+        <v>87</v>
       </c>
       <c r="AH253" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI253" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ253" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK253" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="254">
@@ -32426,14 +32405,14 @@
         <v>573</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F254" s="2"/>
       <c r="G254" t="s" s="2">
@@ -32449,19 +32428,19 @@
         <v>76</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>757</v>
+        <v>111</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>758</v>
+        <v>112</v>
       </c>
       <c r="O254" t="s" s="2">
-        <v>314</v>
+        <v>113</v>
       </c>
       <c r="P254" s="2"/>
       <c r="Q254" t="s" s="2">
@@ -32487,10 +32466,10 @@
         <v>76</v>
       </c>
       <c r="Y254" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z254" t="s" s="2">
-        <v>759</v>
+        <v>76</v>
       </c>
       <c r="AA254" t="s" s="2">
         <v>76</v>
@@ -32499,19 +32478,19 @@
         <v>76</v>
       </c>
       <c r="AC254" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD254" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE254" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF254" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG254" t="s" s="2">
-        <v>756</v>
+        <v>94</v>
       </c>
       <c r="AH254" t="s" s="2">
         <v>77</v>
@@ -32523,7 +32502,7 @@
         <v>80</v>
       </c>
       <c r="AK254" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="255">
@@ -32531,10 +32510,10 @@
         <v>573</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" t="s" s="2">
@@ -32548,7 +32527,7 @@
         <v>78</v>
       </c>
       <c r="I255" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J255" t="s" s="2">
         <v>76</v>
@@ -32557,18 +32536,20 @@
         <v>205</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="N255" t="s" s="2">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="O255" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="P255" s="2"/>
+        <v>769</v>
+      </c>
+      <c r="P255" t="s" s="2">
+        <v>770</v>
+      </c>
       <c r="Q255" t="s" s="2">
         <v>76</v>
       </c>
@@ -32592,13 +32573,13 @@
         <v>76</v>
       </c>
       <c r="Y255" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z255" t="s" s="2">
-        <v>763</v>
+        <v>76</v>
       </c>
       <c r="AA255" t="s" s="2">
-        <v>764</v>
+        <v>76</v>
       </c>
       <c r="AB255" t="s" s="2">
         <v>76</v>
@@ -32607,16 +32588,16 @@
         <v>76</v>
       </c>
       <c r="AD255" t="s" s="2">
-        <v>765</v>
+        <v>76</v>
       </c>
       <c r="AE255" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF255" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG255" t="s" s="2">
-        <v>760</v>
+        <v>771</v>
       </c>
       <c r="AH255" t="s" s="2">
         <v>77</v>
@@ -32636,14 +32617,12 @@
         <v>573</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>760</v>
-      </c>
-      <c r="D256" t="s" s="2">
-        <v>767</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="D256" s="2"/>
       <c r="E256" t="s" s="2">
         <v>76</v>
       </c>
@@ -32652,29 +32631,27 @@
         <v>77</v>
       </c>
       <c r="H256" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I256" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J256" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K256" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>768</v>
+        <v>85</v>
       </c>
       <c r="N256" t="s" s="2">
-        <v>762</v>
-      </c>
-      <c r="O256" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O256" s="2"/>
       <c r="P256" s="2"/>
       <c r="Q256" t="s" s="2">
         <v>76</v>
@@ -32699,13 +32676,13 @@
         <v>76</v>
       </c>
       <c r="Y256" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z256" t="s" s="2">
-        <v>763</v>
+        <v>76</v>
       </c>
       <c r="AA256" t="s" s="2">
-        <v>764</v>
+        <v>76</v>
       </c>
       <c r="AB256" t="s" s="2">
         <v>76</v>
@@ -32723,19 +32700,19 @@
         <v>76</v>
       </c>
       <c r="AG256" t="s" s="2">
-        <v>760</v>
+        <v>87</v>
       </c>
       <c r="AH256" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI256" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ256" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK256" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="257">
@@ -32743,21 +32720,21 @@
         <v>573</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F257" s="2"/>
       <c r="G257" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H257" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I257" t="s" s="2">
         <v>76</v>
@@ -32769,15 +32746,17 @@
         <v>76</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="N257" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O257" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="O257" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="P257" s="2"/>
       <c r="Q257" t="s" s="2">
         <v>76</v>
@@ -32787,7 +32766,7 @@
         <v>76</v>
       </c>
       <c r="T257" t="s" s="2">
-        <v>771</v>
+        <v>76</v>
       </c>
       <c r="U257" t="s" s="2">
         <v>76</v>
@@ -32814,31 +32793,31 @@
         <v>76</v>
       </c>
       <c r="AC257" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD257" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE257" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF257" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG257" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH257" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI257" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ257" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK257" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="258">
@@ -32846,21 +32825,21 @@
         <v>573</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F258" s="2"/>
       <c r="G258" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H258" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I258" t="s" s="2">
         <v>76</v>
@@ -32869,21 +32848,23 @@
         <v>76</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>111</v>
+        <v>778</v>
       </c>
       <c r="N258" t="s" s="2">
-        <v>112</v>
+        <v>779</v>
       </c>
       <c r="O258" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P258" s="2"/>
+        <v>780</v>
+      </c>
+      <c r="P258" t="s" s="2">
+        <v>781</v>
+      </c>
       <c r="Q258" t="s" s="2">
         <v>76</v>
       </c>
@@ -32892,7 +32873,7 @@
         <v>76</v>
       </c>
       <c r="T258" t="s" s="2">
-        <v>76</v>
+        <v>782</v>
       </c>
       <c r="U258" t="s" s="2">
         <v>76</v>
@@ -32919,31 +32900,31 @@
         <v>76</v>
       </c>
       <c r="AC258" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD258" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE258" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF258" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG258" t="s" s="2">
-        <v>94</v>
+        <v>783</v>
       </c>
       <c r="AH258" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI258" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ258" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK258" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="259">
@@ -32951,10 +32932,10 @@
         <v>573</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>775</v>
+        <v>785</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" t="s" s="2">
@@ -32965,7 +32946,7 @@
         <v>77</v>
       </c>
       <c r="H259" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I259" t="s" s="2">
         <v>76</v>
@@ -32977,20 +32958,18 @@
         <v>205</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>405</v>
+        <v>84</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="N259" t="s" s="2">
-        <v>777</v>
+        <v>787</v>
       </c>
       <c r="O259" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="P259" t="s" s="2">
-        <v>779</v>
-      </c>
+        <v>788</v>
+      </c>
+      <c r="P259" s="2"/>
       <c r="Q259" t="s" s="2">
         <v>76</v>
       </c>
@@ -33038,13 +33017,13 @@
         <v>76</v>
       </c>
       <c r="AG259" t="s" s="2">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="AH259" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI259" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ259" t="s" s="2">
         <v>80</v>
@@ -33058,10 +33037,10 @@
         <v>573</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" t="s" s="2">
@@ -33081,19 +33060,23 @@
         <v>76</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>84</v>
+        <v>222</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>85</v>
+        <v>792</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O260" s="2"/>
-      <c r="P260" s="2"/>
+        <v>793</v>
+      </c>
+      <c r="O260" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="P260" t="s" s="2">
+        <v>794</v>
+      </c>
       <c r="Q260" t="s" s="2">
         <v>76</v>
       </c>
@@ -33141,7 +33124,7 @@
         <v>76</v>
       </c>
       <c r="AG260" t="s" s="2">
-        <v>87</v>
+        <v>795</v>
       </c>
       <c r="AH260" t="s" s="2">
         <v>77</v>
@@ -33150,10 +33133,10 @@
         <v>83</v>
       </c>
       <c r="AJ260" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK260" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="261">
@@ -33161,21 +33144,21 @@
         <v>573</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>783</v>
+        <v>796</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>784</v>
+        <v>797</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F261" s="2"/>
       <c r="G261" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H261" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I261" t="s" s="2">
         <v>76</v>
@@ -33184,21 +33167,23 @@
         <v>76</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>111</v>
+        <v>798</v>
       </c>
       <c r="N261" t="s" s="2">
-        <v>112</v>
+        <v>799</v>
       </c>
       <c r="O261" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P261" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="P261" t="s" s="2">
+        <v>800</v>
+      </c>
       <c r="Q261" t="s" s="2">
         <v>76</v>
       </c>
@@ -33234,31 +33219,31 @@
         <v>76</v>
       </c>
       <c r="AC261" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD261" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE261" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF261" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG261" t="s" s="2">
-        <v>94</v>
+        <v>801</v>
       </c>
       <c r="AH261" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI261" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ261" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK261" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="262">
@@ -33266,10 +33251,10 @@
         <v>573</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>785</v>
+        <v>802</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>786</v>
+        <v>803</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" t="s" s="2">
@@ -33292,19 +33277,19 @@
         <v>205</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>96</v>
+        <v>258</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>787</v>
+        <v>804</v>
       </c>
       <c r="N262" t="s" s="2">
-        <v>788</v>
+        <v>805</v>
       </c>
       <c r="O262" t="s" s="2">
-        <v>789</v>
+        <v>806</v>
       </c>
       <c r="P262" t="s" s="2">
-        <v>790</v>
+        <v>807</v>
       </c>
       <c r="Q262" t="s" s="2">
         <v>76</v>
@@ -33314,7 +33299,7 @@
         <v>76</v>
       </c>
       <c r="T262" t="s" s="2">
-        <v>791</v>
+        <v>76</v>
       </c>
       <c r="U262" t="s" s="2">
         <v>76</v>
@@ -33353,7 +33338,7 @@
         <v>76</v>
       </c>
       <c r="AG262" t="s" s="2">
-        <v>792</v>
+        <v>808</v>
       </c>
       <c r="AH262" t="s" s="2">
         <v>77</v>
@@ -33373,10 +33358,10 @@
         <v>573</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>793</v>
+        <v>809</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>794</v>
+        <v>810</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" t="s" s="2">
@@ -33402,15 +33387,17 @@
         <v>84</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>795</v>
+        <v>811</v>
       </c>
       <c r="N263" t="s" s="2">
-        <v>796</v>
+        <v>812</v>
       </c>
       <c r="O263" t="s" s="2">
-        <v>797</v>
-      </c>
-      <c r="P263" s="2"/>
+        <v>813</v>
+      </c>
+      <c r="P263" t="s" s="2">
+        <v>814</v>
+      </c>
       <c r="Q263" t="s" s="2">
         <v>76</v>
       </c>
@@ -33458,7 +33445,7 @@
         <v>76</v>
       </c>
       <c r="AG263" t="s" s="2">
-        <v>798</v>
+        <v>815</v>
       </c>
       <c r="AH263" t="s" s="2">
         <v>77</v>
@@ -33478,12 +33465,14 @@
         <v>573</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>799</v>
+        <v>816</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>800</v>
-      </c>
-      <c r="D264" s="2"/>
+        <v>751</v>
+      </c>
+      <c r="D264" t="s" s="2">
+        <v>817</v>
+      </c>
       <c r="E264" t="s" s="2">
         <v>76</v>
       </c>
@@ -33492,10 +33481,10 @@
         <v>77</v>
       </c>
       <c r="H264" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I264" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J264" t="s" s="2">
         <v>76</v>
@@ -33504,20 +33493,18 @@
         <v>205</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>222</v>
+        <v>145</v>
       </c>
       <c r="M264" t="s" s="2">
-        <v>801</v>
+        <v>818</v>
       </c>
       <c r="N264" t="s" s="2">
-        <v>802</v>
+        <v>753</v>
       </c>
       <c r="O264" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="P264" t="s" s="2">
-        <v>803</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="P264" s="2"/>
       <c r="Q264" t="s" s="2">
         <v>76</v>
       </c>
@@ -33541,13 +33528,13 @@
         <v>76</v>
       </c>
       <c r="Y264" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="Z264" t="s" s="2">
-        <v>76</v>
+        <v>754</v>
       </c>
       <c r="AA264" t="s" s="2">
-        <v>76</v>
+        <v>755</v>
       </c>
       <c r="AB264" t="s" s="2">
         <v>76</v>
@@ -33565,13 +33552,13 @@
         <v>76</v>
       </c>
       <c r="AG264" t="s" s="2">
-        <v>804</v>
+        <v>751</v>
       </c>
       <c r="AH264" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI264" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ264" t="s" s="2">
         <v>80</v>
@@ -33585,10 +33572,10 @@
         <v>573</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>805</v>
+        <v>819</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>806</v>
+        <v>761</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" t="s" s="2">
@@ -33608,23 +33595,19 @@
         <v>76</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L265" t="s" s="2">
         <v>84</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>807</v>
+        <v>85</v>
       </c>
       <c r="N265" t="s" s="2">
-        <v>808</v>
-      </c>
-      <c r="O265" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="P265" t="s" s="2">
-        <v>809</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O265" s="2"/>
+      <c r="P265" s="2"/>
       <c r="Q265" t="s" s="2">
         <v>76</v>
       </c>
@@ -33633,7 +33616,7 @@
         <v>76</v>
       </c>
       <c r="T265" t="s" s="2">
-        <v>76</v>
+        <v>820</v>
       </c>
       <c r="U265" t="s" s="2">
         <v>76</v>
@@ -33672,7 +33655,7 @@
         <v>76</v>
       </c>
       <c r="AG265" t="s" s="2">
-        <v>810</v>
+        <v>87</v>
       </c>
       <c r="AH265" t="s" s="2">
         <v>77</v>
@@ -33681,10 +33664,10 @@
         <v>83</v>
       </c>
       <c r="AJ265" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK265" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="266">
@@ -33692,21 +33675,21 @@
         <v>573</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>811</v>
+        <v>821</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>812</v>
+        <v>764</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F266" s="2"/>
       <c r="G266" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H266" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I266" t="s" s="2">
         <v>76</v>
@@ -33715,23 +33698,21 @@
         <v>76</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>258</v>
+        <v>89</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>813</v>
+        <v>111</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>814</v>
+        <v>112</v>
       </c>
       <c r="O266" t="s" s="2">
-        <v>815</v>
-      </c>
-      <c r="P266" t="s" s="2">
-        <v>816</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P266" s="2"/>
       <c r="Q266" t="s" s="2">
         <v>76</v>
       </c>
@@ -33767,31 +33748,31 @@
         <v>76</v>
       </c>
       <c r="AC266" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD266" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE266" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF266" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG266" t="s" s="2">
-        <v>817</v>
+        <v>94</v>
       </c>
       <c r="AH266" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI266" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ266" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK266" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="267">
@@ -33799,10 +33780,10 @@
         <v>573</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>819</v>
+        <v>766</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" t="s" s="2">
@@ -33813,7 +33794,7 @@
         <v>77</v>
       </c>
       <c r="H267" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I267" t="s" s="2">
         <v>76</v>
@@ -33825,19 +33806,19 @@
         <v>205</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>84</v>
+        <v>405</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>820</v>
+        <v>767</v>
       </c>
       <c r="N267" t="s" s="2">
-        <v>821</v>
+        <v>768</v>
       </c>
       <c r="O267" t="s" s="2">
-        <v>822</v>
+        <v>769</v>
       </c>
       <c r="P267" t="s" s="2">
-        <v>823</v>
+        <v>770</v>
       </c>
       <c r="Q267" t="s" s="2">
         <v>76</v>
@@ -33886,13 +33867,13 @@
         <v>76</v>
       </c>
       <c r="AG267" t="s" s="2">
-        <v>824</v>
+        <v>771</v>
       </c>
       <c r="AH267" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI267" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ267" t="s" s="2">
         <v>80</v>
@@ -33906,26 +33887,24 @@
         <v>573</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>760</v>
-      </c>
-      <c r="D268" t="s" s="2">
-        <v>826</v>
-      </c>
+        <v>810</v>
+      </c>
+      <c r="D268" s="2"/>
       <c r="E268" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F268" s="2"/>
       <c r="G268" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H268" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I268" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J268" t="s" s="2">
         <v>76</v>
@@ -33934,18 +33913,20 @@
         <v>205</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>827</v>
+        <v>811</v>
       </c>
       <c r="N268" t="s" s="2">
-        <v>762</v>
+        <v>812</v>
       </c>
       <c r="O268" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="P268" s="2"/>
+        <v>813</v>
+      </c>
+      <c r="P268" t="s" s="2">
+        <v>814</v>
+      </c>
       <c r="Q268" t="s" s="2">
         <v>76</v>
       </c>
@@ -33969,13 +33950,13 @@
         <v>76</v>
       </c>
       <c r="Y268" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z268" t="s" s="2">
-        <v>763</v>
+        <v>76</v>
       </c>
       <c r="AA268" t="s" s="2">
-        <v>764</v>
+        <v>76</v>
       </c>
       <c r="AB268" t="s" s="2">
         <v>76</v>
@@ -33993,13 +33974,13 @@
         <v>76</v>
       </c>
       <c r="AG268" t="s" s="2">
-        <v>760</v>
+        <v>815</v>
       </c>
       <c r="AH268" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI268" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ268" t="s" s="2">
         <v>80</v>
@@ -34013,10 +33994,10 @@
         <v>573</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>770</v>
+        <v>824</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" t="s" s="2">
@@ -34027,25 +34008,25 @@
         <v>77</v>
       </c>
       <c r="H269" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I269" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J269" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>84</v>
+        <v>825</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>85</v>
+        <v>826</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>86</v>
+        <v>827</v>
       </c>
       <c r="O269" s="2"/>
       <c r="P269" s="2"/>
@@ -34057,7 +34038,7 @@
         <v>76</v>
       </c>
       <c r="T269" t="s" s="2">
-        <v>829</v>
+        <v>76</v>
       </c>
       <c r="U269" t="s" s="2">
         <v>76</v>
@@ -34096,19 +34077,19 @@
         <v>76</v>
       </c>
       <c r="AG269" t="s" s="2">
-        <v>87</v>
+        <v>824</v>
       </c>
       <c r="AH269" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI269" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ269" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK269" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="270">
@@ -34116,21 +34097,21 @@
         <v>573</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>773</v>
+        <v>828</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F270" s="2"/>
       <c r="G270" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H270" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I270" t="s" s="2">
         <v>76</v>
@@ -34142,17 +34123,15 @@
         <v>76</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O270" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O270" s="2"/>
       <c r="P270" s="2"/>
       <c r="Q270" t="s" s="2">
         <v>76</v>
@@ -34189,31 +34168,31 @@
         <v>76</v>
       </c>
       <c r="AC270" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD270" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE270" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF270" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG270" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH270" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI270" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ270" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK270" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="271">
@@ -34221,14 +34200,14 @@
         <v>573</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>775</v>
+        <v>829</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F271" s="2"/>
       <c r="G271" t="s" s="2">
@@ -34244,23 +34223,21 @@
         <v>76</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>405</v>
+        <v>89</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>776</v>
+        <v>111</v>
       </c>
       <c r="N271" t="s" s="2">
-        <v>777</v>
+        <v>112</v>
       </c>
       <c r="O271" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="P271" t="s" s="2">
-        <v>779</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P271" s="2"/>
       <c r="Q271" t="s" s="2">
         <v>76</v>
       </c>
@@ -34296,19 +34273,19 @@
         <v>76</v>
       </c>
       <c r="AC271" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD271" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE271" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF271" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG271" t="s" s="2">
-        <v>780</v>
+        <v>94</v>
       </c>
       <c r="AH271" t="s" s="2">
         <v>77</v>
@@ -34320,7 +34297,7 @@
         <v>80</v>
       </c>
       <c r="AK271" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="272">
@@ -34328,46 +34305,44 @@
         <v>573</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>819</v>
-      </c>
-      <c r="D272" s="2"/>
+        <v>829</v>
+      </c>
+      <c r="D272" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="E272" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F272" s="2"/>
       <c r="G272" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H272" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I272" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J272" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>84</v>
+        <v>831</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="N272" t="s" s="2">
-        <v>821</v>
-      </c>
-      <c r="O272" t="s" s="2">
-        <v>822</v>
-      </c>
-      <c r="P272" t="s" s="2">
-        <v>823</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="O272" s="2"/>
+      <c r="P272" s="2"/>
       <c r="Q272" t="s" s="2">
         <v>76</v>
       </c>
@@ -34415,19 +34390,19 @@
         <v>76</v>
       </c>
       <c r="AG272" t="s" s="2">
-        <v>824</v>
+        <v>94</v>
       </c>
       <c r="AH272" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI272" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ272" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK272" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="273">
@@ -34438,9 +34413,11 @@
         <v>833</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>833</v>
-      </c>
-      <c r="D273" s="2"/>
+        <v>829</v>
+      </c>
+      <c r="D273" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="E273" t="s" s="2">
         <v>76</v>
       </c>
@@ -34449,7 +34426,7 @@
         <v>77</v>
       </c>
       <c r="H273" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I273" t="s" s="2">
         <v>205</v>
@@ -34458,7 +34435,7 @@
         <v>76</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L273" t="s" s="2">
         <v>834</v>
@@ -34467,7 +34444,7 @@
         <v>835</v>
       </c>
       <c r="N273" t="s" s="2">
-        <v>836</v>
+        <v>175</v>
       </c>
       <c r="O273" s="2"/>
       <c r="P273" s="2"/>
@@ -34518,7 +34495,7 @@
         <v>76</v>
       </c>
       <c r="AG273" t="s" s="2">
-        <v>833</v>
+        <v>94</v>
       </c>
       <c r="AH273" t="s" s="2">
         <v>77</v>
@@ -34530,7 +34507,7 @@
         <v>80</v>
       </c>
       <c r="AK273" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="274">
@@ -34538,12 +34515,14 @@
         <v>573</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>837</v>
-      </c>
-      <c r="D274" s="2"/>
+        <v>829</v>
+      </c>
+      <c r="D274" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="E274" t="s" s="2">
         <v>76</v>
       </c>
@@ -34555,7 +34534,7 @@
         <v>83</v>
       </c>
       <c r="I274" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J274" t="s" s="2">
         <v>76</v>
@@ -34564,13 +34543,13 @@
         <v>76</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>84</v>
+        <v>837</v>
       </c>
       <c r="M274" t="s" s="2">
-        <v>85</v>
+        <v>838</v>
       </c>
       <c r="N274" t="s" s="2">
-        <v>86</v>
+        <v>181</v>
       </c>
       <c r="O274" s="2"/>
       <c r="P274" s="2"/>
@@ -34621,19 +34600,19 @@
         <v>76</v>
       </c>
       <c r="AG274" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AH274" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI274" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ274" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK274" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="275">
@@ -34641,24 +34620,26 @@
         <v>573</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>838</v>
-      </c>
-      <c r="D275" s="2"/>
+        <v>829</v>
+      </c>
+      <c r="D275" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="E275" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F275" s="2"/>
       <c r="G275" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H275" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I275" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J275" t="s" s="2">
         <v>76</v>
@@ -34667,17 +34648,15 @@
         <v>76</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>89</v>
+        <v>840</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>111</v>
+        <v>841</v>
       </c>
       <c r="N275" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O275" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="O275" s="2"/>
       <c r="P275" s="2"/>
       <c r="Q275" t="s" s="2">
         <v>76</v>
@@ -34714,16 +34693,16 @@
         <v>76</v>
       </c>
       <c r="AC275" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD275" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE275" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF275" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG275" t="s" s="2">
         <v>94</v>
@@ -34746,14 +34725,12 @@
         <v>573</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>838</v>
-      </c>
-      <c r="D276" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>842</v>
+      </c>
+      <c r="D276" s="2"/>
       <c r="E276" t="s" s="2">
         <v>76</v>
       </c>
@@ -34765,24 +34742,26 @@
         <v>83</v>
       </c>
       <c r="I276" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J276" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K276" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="J276" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K276" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L276" t="s" s="2">
-        <v>840</v>
+        <v>84</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="N276" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O276" s="2"/>
+        <v>844</v>
+      </c>
+      <c r="O276" t="s" s="2">
+        <v>845</v>
+      </c>
       <c r="P276" s="2"/>
       <c r="Q276" t="s" s="2">
         <v>76</v>
@@ -34831,19 +34810,19 @@
         <v>76</v>
       </c>
       <c r="AG276" t="s" s="2">
-        <v>94</v>
+        <v>846</v>
       </c>
       <c r="AH276" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI276" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ276" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK276" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="277">
@@ -34851,14 +34830,12 @@
         <v>573</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>838</v>
-      </c>
-      <c r="D277" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>847</v>
+      </c>
+      <c r="D277" s="2"/>
       <c r="E277" t="s" s="2">
         <v>76</v>
       </c>
@@ -34867,25 +34844,25 @@
         <v>77</v>
       </c>
       <c r="H277" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I277" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J277" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K277" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="J277" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K277" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L277" t="s" s="2">
-        <v>843</v>
+        <v>435</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>175</v>
+        <v>849</v>
       </c>
       <c r="O277" s="2"/>
       <c r="P277" s="2"/>
@@ -34936,7 +34913,7 @@
         <v>76</v>
       </c>
       <c r="AG277" t="s" s="2">
-        <v>94</v>
+        <v>850</v>
       </c>
       <c r="AH277" t="s" s="2">
         <v>77</v>
@@ -34948,7 +34925,7 @@
         <v>80</v>
       </c>
       <c r="AK277" t="s" s="2">
-        <v>81</v>
+        <v>438</v>
       </c>
     </row>
     <row r="278">
@@ -34956,14 +34933,12 @@
         <v>573</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>838</v>
-      </c>
-      <c r="D278" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>851</v>
+      </c>
+      <c r="D278" s="2"/>
       <c r="E278" t="s" s="2">
         <v>76</v>
       </c>
@@ -34972,7 +34947,7 @@
         <v>77</v>
       </c>
       <c r="H278" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I278" t="s" s="2">
         <v>205</v>
@@ -34984,15 +34959,17 @@
         <v>76</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O278" s="2"/>
+        <v>854</v>
+      </c>
+      <c r="O278" t="s" s="2">
+        <v>855</v>
+      </c>
       <c r="P278" s="2"/>
       <c r="Q278" t="s" s="2">
         <v>76</v>
@@ -35041,7 +35018,7 @@
         <v>76</v>
       </c>
       <c r="AG278" t="s" s="2">
-        <v>94</v>
+        <v>851</v>
       </c>
       <c r="AH278" t="s" s="2">
         <v>77</v>
@@ -35053,7 +35030,7 @@
         <v>80</v>
       </c>
       <c r="AK278" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="279">
@@ -35061,14 +35038,12 @@
         <v>573</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>848</v>
+        <v>856</v>
       </c>
       <c r="C279" t="s" s="2">
-        <v>838</v>
-      </c>
-      <c r="D279" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>856</v>
+      </c>
+      <c r="D279" s="2"/>
       <c r="E279" t="s" s="2">
         <v>76</v>
       </c>
@@ -35077,27 +35052,29 @@
         <v>77</v>
       </c>
       <c r="H279" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I279" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J279" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K279" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="J279" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K279" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="L279" t="s" s="2">
-        <v>849</v>
+        <v>145</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>850</v>
+        <v>857</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O279" s="2"/>
+        <v>858</v>
+      </c>
+      <c r="O279" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P279" s="2"/>
       <c r="Q279" t="s" s="2">
         <v>76</v>
@@ -35122,10 +35099,10 @@
         <v>76</v>
       </c>
       <c r="Y279" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="Z279" t="s" s="2">
-        <v>76</v>
+        <v>859</v>
       </c>
       <c r="AA279" t="s" s="2">
         <v>76</v>
@@ -35146,7 +35123,7 @@
         <v>76</v>
       </c>
       <c r="AG279" t="s" s="2">
-        <v>94</v>
+        <v>856</v>
       </c>
       <c r="AH279" t="s" s="2">
         <v>77</v>
@@ -35158,7 +35135,7 @@
         <v>80</v>
       </c>
       <c r="AK279" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="280">
@@ -35166,10 +35143,10 @@
         <v>573</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>851</v>
+        <v>860</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>851</v>
+        <v>860</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" t="s" s="2">
@@ -35180,10 +35157,10 @@
         <v>77</v>
       </c>
       <c r="H280" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I280" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J280" t="s" s="2">
         <v>76</v>
@@ -35192,16 +35169,16 @@
         <v>205</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>852</v>
+        <v>861</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="O280" t="s" s="2">
-        <v>854</v>
+        <v>314</v>
       </c>
       <c r="P280" s="2"/>
       <c r="Q280" t="s" s="2">
@@ -35227,13 +35204,13 @@
         <v>76</v>
       </c>
       <c r="Y280" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="Z280" t="s" s="2">
-        <v>76</v>
+        <v>863</v>
       </c>
       <c r="AA280" t="s" s="2">
-        <v>76</v>
+        <v>864</v>
       </c>
       <c r="AB280" t="s" s="2">
         <v>76</v>
@@ -35251,13 +35228,13 @@
         <v>76</v>
       </c>
       <c r="AG280" t="s" s="2">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="AH280" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI280" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ280" t="s" s="2">
         <v>80</v>
@@ -35271,10 +35248,10 @@
         <v>573</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>856</v>
+        <v>865</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>856</v>
+        <v>865</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" t="s" s="2">
@@ -35285,27 +35262,29 @@
         <v>77</v>
       </c>
       <c r="H281" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I281" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J281" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K281" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L281" t="s" s="2">
-        <v>435</v>
+        <v>555</v>
       </c>
       <c r="M281" t="s" s="2">
-        <v>857</v>
+        <v>866</v>
       </c>
       <c r="N281" t="s" s="2">
-        <v>858</v>
-      </c>
-      <c r="O281" s="2"/>
+        <v>867</v>
+      </c>
+      <c r="O281" t="s" s="2">
+        <v>868</v>
+      </c>
       <c r="P281" s="2"/>
       <c r="Q281" t="s" s="2">
         <v>76</v>
@@ -35354,19 +35333,19 @@
         <v>76</v>
       </c>
       <c r="AG281" t="s" s="2">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="AH281" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI281" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ281" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK281" t="s" s="2">
-        <v>438</v>
+        <v>104</v>
       </c>
     </row>
     <row r="282">
@@ -35374,14 +35353,14 @@
         <v>573</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>860</v>
+        <v>869</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>860</v>
+        <v>869</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" t="s" s="2">
-        <v>76</v>
+        <v>870</v>
       </c>
       <c r="F282" s="2"/>
       <c r="G282" t="s" s="2">
@@ -35397,19 +35376,19 @@
         <v>76</v>
       </c>
       <c r="K282" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L282" t="s" s="2">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="M282" t="s" s="2">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="N282" t="s" s="2">
-        <v>863</v>
+        <v>873</v>
       </c>
       <c r="O282" t="s" s="2">
-        <v>864</v>
+        <v>874</v>
       </c>
       <c r="P282" s="2"/>
       <c r="Q282" t="s" s="2">
@@ -35459,7 +35438,7 @@
         <v>76</v>
       </c>
       <c r="AG282" t="s" s="2">
-        <v>860</v>
+        <v>869</v>
       </c>
       <c r="AH282" t="s" s="2">
         <v>77</v>
@@ -35471,7 +35450,7 @@
         <v>80</v>
       </c>
       <c r="AK282" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
     </row>
     <row r="283">
@@ -35479,21 +35458,21 @@
         <v>573</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" t="s" s="2">
-        <v>76</v>
+        <v>876</v>
       </c>
       <c r="F283" s="2"/>
       <c r="G283" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H283" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I283" t="s" s="2">
         <v>76</v>
@@ -35505,16 +35484,16 @@
         <v>205</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>866</v>
+        <v>877</v>
       </c>
       <c r="N283" t="s" s="2">
-        <v>867</v>
+        <v>878</v>
       </c>
       <c r="O283" t="s" s="2">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="P283" s="2"/>
       <c r="Q283" t="s" s="2">
@@ -35540,10 +35519,10 @@
         <v>76</v>
       </c>
       <c r="Y283" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z283" t="s" s="2">
-        <v>868</v>
+        <v>76</v>
       </c>
       <c r="AA283" t="s" s="2">
         <v>76</v>
@@ -35564,19 +35543,19 @@
         <v>76</v>
       </c>
       <c r="AG283" t="s" s="2">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="AH283" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI283" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ283" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK283" t="s" s="2">
-        <v>104</v>
+        <v>337</v>
       </c>
     </row>
     <row r="284">
@@ -35584,10 +35563,10 @@
         <v>573</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>869</v>
+        <v>879</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>869</v>
+        <v>879</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" t="s" s="2">
@@ -35598,29 +35577,27 @@
         <v>77</v>
       </c>
       <c r="H284" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I284" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J284" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>870</v>
+        <v>85</v>
       </c>
       <c r="N284" t="s" s="2">
-        <v>871</v>
-      </c>
-      <c r="O284" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O284" s="2"/>
       <c r="P284" s="2"/>
       <c r="Q284" t="s" s="2">
         <v>76</v>
@@ -35645,13 +35622,13 @@
         <v>76</v>
       </c>
       <c r="Y284" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="Z284" t="s" s="2">
-        <v>872</v>
+        <v>76</v>
       </c>
       <c r="AA284" t="s" s="2">
-        <v>873</v>
+        <v>76</v>
       </c>
       <c r="AB284" t="s" s="2">
         <v>76</v>
@@ -35669,19 +35646,19 @@
         <v>76</v>
       </c>
       <c r="AG284" t="s" s="2">
-        <v>869</v>
+        <v>87</v>
       </c>
       <c r="AH284" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI284" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ284" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK284" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="285">
@@ -35689,24 +35666,24 @@
         <v>573</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="C285" t="s" s="2">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F285" s="2"/>
       <c r="G285" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H285" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I285" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J285" t="s" s="2">
         <v>76</v>
@@ -35715,16 +35692,16 @@
         <v>76</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>555</v>
+        <v>89</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>875</v>
+        <v>111</v>
       </c>
       <c r="N285" t="s" s="2">
-        <v>876</v>
+        <v>112</v>
       </c>
       <c r="O285" t="s" s="2">
-        <v>877</v>
+        <v>113</v>
       </c>
       <c r="P285" s="2"/>
       <c r="Q285" t="s" s="2">
@@ -35762,31 +35739,31 @@
         <v>76</v>
       </c>
       <c r="AC285" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD285" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE285" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF285" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG285" t="s" s="2">
-        <v>874</v>
+        <v>94</v>
       </c>
       <c r="AH285" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI285" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ285" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK285" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="286">
@@ -35794,24 +35771,24 @@
         <v>573</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" t="s" s="2">
-        <v>879</v>
+        <v>76</v>
       </c>
       <c r="F286" s="2"/>
       <c r="G286" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H286" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I286" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J286" t="s" s="2">
         <v>76</v>
@@ -35820,16 +35797,16 @@
         <v>205</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>880</v>
+        <v>685</v>
       </c>
       <c r="M286" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="N286" t="s" s="2">
-        <v>882</v>
+        <v>687</v>
       </c>
       <c r="O286" t="s" s="2">
-        <v>883</v>
+        <v>688</v>
       </c>
       <c r="P286" s="2"/>
       <c r="Q286" t="s" s="2">
@@ -35879,19 +35856,19 @@
         <v>76</v>
       </c>
       <c r="AG286" t="s" s="2">
-        <v>878</v>
+        <v>689</v>
       </c>
       <c r="AH286" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI286" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ286" t="s" s="2">
-        <v>80</v>
+        <v>690</v>
       </c>
       <c r="AK286" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="287">
@@ -35899,14 +35876,14 @@
         <v>573</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C287" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
-        <v>885</v>
+        <v>76</v>
       </c>
       <c r="F287" s="2"/>
       <c r="G287" t="s" s="2">
@@ -35916,7 +35893,7 @@
         <v>83</v>
       </c>
       <c r="I287" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J287" t="s" s="2">
         <v>76</v>
@@ -35925,22 +35902,24 @@
         <v>205</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>155</v>
+        <v>685</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>887</v>
+        <v>694</v>
       </c>
       <c r="O287" t="s" s="2">
-        <v>336</v>
+        <v>695</v>
       </c>
       <c r="P287" s="2"/>
       <c r="Q287" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R287" s="2"/>
+      <c r="R287" t="s" s="2">
+        <v>696</v>
+      </c>
       <c r="S287" t="s" s="2">
         <v>76</v>
       </c>
@@ -35984,7 +35963,7 @@
         <v>76</v>
       </c>
       <c r="AG287" t="s" s="2">
-        <v>884</v>
+        <v>697</v>
       </c>
       <c r="AH287" t="s" s="2">
         <v>77</v>
@@ -35993,10 +35972,10 @@
         <v>83</v>
       </c>
       <c r="AJ287" t="s" s="2">
-        <v>80</v>
+        <v>690</v>
       </c>
       <c r="AK287" t="s" s="2">
-        <v>337</v>
+        <v>104</v>
       </c>
     </row>
     <row r="288">
@@ -36004,10 +35983,10 @@
         <v>573</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" t="s" s="2">
@@ -36018,7 +35997,7 @@
         <v>77</v>
       </c>
       <c r="H288" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I288" t="s" s="2">
         <v>76</v>
@@ -36027,18 +36006,20 @@
         <v>76</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>84</v>
+        <v>507</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>85</v>
+        <v>886</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O288" s="2"/>
+        <v>887</v>
+      </c>
+      <c r="O288" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="P288" s="2"/>
       <c r="Q288" t="s" s="2">
         <v>76</v>
@@ -36087,7 +36068,7 @@
         <v>76</v>
       </c>
       <c r="AG288" t="s" s="2">
-        <v>87</v>
+        <v>885</v>
       </c>
       <c r="AH288" t="s" s="2">
         <v>77</v>
@@ -36096,10 +36077,10 @@
         <v>83</v>
       </c>
       <c r="AJ288" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK288" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
     </row>
     <row r="289">
@@ -36107,21 +36088,21 @@
         <v>573</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F289" s="2"/>
       <c r="G289" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H289" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I289" t="s" s="2">
         <v>76</v>
@@ -36130,19 +36111,19 @@
         <v>76</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>89</v>
+        <v>889</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>111</v>
+        <v>890</v>
       </c>
       <c r="N289" t="s" s="2">
-        <v>112</v>
+        <v>891</v>
       </c>
       <c r="O289" t="s" s="2">
-        <v>113</v>
+        <v>349</v>
       </c>
       <c r="P289" s="2"/>
       <c r="Q289" t="s" s="2">
@@ -36180,31 +36161,31 @@
         <v>76</v>
       </c>
       <c r="AC289" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD289" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE289" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF289" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG289" t="s" s="2">
-        <v>94</v>
+        <v>888</v>
       </c>
       <c r="AH289" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI289" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ289" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK289" t="s" s="2">
-        <v>81</v>
+        <v>297</v>
       </c>
     </row>
     <row r="290">
@@ -36212,10 +36193,10 @@
         <v>573</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" t="s" s="2">
@@ -36226,10 +36207,10 @@
         <v>77</v>
       </c>
       <c r="H290" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I290" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J290" t="s" s="2">
         <v>76</v>
@@ -36238,16 +36219,16 @@
         <v>205</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>694</v>
+        <v>893</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="N290" t="s" s="2">
-        <v>696</v>
+        <v>895</v>
       </c>
       <c r="O290" t="s" s="2">
-        <v>697</v>
+        <v>349</v>
       </c>
       <c r="P290" s="2"/>
       <c r="Q290" t="s" s="2">
@@ -36297,19 +36278,19 @@
         <v>76</v>
       </c>
       <c r="AG290" t="s" s="2">
-        <v>698</v>
+        <v>892</v>
       </c>
       <c r="AH290" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI290" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ290" t="s" s="2">
-        <v>699</v>
+        <v>80</v>
       </c>
       <c r="AK290" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
     </row>
     <row r="291">
@@ -36317,10 +36298,10 @@
         <v>573</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" t="s" s="2">
@@ -36334,7 +36315,7 @@
         <v>83</v>
       </c>
       <c r="I291" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J291" t="s" s="2">
         <v>76</v>
@@ -36343,24 +36324,22 @@
         <v>205</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>694</v>
+        <v>145</v>
       </c>
       <c r="M291" t="s" s="2">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="N291" t="s" s="2">
-        <v>703</v>
+        <v>898</v>
       </c>
       <c r="O291" t="s" s="2">
-        <v>704</v>
+        <v>314</v>
       </c>
       <c r="P291" s="2"/>
       <c r="Q291" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="R291" t="s" s="2">
-        <v>705</v>
-      </c>
+      <c r="R291" s="2"/>
       <c r="S291" t="s" s="2">
         <v>76</v>
       </c>
@@ -36380,13 +36359,13 @@
         <v>76</v>
       </c>
       <c r="Y291" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="Z291" t="s" s="2">
-        <v>76</v>
+        <v>899</v>
       </c>
       <c r="AA291" t="s" s="2">
-        <v>76</v>
+        <v>900</v>
       </c>
       <c r="AB291" t="s" s="2">
         <v>76</v>
@@ -36404,7 +36383,7 @@
         <v>76</v>
       </c>
       <c r="AG291" t="s" s="2">
-        <v>706</v>
+        <v>896</v>
       </c>
       <c r="AH291" t="s" s="2">
         <v>77</v>
@@ -36413,7 +36392,7 @@
         <v>83</v>
       </c>
       <c r="AJ291" t="s" s="2">
-        <v>699</v>
+        <v>80</v>
       </c>
       <c r="AK291" t="s" s="2">
         <v>104</v>
@@ -36424,10 +36403,10 @@
         <v>573</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" t="s" s="2">
@@ -36438,7 +36417,7 @@
         <v>77</v>
       </c>
       <c r="H292" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I292" t="s" s="2">
         <v>76</v>
@@ -36447,19 +36426,19 @@
         <v>76</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>507</v>
+        <v>902</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="N292" t="s" s="2">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="O292" t="s" s="2">
-        <v>349</v>
+        <v>905</v>
       </c>
       <c r="P292" s="2"/>
       <c r="Q292" t="s" s="2">
@@ -36509,19 +36488,19 @@
         <v>76</v>
       </c>
       <c r="AG292" t="s" s="2">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="AH292" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI292" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ292" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK292" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="293">
@@ -36529,10 +36508,10 @@
         <v>573</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" t="s" s="2">
@@ -36543,7 +36522,7 @@
         <v>77</v>
       </c>
       <c r="H293" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I293" t="s" s="2">
         <v>76</v>
@@ -36552,20 +36531,18 @@
         <v>76</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>898</v>
+        <v>299</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="N293" t="s" s="2">
-        <v>900</v>
-      </c>
-      <c r="O293" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>908</v>
+      </c>
+      <c r="O293" s="2"/>
       <c r="P293" s="2"/>
       <c r="Q293" t="s" s="2">
         <v>76</v>
@@ -36614,19 +36591,19 @@
         <v>76</v>
       </c>
       <c r="AG293" t="s" s="2">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="AH293" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI293" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ293" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK293" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
     </row>
     <row r="294">
@@ -36634,10 +36611,10 @@
         <v>573</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" t="s" s="2">
@@ -36648,29 +36625,27 @@
         <v>77</v>
       </c>
       <c r="H294" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I294" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J294" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>902</v>
+        <v>84</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>903</v>
+        <v>85</v>
       </c>
       <c r="N294" t="s" s="2">
-        <v>904</v>
-      </c>
-      <c r="O294" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O294" s="2"/>
       <c r="P294" s="2"/>
       <c r="Q294" t="s" s="2">
         <v>76</v>
@@ -36719,19 +36694,19 @@
         <v>76</v>
       </c>
       <c r="AG294" t="s" s="2">
-        <v>901</v>
+        <v>87</v>
       </c>
       <c r="AH294" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI294" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ294" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK294" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
     </row>
     <row r="295">
@@ -36739,21 +36714,21 @@
         <v>573</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F295" s="2"/>
       <c r="G295" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H295" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I295" t="s" s="2">
         <v>76</v>
@@ -36762,19 +36737,19 @@
         <v>76</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>906</v>
+        <v>111</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>907</v>
+        <v>112</v>
       </c>
       <c r="O295" t="s" s="2">
-        <v>314</v>
+        <v>113</v>
       </c>
       <c r="P295" s="2"/>
       <c r="Q295" t="s" s="2">
@@ -36800,43 +36775,43 @@
         <v>76</v>
       </c>
       <c r="Y295" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="Z295" t="s" s="2">
-        <v>908</v>
+        <v>76</v>
       </c>
       <c r="AA295" t="s" s="2">
-        <v>909</v>
+        <v>76</v>
       </c>
       <c r="AB295" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AC295" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD295" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE295" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF295" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG295" t="s" s="2">
-        <v>905</v>
+        <v>94</v>
       </c>
       <c r="AH295" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI295" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ295" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK295" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="296">
@@ -36844,12 +36819,14 @@
         <v>573</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C296" t="s" s="2">
         <v>910</v>
       </c>
-      <c r="D296" s="2"/>
+      <c r="D296" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="E296" t="s" s="2">
         <v>76</v>
       </c>
@@ -36861,7 +36838,7 @@
         <v>78</v>
       </c>
       <c r="I296" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="J296" t="s" s="2">
         <v>76</v>
@@ -36870,17 +36847,15 @@
         <v>76</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="N296" t="s" s="2">
-        <v>913</v>
-      </c>
-      <c r="O296" t="s" s="2">
-        <v>914</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O296" s="2"/>
       <c r="P296" s="2"/>
       <c r="Q296" t="s" s="2">
         <v>76</v>
@@ -36929,7 +36904,7 @@
         <v>76</v>
       </c>
       <c r="AG296" t="s" s="2">
-        <v>910</v>
+        <v>94</v>
       </c>
       <c r="AH296" t="s" s="2">
         <v>77</v>
@@ -36941,7 +36916,7 @@
         <v>80</v>
       </c>
       <c r="AK296" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="297">
@@ -36949,14 +36924,14 @@
         <v>573</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="F297" s="2"/>
       <c r="G297" t="s" s="2">
@@ -36969,22 +36944,26 @@
         <v>76</v>
       </c>
       <c r="J297" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>299</v>
+        <v>89</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>916</v>
+        <v>308</v>
       </c>
       <c r="N297" t="s" s="2">
-        <v>917</v>
-      </c>
-      <c r="O297" s="2"/>
-      <c r="P297" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="O297" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="P297" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="Q297" t="s" s="2">
         <v>76</v>
       </c>
@@ -37032,7 +37011,7 @@
         <v>76</v>
       </c>
       <c r="AG297" t="s" s="2">
-        <v>915</v>
+        <v>310</v>
       </c>
       <c r="AH297" t="s" s="2">
         <v>77</v>
@@ -37044,7 +37023,7 @@
         <v>80</v>
       </c>
       <c r="AK297" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="298">
@@ -37052,10 +37031,10 @@
         <v>573</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" t="s" s="2">
@@ -37063,7 +37042,7 @@
       </c>
       <c r="F298" s="2"/>
       <c r="G298" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H298" t="s" s="2">
         <v>83</v>
@@ -37081,12 +37060,14 @@
         <v>84</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>85</v>
+        <v>916</v>
       </c>
       <c r="N298" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O298" s="2"/>
+        <v>917</v>
+      </c>
+      <c r="O298" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="P298" s="2"/>
       <c r="Q298" t="s" s="2">
         <v>76</v>
@@ -37135,19 +37116,19 @@
         <v>76</v>
       </c>
       <c r="AG298" t="s" s="2">
-        <v>87</v>
+        <v>915</v>
       </c>
       <c r="AH298" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI298" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ298" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK298" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="299">
@@ -37155,21 +37136,21 @@
         <v>573</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F299" s="2"/>
       <c r="G299" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H299" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I299" t="s" s="2">
         <v>76</v>
@@ -37181,16 +37162,16 @@
         <v>76</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="M299" t="s" s="2">
-        <v>111</v>
+        <v>919</v>
       </c>
       <c r="N299" t="s" s="2">
-        <v>112</v>
+        <v>920</v>
       </c>
       <c r="O299" t="s" s="2">
-        <v>113</v>
+        <v>314</v>
       </c>
       <c r="P299" s="2"/>
       <c r="Q299" t="s" s="2">
@@ -37228,31 +37209,31 @@
         <v>76</v>
       </c>
       <c r="AC299" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD299" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE299" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF299" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG299" t="s" s="2">
-        <v>94</v>
+        <v>918</v>
       </c>
       <c r="AH299" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI299" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ299" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK299" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="300">
@@ -37260,14 +37241,12 @@
         <v>573</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>919</v>
-      </c>
-      <c r="D300" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="D300" s="2"/>
       <c r="E300" t="s" s="2">
         <v>76</v>
       </c>
@@ -37276,10 +37255,10 @@
         <v>77</v>
       </c>
       <c r="H300" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I300" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="J300" t="s" s="2">
         <v>76</v>
@@ -37288,15 +37267,17 @@
         <v>76</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>921</v>
+        <v>84</v>
       </c>
       <c r="M300" t="s" s="2">
         <v>922</v>
       </c>
       <c r="N300" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O300" s="2"/>
+        <v>923</v>
+      </c>
+      <c r="O300" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="P300" s="2"/>
       <c r="Q300" t="s" s="2">
         <v>76</v>
@@ -37345,19 +37326,19 @@
         <v>76</v>
       </c>
       <c r="AG300" t="s" s="2">
-        <v>94</v>
+        <v>921</v>
       </c>
       <c r="AH300" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI300" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ300" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK300" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="301">
@@ -37365,14 +37346,14 @@
         <v>573</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="F301" s="2"/>
       <c r="G301" t="s" s="2">
@@ -37385,26 +37366,22 @@
         <v>76</v>
       </c>
       <c r="J301" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K301" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>89</v>
+        <v>299</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>308</v>
+        <v>925</v>
       </c>
       <c r="N301" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O301" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P301" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>926</v>
+      </c>
+      <c r="O301" s="2"/>
+      <c r="P301" s="2"/>
       <c r="Q301" t="s" s="2">
         <v>76</v>
       </c>
@@ -37452,7 +37429,7 @@
         <v>76</v>
       </c>
       <c r="AG301" t="s" s="2">
-        <v>310</v>
+        <v>924</v>
       </c>
       <c r="AH301" t="s" s="2">
         <v>77</v>
@@ -37464,7 +37441,7 @@
         <v>80</v>
       </c>
       <c r="AK301" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="302">
@@ -37472,10 +37449,10 @@
         <v>573</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" t="s" s="2">
@@ -37483,7 +37460,7 @@
       </c>
       <c r="F302" s="2"/>
       <c r="G302" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H302" t="s" s="2">
         <v>83</v>
@@ -37501,14 +37478,12 @@
         <v>84</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>925</v>
+        <v>85</v>
       </c>
       <c r="N302" t="s" s="2">
-        <v>926</v>
-      </c>
-      <c r="O302" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O302" s="2"/>
       <c r="P302" s="2"/>
       <c r="Q302" t="s" s="2">
         <v>76</v>
@@ -37557,19 +37532,19 @@
         <v>76</v>
       </c>
       <c r="AG302" t="s" s="2">
-        <v>924</v>
+        <v>87</v>
       </c>
       <c r="AH302" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI302" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ302" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK302" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="303">
@@ -37577,21 +37552,21 @@
         <v>573</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="F303" s="2"/>
       <c r="G303" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H303" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I303" t="s" s="2">
         <v>76</v>
@@ -37603,16 +37578,16 @@
         <v>76</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>928</v>
+        <v>111</v>
       </c>
       <c r="N303" t="s" s="2">
-        <v>929</v>
+        <v>112</v>
       </c>
       <c r="O303" t="s" s="2">
-        <v>314</v>
+        <v>113</v>
       </c>
       <c r="P303" s="2"/>
       <c r="Q303" t="s" s="2">
@@ -37650,31 +37625,31 @@
         <v>76</v>
       </c>
       <c r="AC303" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD303" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE303" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF303" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG303" t="s" s="2">
-        <v>927</v>
+        <v>94</v>
       </c>
       <c r="AH303" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI303" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ303" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK303" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="304">
@@ -37682,44 +37657,46 @@
         <v>573</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C304" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="F304" s="2"/>
       <c r="G304" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H304" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I304" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J304" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>931</v>
+        <v>308</v>
       </c>
       <c r="N304" t="s" s="2">
-        <v>932</v>
+        <v>309</v>
       </c>
       <c r="O304" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="P304" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="P304" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="Q304" t="s" s="2">
         <v>76</v>
       </c>
@@ -37767,19 +37744,19 @@
         <v>76</v>
       </c>
       <c r="AG304" t="s" s="2">
-        <v>930</v>
+        <v>310</v>
       </c>
       <c r="AH304" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI304" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ304" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK304" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="305">
@@ -37787,10 +37764,10 @@
         <v>573</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" t="s" s="2">
@@ -37801,7 +37778,7 @@
         <v>77</v>
       </c>
       <c r="H305" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I305" t="s" s="2">
         <v>76</v>
@@ -37813,15 +37790,17 @@
         <v>76</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>299</v>
+        <v>84</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="N305" t="s" s="2">
-        <v>935</v>
-      </c>
-      <c r="O305" s="2"/>
+        <v>932</v>
+      </c>
+      <c r="O305" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="P305" s="2"/>
       <c r="Q305" t="s" s="2">
         <v>76</v>
@@ -37870,13 +37849,13 @@
         <v>76</v>
       </c>
       <c r="AG305" t="s" s="2">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="AH305" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI305" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ305" t="s" s="2">
         <v>80</v>
@@ -37890,10 +37869,10 @@
         <v>573</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" t="s" s="2">
@@ -37916,15 +37895,17 @@
         <v>76</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="M306" t="s" s="2">
-        <v>85</v>
+        <v>934</v>
       </c>
       <c r="N306" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O306" s="2"/>
+        <v>935</v>
+      </c>
+      <c r="O306" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P306" s="2"/>
       <c r="Q306" t="s" s="2">
         <v>76</v>
@@ -37949,13 +37930,13 @@
         <v>76</v>
       </c>
       <c r="Y306" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="Z306" t="s" s="2">
-        <v>76</v>
+        <v>936</v>
       </c>
       <c r="AA306" t="s" s="2">
-        <v>76</v>
+        <v>937</v>
       </c>
       <c r="AB306" t="s" s="2">
         <v>76</v>
@@ -37973,7 +37954,7 @@
         <v>76</v>
       </c>
       <c r="AG306" t="s" s="2">
-        <v>87</v>
+        <v>933</v>
       </c>
       <c r="AH306" t="s" s="2">
         <v>77</v>
@@ -37982,25 +37963,25 @@
         <v>83</v>
       </c>
       <c r="AJ306" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK306" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>937</v>
+        <v>31</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>937</v>
+        <v>31</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" t="s" s="2">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F307" s="2"/>
       <c r="G307" t="s" s="2">
@@ -38019,17 +38000,15 @@
         <v>76</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="M307" t="s" s="2">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="N307" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O307" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="O307" s="2"/>
       <c r="P307" s="2"/>
       <c r="Q307" t="s" s="2">
         <v>76</v>
@@ -38066,19 +38045,19 @@
         <v>76</v>
       </c>
       <c r="AC307" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD307" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE307" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF307" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG307" t="s" s="2">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="AH307" t="s" s="2">
         <v>77</v>
@@ -38095,49 +38074,45 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>938</v>
+        <v>82</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>938</v>
+        <v>82</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="F308" s="2"/>
       <c r="G308" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H308" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I308" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J308" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>308</v>
+        <v>85</v>
       </c>
       <c r="N308" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O308" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="P308" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="O308" s="2"/>
+      <c r="P308" s="2"/>
       <c r="Q308" t="s" s="2">
         <v>76</v>
       </c>
@@ -38185,30 +38160,30 @@
         <v>76</v>
       </c>
       <c r="AG308" t="s" s="2">
-        <v>310</v>
+        <v>87</v>
       </c>
       <c r="AH308" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI308" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ308" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK308" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>939</v>
+        <v>88</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>939</v>
+        <v>88</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" t="s" s="2">
@@ -38219,7 +38194,7 @@
         <v>77</v>
       </c>
       <c r="H309" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I309" t="s" s="2">
         <v>76</v>
@@ -38231,17 +38206,15 @@
         <v>76</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>940</v>
+        <v>31</v>
       </c>
       <c r="N309" t="s" s="2">
-        <v>941</v>
-      </c>
-      <c r="O309" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O309" s="2"/>
       <c r="P309" s="2"/>
       <c r="Q309" t="s" s="2">
         <v>76</v>
@@ -38278,42 +38251,42 @@
         <v>76</v>
       </c>
       <c r="AC309" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD309" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE309" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF309" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG309" t="s" s="2">
-        <v>939</v>
+        <v>94</v>
       </c>
       <c r="AH309" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI309" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ309" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK309" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>942</v>
+        <v>95</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>942</v>
+        <v>95</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" t="s" s="2">
@@ -38321,7 +38294,7 @@
       </c>
       <c r="F310" s="2"/>
       <c r="G310" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H310" t="s" s="2">
         <v>83</v>
@@ -38336,16 +38309,16 @@
         <v>76</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>943</v>
+        <v>97</v>
       </c>
       <c r="N310" t="s" s="2">
-        <v>944</v>
+        <v>98</v>
       </c>
       <c r="O310" t="s" s="2">
-        <v>314</v>
+        <v>99</v>
       </c>
       <c r="P310" s="2"/>
       <c r="Q310" t="s" s="2">
@@ -38353,7 +38326,7 @@
       </c>
       <c r="R310" s="2"/>
       <c r="S310" t="s" s="2">
-        <v>76</v>
+        <v>938</v>
       </c>
       <c r="T310" t="s" s="2">
         <v>76</v>
@@ -38371,13 +38344,13 @@
         <v>76</v>
       </c>
       <c r="Y310" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="Z310" t="s" s="2">
-        <v>945</v>
+        <v>76</v>
       </c>
       <c r="AA310" t="s" s="2">
-        <v>946</v>
+        <v>76</v>
       </c>
       <c r="AB310" t="s" s="2">
         <v>76</v>
@@ -38395,19 +38368,19 @@
         <v>76</v>
       </c>
       <c r="AG310" t="s" s="2">
-        <v>942</v>
+        <v>95</v>
       </c>
       <c r="AH310" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI310" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ310" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK310" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="311">
@@ -38415,10 +38388,10 @@
         <v>591</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
@@ -38429,7 +38402,7 @@
         <v>77</v>
       </c>
       <c r="H311" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I311" t="s" s="2">
         <v>76</v>
@@ -38441,13 +38414,13 @@
         <v>76</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="N311" t="s" s="2">
-        <v>594</v>
+        <v>103</v>
       </c>
       <c r="O311" s="2"/>
       <c r="P311" s="2"/>
@@ -38498,30 +38471,30 @@
         <v>76</v>
       </c>
       <c r="AG311" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="AH311" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI311" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ311" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK311" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>591</v>
+        <v>442</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="C312" t="s" s="2">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" t="s" s="2">
@@ -38532,7 +38505,7 @@
         <v>77</v>
       </c>
       <c r="H312" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I312" t="s" s="2">
         <v>76</v>
@@ -38544,13 +38517,13 @@
         <v>76</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M312" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N312" t="s" s="2">
-        <v>86</v>
+        <v>445</v>
       </c>
       <c r="O312" s="2"/>
       <c r="P312" s="2"/>
@@ -38601,30 +38574,30 @@
         <v>76</v>
       </c>
       <c r="AG312" t="s" s="2">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="AH312" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI312" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ312" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK312" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>591</v>
+        <v>442</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" t="s" s="2">
@@ -38635,7 +38608,7 @@
         <v>77</v>
       </c>
       <c r="H313" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I313" t="s" s="2">
         <v>76</v>
@@ -38647,13 +38620,13 @@
         <v>76</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N313" t="s" s="2">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O313" s="2"/>
       <c r="P313" s="2"/>
@@ -38692,42 +38665,42 @@
         <v>76</v>
       </c>
       <c r="AC313" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD313" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE313" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF313" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG313" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH313" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI313" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ313" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK313" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>591</v>
+        <v>442</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C314" t="s" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" t="s" s="2">
@@ -38735,10 +38708,10 @@
       </c>
       <c r="F314" s="2"/>
       <c r="G314" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H314" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I314" t="s" s="2">
         <v>76</v>
@@ -38750,24 +38723,22 @@
         <v>76</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="N314" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O314" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O314" s="2"/>
       <c r="P314" s="2"/>
       <c r="Q314" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R314" s="2"/>
       <c r="S314" t="s" s="2">
-        <v>947</v>
+        <v>76</v>
       </c>
       <c r="T314" t="s" s="2">
         <v>76</v>
@@ -38797,42 +38768,42 @@
         <v>76</v>
       </c>
       <c r="AC314" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD314" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE314" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF314" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG314" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH314" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI314" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ314" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK314" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>591</v>
+        <v>442</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C315" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" t="s" s="2">
@@ -38840,7 +38811,7 @@
       </c>
       <c r="F315" s="2"/>
       <c r="G315" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H315" t="s" s="2">
         <v>83</v>
@@ -38855,22 +38826,24 @@
         <v>76</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N315" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O315" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O315" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P315" s="2"/>
       <c r="Q315" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R315" s="2"/>
       <c r="S315" t="s" s="2">
-        <v>76</v>
+        <v>940</v>
       </c>
       <c r="T315" t="s" s="2">
         <v>76</v>
@@ -38912,19 +38885,19 @@
         <v>76</v>
       </c>
       <c r="AG315" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AH315" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI315" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ315" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK315" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="316">
@@ -38932,10 +38905,10 @@
         <v>442</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" t="s" s="2">
@@ -38946,7 +38919,7 @@
         <v>77</v>
       </c>
       <c r="H316" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I316" t="s" s="2">
         <v>76</v>
@@ -38958,13 +38931,13 @@
         <v>76</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="N316" t="s" s="2">
-        <v>445</v>
+        <v>103</v>
       </c>
       <c r="O316" s="2"/>
       <c r="P316" s="2"/>
@@ -39015,30 +38988,30 @@
         <v>76</v>
       </c>
       <c r="AG316" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="AH316" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI316" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ316" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK316" t="s" s="2">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>442</v>
+        <v>599</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" t="s" s="2">
@@ -39049,7 +39022,7 @@
         <v>77</v>
       </c>
       <c r="H317" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I317" t="s" s="2">
         <v>76</v>
@@ -39061,13 +39034,13 @@
         <v>76</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N317" t="s" s="2">
-        <v>86</v>
+        <v>602</v>
       </c>
       <c r="O317" s="2"/>
       <c r="P317" s="2"/>
@@ -39118,30 +39091,30 @@
         <v>76</v>
       </c>
       <c r="AG317" t="s" s="2">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="AH317" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI317" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ317" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK317" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>442</v>
+        <v>599</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" t="s" s="2">
@@ -39152,7 +39125,7 @@
         <v>77</v>
       </c>
       <c r="H318" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I318" t="s" s="2">
         <v>76</v>
@@ -39164,13 +39137,13 @@
         <v>76</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M318" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="N318" t="s" s="2">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O318" s="2"/>
       <c r="P318" s="2"/>
@@ -39209,42 +39182,42 @@
         <v>76</v>
       </c>
       <c r="AC318" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AD318" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AE318" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF318" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AG318" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AH318" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI318" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ318" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK318" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>442</v>
+        <v>599</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
@@ -39252,10 +39225,10 @@
       </c>
       <c r="F319" s="2"/>
       <c r="G319" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H319" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I319" t="s" s="2">
         <v>76</v>
@@ -39267,24 +39240,22 @@
         <v>76</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="N319" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O319" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O319" s="2"/>
       <c r="P319" s="2"/>
       <c r="Q319" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R319" s="2"/>
       <c r="S319" t="s" s="2">
-        <v>949</v>
+        <v>76</v>
       </c>
       <c r="T319" t="s" s="2">
         <v>76</v>
@@ -39314,42 +39285,42 @@
         <v>76</v>
       </c>
       <c r="AC319" t="s" s="2">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="AD319" t="s" s="2">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="AE319" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AF319" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG319" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH319" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI319" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AJ319" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK319" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>442</v>
+        <v>599</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" t="s" s="2">
@@ -39357,7 +39328,7 @@
       </c>
       <c r="F320" s="2"/>
       <c r="G320" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H320" t="s" s="2">
         <v>83</v>
@@ -39372,22 +39343,24 @@
         <v>76</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="M320" t="s" s="2">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N320" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O320" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O320" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="P320" s="2"/>
       <c r="Q320" t="s" s="2">
         <v>76</v>
       </c>
       <c r="R320" s="2"/>
       <c r="S320" t="s" s="2">
-        <v>76</v>
+        <v>943</v>
       </c>
       <c r="T320" t="s" s="2">
         <v>76</v>
@@ -39429,19 +39402,19 @@
         <v>76</v>
       </c>
       <c r="AG320" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AH320" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI320" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ320" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK320" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="321">
@@ -39449,10 +39422,10 @@
         <v>599</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" t="s" s="2">
@@ -39463,7 +39436,7 @@
         <v>77</v>
       </c>
       <c r="H321" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I321" t="s" s="2">
         <v>76</v>
@@ -39475,13 +39448,13 @@
         <v>76</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="N321" t="s" s="2">
-        <v>602</v>
+        <v>103</v>
       </c>
       <c r="O321" s="2"/>
       <c r="P321" s="2"/>
@@ -39532,432 +39505,18 @@
         <v>76</v>
       </c>
       <c r="AG321" t="s" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="AH321" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI321" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AJ321" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK321" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="B322" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="C322" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D322" s="2"/>
-      <c r="E322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F322" s="2"/>
-      <c r="G322" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H322" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="L322" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M322" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N322" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="O322" s="2"/>
-      <c r="P322" s="2"/>
-      <c r="Q322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R322" s="2"/>
-      <c r="S322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG322" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH322" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI322" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ322" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK322" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="B323" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C323" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="D323" s="2"/>
-      <c r="E323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F323" s="2"/>
-      <c r="G323" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H323" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="L323" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M323" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="N323" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O323" s="2"/>
-      <c r="P323" s="2"/>
-      <c r="Q323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R323" s="2"/>
-      <c r="S323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC323" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AD323" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AE323" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF323" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AG323" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AH323" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI323" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ323" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK323" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="B324" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="C324" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="D324" s="2"/>
-      <c r="E324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F324" s="2"/>
-      <c r="G324" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H324" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="L324" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M324" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N324" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O324" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="P324" s="2"/>
-      <c r="Q324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R324" s="2"/>
-      <c r="S324" t="s" s="2">
-        <v>952</v>
-      </c>
-      <c r="T324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG324" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AH324" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI324" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ324" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK324" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="B325" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="C325" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="D325" s="2"/>
-      <c r="E325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F325" s="2"/>
-      <c r="G325" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H325" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="L325" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M325" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N325" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="O325" s="2"/>
-      <c r="P325" s="2"/>
-      <c r="Q325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R325" s="2"/>
-      <c r="S325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF325" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG325" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AH325" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI325" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ325" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK325" t="s" s="2">
         <v>104</v>
       </c>
     </row>
